--- a/2021/LFM_WP_Fall2021/PWD_Oct2021_LFM_WP_Calcs.xlsx
+++ b/2021/LFM_WP_Fall2021/PWD_Oct2021_LFM_WP_Calcs.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/GitHub/PepperwoodVegPlots/2021/LFM_WP_Fall2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD4294-5619-C94B-A5FE-9F0C6DA24CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00D5E19-1FB0-C248-860B-E48435061B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="27000" windowHeight="15480" activeTab="4" xr2:uid="{05CBDBC3-C58E-254F-9CCB-F423A62E9A36}"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="27000" windowHeight="15480" activeTab="3" xr2:uid="{05CBDBC3-C58E-254F-9CCB-F423A62E9A36}"/>
   </bookViews>
   <sheets>
     <sheet name="WP_clean" sheetId="2" r:id="rId1"/>
-    <sheet name="WP_mean" sheetId="3" r:id="rId2"/>
+    <sheet name="WP_means" sheetId="3" r:id="rId2"/>
     <sheet name="LFM_clean" sheetId="1" r:id="rId3"/>
-    <sheet name="LFM_calcs" sheetId="4" r:id="rId4"/>
+    <sheet name="LFM_calcs_formulas" sheetId="4" r:id="rId4"/>
     <sheet name="FLM_final" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="119">
   <si>
     <t>Site</t>
   </si>
@@ -841,9 +841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB63F9D-A779-474A-9790-68A1B1C3510F}">
   <dimension ref="A1:AC154"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+    <sheetView topLeftCell="D1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5695,7 +5695,7 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C18"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7754,9 +7754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17ACA9F-3409-0E43-A145-3AF267DD9BC7}">
   <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
+    <sheetView zoomScale="87" zoomScaleNormal="158" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8493,20 +8493,10 @@
       <c r="J30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O30" s="4">
-        <v>38.386119999999998</v>
-      </c>
+      <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30">
-        <v>39.656999999999996</v>
-      </c>
-      <c r="S30">
-        <v>37.225000000000001</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -11328,8 +11318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031B472-3627-4E45-A195-B1D10EC254E7}">
   <dimension ref="A1:V143"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11422,15 +11412,15 @@
         <v>37.119999999999997</v>
       </c>
       <c r="O2">
-        <f>(H2-N2)</f>
+        <f t="shared" ref="O2:O20" si="0">(H2-N2)</f>
         <v>1.6430000000000007</v>
       </c>
       <c r="P2">
-        <f>(E2-N2)</f>
+        <f t="shared" ref="P2:P20" si="1">(E2-N2)</f>
         <v>0.89550000000000551</v>
       </c>
       <c r="Q2">
-        <f>(O2-P2)</f>
+        <f t="shared" ref="Q2:Q33" si="2">(O2-P2)</f>
         <v>0.74749999999999517</v>
       </c>
     </row>
@@ -11460,15 +11450,15 @@
         <v>37.210999999999999</v>
       </c>
       <c r="O3">
-        <f>(H3-N3)</f>
+        <f t="shared" si="0"/>
         <v>2.4278000000000048</v>
       </c>
       <c r="P3">
-        <f>(E3-N3)</f>
+        <f t="shared" si="1"/>
         <v>1.4600000000000009</v>
       </c>
       <c r="Q3">
-        <f>(O3-P3)</f>
+        <f t="shared" si="2"/>
         <v>0.96780000000000399</v>
       </c>
     </row>
@@ -11498,15 +11488,15 @@
         <v>37.091999999999999</v>
       </c>
       <c r="O4">
-        <f>(H4-N4)</f>
+        <f t="shared" si="0"/>
         <v>2.5320000000000036</v>
       </c>
       <c r="P4">
-        <f>(E4-N4)</f>
+        <f t="shared" si="1"/>
         <v>1.4804999999999993</v>
       </c>
       <c r="Q4">
-        <f>(O4-P4)</f>
+        <f t="shared" si="2"/>
         <v>1.0515000000000043</v>
       </c>
     </row>
@@ -11536,15 +11526,15 @@
         <v>36.9848</v>
       </c>
       <c r="O5">
-        <f>(H5-N5)</f>
+        <f t="shared" si="0"/>
         <v>2.2931999999999988</v>
       </c>
       <c r="P5">
-        <f>(E5-N5)</f>
+        <f t="shared" si="1"/>
         <v>1.1328000000000031</v>
       </c>
       <c r="Q5">
-        <f>(O5-P5)</f>
+        <f t="shared" si="2"/>
         <v>1.1603999999999957</v>
       </c>
     </row>
@@ -11574,15 +11564,15 @@
         <v>36.97</v>
       </c>
       <c r="O6">
-        <f>(H6-N6)</f>
+        <f t="shared" si="0"/>
         <v>2.9442999999999984</v>
       </c>
       <c r="P6">
-        <f>(E6-N6)</f>
+        <f t="shared" si="1"/>
         <v>1.764400000000002</v>
       </c>
       <c r="Q6">
-        <f>(O6-P6)</f>
+        <f t="shared" si="2"/>
         <v>1.1798999999999964</v>
       </c>
     </row>
@@ -11612,15 +11602,15 @@
         <v>36.878</v>
       </c>
       <c r="O7">
-        <f>(H7-N7)</f>
+        <f t="shared" si="0"/>
         <v>2.6760000000000019</v>
       </c>
       <c r="P7">
-        <f>(E7-N7)</f>
+        <f t="shared" si="1"/>
         <v>1.4654000000000025</v>
       </c>
       <c r="Q7">
-        <f>(O7-P7)</f>
+        <f t="shared" si="2"/>
         <v>1.2105999999999995</v>
       </c>
     </row>
@@ -11653,15 +11643,15 @@
         <v>37.225000000000001</v>
       </c>
       <c r="O8">
-        <f>(H8-N8)</f>
+        <f t="shared" si="0"/>
         <v>2.4319999999999951</v>
       </c>
       <c r="P8">
-        <f>(E8-N8)</f>
+        <f t="shared" si="1"/>
         <v>1.1611199999999968</v>
       </c>
       <c r="Q8">
-        <f>(O8-P8)</f>
+        <f t="shared" si="2"/>
         <v>1.2708799999999982</v>
       </c>
       <c r="R8" t="s">
@@ -11695,15 +11685,15 @@
         <v>37.223999999999997</v>
       </c>
       <c r="O9">
-        <f>(H9-N9)</f>
+        <f t="shared" si="0"/>
         <v>2.7450000000000045</v>
       </c>
       <c r="P9">
-        <f>(E9-N9)</f>
+        <f t="shared" si="1"/>
         <v>1.4137000000000057</v>
       </c>
       <c r="Q9">
-        <f>(O9-P9)</f>
+        <f t="shared" si="2"/>
         <v>1.3312999999999988</v>
       </c>
     </row>
@@ -11736,15 +11726,15 @@
         <v>36.9283</v>
       </c>
       <c r="O10">
-        <f>(H10-N10)</f>
+        <f t="shared" si="0"/>
         <v>3.4956999999999994</v>
       </c>
       <c r="P10">
-        <f>(E10-N10)</f>
+        <f t="shared" si="1"/>
         <v>2.1475999999999971</v>
       </c>
       <c r="Q10">
-        <f>(O10-P10)</f>
+        <f t="shared" si="2"/>
         <v>1.3481000000000023</v>
       </c>
     </row>
@@ -11774,15 +11764,15 @@
         <v>36.988</v>
       </c>
       <c r="O11">
-        <f>(H11-N11)</f>
+        <f t="shared" si="0"/>
         <v>3.8500000000000014</v>
       </c>
       <c r="P11">
-        <f>(E11-N11)</f>
+        <f t="shared" si="1"/>
         <v>2.4579000000000022</v>
       </c>
       <c r="Q11">
-        <f>(O11-P11)</f>
+        <f t="shared" si="2"/>
         <v>1.3920999999999992</v>
       </c>
     </row>
@@ -11812,15 +11802,15 @@
         <v>37.171999999999997</v>
       </c>
       <c r="O12">
-        <f>(H12-N12)</f>
+        <f t="shared" si="0"/>
         <v>2.5450000000000017</v>
       </c>
       <c r="P12">
-        <f>(E12-N12)</f>
+        <f t="shared" si="1"/>
         <v>1.1512000000000029</v>
       </c>
       <c r="Q12">
-        <f>(O12-P12)</f>
+        <f t="shared" si="2"/>
         <v>1.3937999999999988</v>
       </c>
     </row>
@@ -11850,15 +11840,15 @@
         <v>37.024999999999999</v>
       </c>
       <c r="O13">
-        <f>(H13-N13)</f>
+        <f t="shared" si="0"/>
         <v>4.5373000000000019</v>
       </c>
       <c r="P13">
-        <f>(E13-N13)</f>
+        <f t="shared" si="1"/>
         <v>3.1405999999999992</v>
       </c>
       <c r="Q13">
-        <f>(O13-P13)</f>
+        <f t="shared" si="2"/>
         <v>1.3967000000000027</v>
       </c>
     </row>
@@ -11888,15 +11878,15 @@
         <v>37.192999999999998</v>
       </c>
       <c r="O14">
-        <f>(H14-N14)</f>
+        <f t="shared" si="0"/>
         <v>2.7110000000000056</v>
       </c>
       <c r="P14">
-        <f>(E14-N14)</f>
+        <f t="shared" si="1"/>
         <v>1.2621099999999998</v>
       </c>
       <c r="Q14">
-        <f>(O14-P14)</f>
+        <f t="shared" si="2"/>
         <v>1.4488900000000058</v>
       </c>
     </row>
@@ -11926,15 +11916,15 @@
         <v>37.023000000000003</v>
       </c>
       <c r="O15">
-        <f>(H15-N15)</f>
+        <f t="shared" si="0"/>
         <v>3.0319999999999965</v>
       </c>
       <c r="P15">
-        <f>(E15-N15)</f>
+        <f t="shared" si="1"/>
         <v>1.5504999999999995</v>
       </c>
       <c r="Q15">
-        <f>(O15-P15)</f>
+        <f t="shared" si="2"/>
         <v>1.4814999999999969</v>
       </c>
     </row>
@@ -11964,15 +11954,15 @@
         <v>37.036999999999999</v>
       </c>
       <c r="O16">
-        <f>(H16-N16)</f>
+        <f t="shared" si="0"/>
         <v>3.5850000000000009</v>
       </c>
       <c r="P16">
-        <f>(E16-N16)</f>
+        <f t="shared" si="1"/>
         <v>2.072499999999998</v>
       </c>
       <c r="Q16">
-        <f>(O16-P16)</f>
+        <f t="shared" si="2"/>
         <v>1.5125000000000028</v>
       </c>
     </row>
@@ -12002,15 +11992,15 @@
         <v>37.155000000000001</v>
       </c>
       <c r="O17">
-        <f>(H17-N17)</f>
+        <f t="shared" si="0"/>
         <v>4.2939999999999969</v>
       </c>
       <c r="P17">
-        <f>(E17-N17)</f>
+        <f t="shared" si="1"/>
         <v>2.7160000000000011</v>
       </c>
       <c r="Q17">
-        <f>(O17-P17)</f>
+        <f t="shared" si="2"/>
         <v>1.5779999999999959</v>
       </c>
     </row>
@@ -12040,15 +12030,15 @@
         <v>37.020000000000003</v>
       </c>
       <c r="O18">
-        <f>(H18-N18)</f>
+        <f t="shared" si="0"/>
         <v>4.4649999999999963</v>
       </c>
       <c r="P18">
-        <f>(E18-N18)</f>
+        <f t="shared" si="1"/>
         <v>2.8741999999999948</v>
       </c>
       <c r="Q18">
-        <f>(O18-P18)</f>
+        <f t="shared" si="2"/>
         <v>1.5908000000000015</v>
       </c>
     </row>
@@ -12078,15 +12068,15 @@
         <v>37.134</v>
       </c>
       <c r="O19">
-        <f>(H19-N19)</f>
+        <f t="shared" si="0"/>
         <v>4.4572999999999965</v>
       </c>
       <c r="P19">
-        <f>(E19-N19)</f>
+        <f t="shared" si="1"/>
         <v>2.8494000000000028</v>
       </c>
       <c r="Q19">
-        <f>(O19-P19)</f>
+        <f t="shared" si="2"/>
         <v>1.6078999999999937</v>
       </c>
     </row>
@@ -12116,15 +12106,15 @@
         <v>37.045999999999999</v>
       </c>
       <c r="O20">
-        <f>(H20-N20)</f>
+        <f t="shared" si="0"/>
         <v>3.2250000000000014</v>
       </c>
       <c r="P20">
-        <f>(E20-N20)</f>
+        <f t="shared" si="1"/>
         <v>1.5636999999999972</v>
       </c>
       <c r="Q20">
-        <f>(O20-P20)</f>
+        <f t="shared" si="2"/>
         <v>1.6613000000000042</v>
       </c>
     </row>
@@ -12175,7 +12165,7 @@
         <v>1.6618500000000012</v>
       </c>
       <c r="Q21">
-        <f>(O21-P21)</f>
+        <f t="shared" si="2"/>
         <v>1.7111499999999964</v>
       </c>
       <c r="R21" t="s">
@@ -12208,15 +12198,15 @@
         <v>37.076000000000001</v>
       </c>
       <c r="O22">
-        <f>(H22-N22)</f>
+        <f t="shared" ref="O22:O30" si="3">(H22-N22)</f>
         <v>4.527000000000001</v>
       </c>
       <c r="P22">
-        <f>(E22-N22)</f>
+        <f t="shared" ref="P22:P30" si="4">(E22-N22)</f>
         <v>2.7622999999999962</v>
       </c>
       <c r="Q22">
-        <f>(O22-P22)</f>
+        <f t="shared" si="2"/>
         <v>1.7647000000000048</v>
       </c>
     </row>
@@ -12246,15 +12236,15 @@
         <v>37.106000000000002</v>
       </c>
       <c r="O23">
-        <f>(H23-N23)</f>
+        <f t="shared" si="3"/>
         <v>3.205999999999996</v>
       </c>
       <c r="P23">
-        <f>(E23-N23)</f>
+        <f t="shared" si="4"/>
         <v>1.3618799999999993</v>
       </c>
       <c r="Q23">
-        <f>(O23-P23)</f>
+        <f t="shared" si="2"/>
         <v>1.8441199999999967</v>
       </c>
     </row>
@@ -12284,15 +12274,15 @@
         <v>37.067</v>
       </c>
       <c r="O24">
-        <f>(H24-N24)</f>
+        <f t="shared" si="3"/>
         <v>4.8830000000000027</v>
       </c>
       <c r="P24">
-        <f>(E24-N24)</f>
+        <f t="shared" si="4"/>
         <v>3.0150999999999968</v>
       </c>
       <c r="Q24">
-        <f>(O24-P24)</f>
+        <f t="shared" si="2"/>
         <v>1.8679000000000059</v>
       </c>
     </row>
@@ -12322,15 +12312,15 @@
         <v>37.101999999999997</v>
       </c>
       <c r="O25">
-        <f>(H25-N25)</f>
+        <f t="shared" si="3"/>
         <v>4.7244000000000028</v>
       </c>
       <c r="P25">
-        <f>(E25-N25)</f>
+        <f t="shared" si="4"/>
         <v>2.8198000000000008</v>
       </c>
       <c r="Q25">
-        <f>(O25-P25)</f>
+        <f t="shared" si="2"/>
         <v>1.9046000000000021</v>
       </c>
     </row>
@@ -12360,15 +12350,15 @@
         <v>37.088000000000001</v>
       </c>
       <c r="O26">
-        <f>(H26-N26)</f>
+        <f t="shared" si="3"/>
         <v>5.6077000000000012</v>
       </c>
       <c r="P26">
-        <f>(E26-N26)</f>
+        <f t="shared" si="4"/>
         <v>3.693799999999996</v>
       </c>
       <c r="Q26">
-        <f>(O26-P26)</f>
+        <f t="shared" si="2"/>
         <v>1.9139000000000053</v>
       </c>
     </row>
@@ -12398,15 +12388,15 @@
         <v>36.860999999999997</v>
       </c>
       <c r="O27">
-        <f>(H27-N27)</f>
+        <f t="shared" si="3"/>
         <v>3.7439999999999998</v>
       </c>
       <c r="P27">
-        <f>(E27-N27)</f>
+        <f t="shared" si="4"/>
         <v>1.8231999999999999</v>
       </c>
       <c r="Q27">
-        <f>(O27-P27)</f>
+        <f t="shared" si="2"/>
         <v>1.9207999999999998</v>
       </c>
     </row>
@@ -12436,15 +12426,15 @@
         <v>37.135599999999997</v>
       </c>
       <c r="O28">
-        <f>(H28-N28)</f>
+        <f t="shared" si="3"/>
         <v>5.0025000000000048</v>
       </c>
       <c r="P28">
-        <f>(E28-N28)</f>
+        <f t="shared" si="4"/>
         <v>3.0777000000000001</v>
       </c>
       <c r="Q28">
-        <f>(O28-P28)</f>
+        <f t="shared" si="2"/>
         <v>1.9248000000000047</v>
       </c>
     </row>
@@ -12475,15 +12465,15 @@
         <v>37.121000000000002</v>
       </c>
       <c r="O29">
-        <f>(H29-N29)</f>
+        <f t="shared" si="3"/>
         <v>2.8109999999999999</v>
       </c>
       <c r="P29">
-        <f>(E29-N29)</f>
+        <f t="shared" si="4"/>
         <v>0.87930000000000064</v>
       </c>
       <c r="Q29">
-        <f>(O29-P29)</f>
+        <f t="shared" si="2"/>
         <v>1.9316999999999993</v>
       </c>
     </row>
@@ -12513,15 +12503,15 @@
         <v>36.911999999999999</v>
       </c>
       <c r="O30">
-        <f>(H30-N30)</f>
+        <f t="shared" si="3"/>
         <v>4.7150000000000034</v>
       </c>
       <c r="P30">
-        <f>(E30-N30)</f>
+        <f t="shared" si="4"/>
         <v>2.7801000000000045</v>
       </c>
       <c r="Q30">
-        <f>(O30-P30)</f>
+        <f t="shared" si="2"/>
         <v>1.934899999999999</v>
       </c>
     </row>
@@ -12569,7 +12559,7 @@
         <v>2.3389999999999986</v>
       </c>
       <c r="Q31">
-        <f>(O31-P31)</f>
+        <f t="shared" si="2"/>
         <v>1.9579999999999984</v>
       </c>
     </row>
@@ -12607,7 +12597,7 @@
         <v>1.9758999999999958</v>
       </c>
       <c r="Q32">
-        <f>(O32-P32)</f>
+        <f t="shared" si="2"/>
         <v>1.9761000000000024</v>
       </c>
     </row>
@@ -12645,7 +12635,7 @@
         <v>3.6576999999999984</v>
       </c>
       <c r="Q33">
-        <f>(O33-P33)</f>
+        <f t="shared" si="2"/>
         <v>2.0763000000000034</v>
       </c>
     </row>
@@ -12683,7 +12673,7 @@
         <v>3.0686999999999998</v>
       </c>
       <c r="Q34">
-        <f>(O34-P34)</f>
+        <f t="shared" ref="Q34:Q65" si="5">(O34-P34)</f>
         <v>2.2130999999999972</v>
       </c>
     </row>
@@ -12721,7 +12711,7 @@
         <v>2.8061999999999969</v>
       </c>
       <c r="Q35">
-        <f>(O35-P35)</f>
+        <f t="shared" si="5"/>
         <v>2.2206000000000046</v>
       </c>
     </row>
@@ -12769,7 +12759,7 @@
         <v>2.1353000000000009</v>
       </c>
       <c r="Q36">
-        <f>(O36-P36)</f>
+        <f t="shared" si="5"/>
         <v>2.2316999999999965</v>
       </c>
     </row>
@@ -12807,7 +12797,7 @@
         <v>3.6137999999999977</v>
       </c>
       <c r="Q37">
-        <f>(O37-P37)</f>
+        <f t="shared" si="5"/>
         <v>2.4282000000000039</v>
       </c>
     </row>
@@ -12845,7 +12835,7 @@
         <v>3.5564999999999998</v>
       </c>
       <c r="Q38">
-        <f>(O38-P38)</f>
+        <f t="shared" si="5"/>
         <v>2.4354999999999976</v>
       </c>
     </row>
@@ -12883,7 +12873,7 @@
         <v>3.9873999999999938</v>
       </c>
       <c r="Q39">
-        <f>(O39-P39)</f>
+        <f t="shared" si="5"/>
         <v>2.5086000000000013</v>
       </c>
     </row>
@@ -12928,7 +12918,7 @@
         <v>4.5165999999999968</v>
       </c>
       <c r="Q40">
-        <f>(O40-P40)</f>
+        <f t="shared" si="5"/>
         <v>2.5804000000000045</v>
       </c>
       <c r="R40" t="s">
@@ -12979,7 +12969,7 @@
         <v>4.3102799999999988</v>
       </c>
       <c r="Q41">
-        <f>(O41-P41)</f>
+        <f t="shared" si="5"/>
         <v>2.6617200000000025</v>
       </c>
       <c r="R41" t="s">
@@ -13012,15 +13002,15 @@
         <v>37.085999999999999</v>
       </c>
       <c r="O42">
-        <f>(H42-N42)</f>
+        <f t="shared" ref="O42:O49" si="6">(H42-N42)</f>
         <v>6.9909999999999997</v>
       </c>
       <c r="P42">
-        <f>(E42-N42)</f>
+        <f t="shared" ref="P42:P49" si="7">(E42-N42)</f>
         <v>4.2635000000000005</v>
       </c>
       <c r="Q42">
-        <f>(O42-P42)</f>
+        <f t="shared" si="5"/>
         <v>2.7274999999999991</v>
       </c>
     </row>
@@ -13050,15 +13040,15 @@
         <v>37.161000000000001</v>
       </c>
       <c r="O43">
-        <f>(H43-N43)</f>
+        <f t="shared" si="6"/>
         <v>5.4110000000000014</v>
       </c>
       <c r="P43">
-        <f>(E43-N43)</f>
+        <f t="shared" si="7"/>
         <v>2.6822999999999979</v>
       </c>
       <c r="Q43">
-        <f>(O43-P43)</f>
+        <f t="shared" si="5"/>
         <v>2.7287000000000035</v>
       </c>
     </row>
@@ -13088,15 +13078,15 @@
         <v>37.005000000000003</v>
       </c>
       <c r="O44">
-        <f>(H44-N44)</f>
+        <f t="shared" si="6"/>
         <v>5.6175999999999959</v>
       </c>
       <c r="P44">
-        <f>(E44-N44)</f>
+        <f t="shared" si="7"/>
         <v>2.7937999999999974</v>
       </c>
       <c r="Q44">
-        <f>(O44-P44)</f>
+        <f t="shared" si="5"/>
         <v>2.8237999999999985</v>
       </c>
     </row>
@@ -13126,15 +13116,15 @@
         <v>37.056399999999996</v>
       </c>
       <c r="O45">
-        <f>(H45-N45)</f>
+        <f t="shared" si="6"/>
         <v>7.2052000000000049</v>
       </c>
       <c r="P45">
-        <f>(E45-N45)</f>
+        <f t="shared" si="7"/>
         <v>4.3102000000000018</v>
       </c>
       <c r="Q45">
-        <f>(O45-P45)</f>
+        <f t="shared" si="5"/>
         <v>2.8950000000000031</v>
       </c>
     </row>
@@ -13167,15 +13157,15 @@
         <v>37.084000000000003</v>
       </c>
       <c r="O46">
-        <f>(H46-N46)</f>
+        <f t="shared" si="6"/>
         <v>7.4259999999999948</v>
       </c>
       <c r="P46">
-        <f>(E46-N46)</f>
+        <f t="shared" si="7"/>
         <v>4.4739999999999966</v>
       </c>
       <c r="Q46">
-        <f>(O46-P46)</f>
+        <f t="shared" si="5"/>
         <v>2.9519999999999982</v>
       </c>
     </row>
@@ -13205,15 +13195,15 @@
         <v>37.136000000000003</v>
       </c>
       <c r="O47">
-        <f>(H47-N47)</f>
+        <f t="shared" si="6"/>
         <v>6.7409999999999997</v>
       </c>
       <c r="P47">
-        <f>(E47-N47)</f>
+        <f t="shared" si="7"/>
         <v>3.746699999999997</v>
       </c>
       <c r="Q47">
-        <f>(O47-P47)</f>
+        <f t="shared" si="5"/>
         <v>2.9943000000000026</v>
       </c>
     </row>
@@ -13243,15 +13233,15 @@
         <v>37.006999999999998</v>
       </c>
       <c r="O48">
-        <f>(H48-N48)</f>
+        <f t="shared" si="6"/>
         <v>8.7220000000000013</v>
       </c>
       <c r="P48">
-        <f>(E48-N48)</f>
+        <f t="shared" si="7"/>
         <v>5.7161000000000044</v>
       </c>
       <c r="Q48">
-        <f>(O48-P48)</f>
+        <f t="shared" si="5"/>
         <v>3.0058999999999969</v>
       </c>
       <c r="V48" s="10"/>
@@ -13282,15 +13272,15 @@
         <v>36.899799999999999</v>
       </c>
       <c r="O49">
-        <f>(H49-N49)</f>
+        <f t="shared" si="6"/>
         <v>6.9234000000000009</v>
       </c>
       <c r="P49">
-        <f>(E49-N49)</f>
+        <f t="shared" si="7"/>
         <v>3.8387999999999991</v>
       </c>
       <c r="Q49">
-        <f>(O49-P49)</f>
+        <f t="shared" si="5"/>
         <v>3.0846000000000018</v>
       </c>
     </row>
@@ -13338,7 +13328,7 @@
         <v>6.5616000000000057</v>
       </c>
       <c r="Q50">
-        <f>(O50-P50)</f>
+        <f t="shared" si="5"/>
         <v>3.1933999999999969</v>
       </c>
       <c r="R50" t="s">
@@ -13377,15 +13367,15 @@
         <v>37.145000000000003</v>
       </c>
       <c r="O51">
-        <f>(H51-N51)</f>
+        <f t="shared" ref="O51:O95" si="8">(H51-N51)</f>
         <v>9.3739999999999952</v>
       </c>
       <c r="P51">
-        <f>(E51-N51)</f>
+        <f t="shared" ref="P51:P95" si="9">(E51-N51)</f>
         <v>6.1538799999999938</v>
       </c>
       <c r="Q51">
-        <f>(O51-P51)</f>
+        <f t="shared" si="5"/>
         <v>3.2201200000000014</v>
       </c>
     </row>
@@ -13415,15 +13405,15 @@
         <v>36.951999999999998</v>
       </c>
       <c r="O52">
-        <f>(H52-N52)</f>
+        <f t="shared" si="8"/>
         <v>9.0100000000000051</v>
       </c>
       <c r="P52">
-        <f>(E52-N52)</f>
+        <f t="shared" si="9"/>
         <v>5.7886000000000024</v>
       </c>
       <c r="Q52">
-        <f>(O52-P52)</f>
+        <f t="shared" si="5"/>
         <v>3.2214000000000027</v>
       </c>
     </row>
@@ -13453,15 +13443,15 @@
         <v>37.011899999999997</v>
       </c>
       <c r="O53">
-        <f>(H53-N53)</f>
+        <f t="shared" si="8"/>
         <v>8.3719999999999999</v>
       </c>
       <c r="P53">
-        <f>(E53-N53)</f>
+        <f t="shared" si="9"/>
         <v>5.0400000000000063</v>
       </c>
       <c r="Q53">
-        <f>(O53-P53)</f>
+        <f t="shared" si="5"/>
         <v>3.3319999999999936</v>
       </c>
     </row>
@@ -13491,15 +13481,15 @@
         <v>36.976100000000002</v>
       </c>
       <c r="O54">
-        <f>(H54-N54)</f>
+        <f t="shared" si="8"/>
         <v>8.1861999999999995</v>
       </c>
       <c r="P54">
-        <f>(E54-N54)</f>
+        <f t="shared" si="9"/>
         <v>4.8125999999999962</v>
       </c>
       <c r="Q54">
-        <f>(O54-P54)</f>
+        <f t="shared" si="5"/>
         <v>3.3736000000000033</v>
       </c>
     </row>
@@ -13529,15 +13519,15 @@
         <v>37.134999999999998</v>
       </c>
       <c r="O55">
-        <f>(H55-N55)</f>
+        <f t="shared" si="8"/>
         <v>9.1340000000000003</v>
       </c>
       <c r="P55">
-        <f>(E55-N55)</f>
+        <f t="shared" si="9"/>
         <v>5.7446000000000055</v>
       </c>
       <c r="Q55">
-        <f>(O55-P55)</f>
+        <f t="shared" si="5"/>
         <v>3.3893999999999949</v>
       </c>
     </row>
@@ -13567,15 +13557,15 @@
         <v>37.017899999999997</v>
       </c>
       <c r="O56">
-        <f>(H56-N56)</f>
+        <f t="shared" si="8"/>
         <v>7.8845000000000027</v>
       </c>
       <c r="P56">
-        <f>(E56-N56)</f>
+        <f t="shared" si="9"/>
         <v>4.4747000000000057</v>
       </c>
       <c r="Q56">
-        <f>(O56-P56)</f>
+        <f t="shared" si="5"/>
         <v>3.4097999999999971</v>
       </c>
     </row>
@@ -13605,15 +13595,15 @@
         <v>37.130000000000003</v>
       </c>
       <c r="O57">
-        <f>(H57-N57)</f>
+        <f t="shared" si="8"/>
         <v>6.5229999999999961</v>
       </c>
       <c r="P57">
-        <f>(E57-N57)</f>
+        <f t="shared" si="9"/>
         <v>3.0805000000000007</v>
       </c>
       <c r="Q57">
-        <f>(O57-P57)</f>
+        <f t="shared" si="5"/>
         <v>3.4424999999999955</v>
       </c>
     </row>
@@ -13646,15 +13636,15 @@
         <v>37.015000000000001</v>
       </c>
       <c r="O58">
-        <f>(H58-N58)</f>
+        <f t="shared" si="8"/>
         <v>6.3190000000000026</v>
       </c>
       <c r="P58">
-        <f>(E58-N58)</f>
+        <f t="shared" si="9"/>
         <v>2.8699099999999973</v>
       </c>
       <c r="Q58">
-        <f>(O58-P58)</f>
+        <f t="shared" si="5"/>
         <v>3.4490900000000053</v>
       </c>
       <c r="R58" t="s">
@@ -13687,15 +13677,15 @@
         <v>36.878999999999998</v>
       </c>
       <c r="O59">
-        <f>(H59-N59)</f>
+        <f t="shared" si="8"/>
         <v>7.0600000000000023</v>
       </c>
       <c r="P59">
-        <f>(E59-N59)</f>
+        <f t="shared" si="9"/>
         <v>3.5777300000000025</v>
       </c>
       <c r="Q59">
-        <f>(O59-P59)</f>
+        <f t="shared" si="5"/>
         <v>3.4822699999999998</v>
       </c>
     </row>
@@ -13725,15 +13715,15 @@
         <v>37.198999999999998</v>
       </c>
       <c r="O60">
-        <f>(H60-N60)</f>
+        <f t="shared" si="8"/>
         <v>6.9879000000000033</v>
       </c>
       <c r="P60">
-        <f>(E60-N60)</f>
+        <f t="shared" si="9"/>
         <v>3.4220000000000041</v>
       </c>
       <c r="Q60">
-        <f>(O60-P60)</f>
+        <f t="shared" si="5"/>
         <v>3.5658999999999992</v>
       </c>
     </row>
@@ -13763,15 +13753,15 @@
         <v>37.005000000000003</v>
       </c>
       <c r="O61">
-        <f>(H61-N61)</f>
+        <f t="shared" si="8"/>
         <v>6.5210000000000008</v>
       </c>
       <c r="P61">
-        <f>(E61-N61)</f>
+        <f t="shared" si="9"/>
         <v>2.8845999999999989</v>
       </c>
       <c r="Q61">
-        <f>(O61-P61)</f>
+        <f t="shared" si="5"/>
         <v>3.6364000000000019</v>
       </c>
     </row>
@@ -13801,15 +13791,15 @@
         <v>37.155000000000001</v>
       </c>
       <c r="O62">
-        <f>(H62-N62)</f>
+        <f t="shared" si="8"/>
         <v>9.8489999999999966</v>
       </c>
       <c r="P62">
-        <f>(E62-N62)</f>
+        <f t="shared" si="9"/>
         <v>6.1597999999999971</v>
       </c>
       <c r="Q62">
-        <f>(O62-P62)</f>
+        <f t="shared" si="5"/>
         <v>3.6891999999999996</v>
       </c>
     </row>
@@ -13839,15 +13829,15 @@
         <v>36.954000000000001</v>
       </c>
       <c r="O63">
-        <f>(H63-N63)</f>
+        <f t="shared" si="8"/>
         <v>7.5779999999999959</v>
       </c>
       <c r="P63">
-        <f>(E63-N63)</f>
+        <f t="shared" si="9"/>
         <v>3.8476900000000001</v>
       </c>
       <c r="Q63">
-        <f>(O63-P63)</f>
+        <f t="shared" si="5"/>
         <v>3.7303099999999958</v>
       </c>
     </row>
@@ -13877,15 +13867,15 @@
         <v>37.110399999999998</v>
       </c>
       <c r="O64">
-        <f>(H64-N64)</f>
+        <f t="shared" si="8"/>
         <v>8.6373000000000033</v>
       </c>
       <c r="P64">
-        <f>(E64-N64)</f>
+        <f t="shared" si="9"/>
         <v>4.9040999999999997</v>
       </c>
       <c r="Q64">
-        <f>(O64-P64)</f>
+        <f t="shared" si="5"/>
         <v>3.7332000000000036</v>
       </c>
     </row>
@@ -13915,15 +13905,15 @@
         <v>37.018900000000002</v>
       </c>
       <c r="O65">
-        <f>(H65-N65)</f>
+        <f t="shared" si="8"/>
         <v>9.6395999999999944</v>
       </c>
       <c r="P65">
-        <f>(E65-N65)</f>
+        <f t="shared" si="9"/>
         <v>5.7680000000000007</v>
       </c>
       <c r="Q65">
-        <f>(O65-P65)</f>
+        <f t="shared" si="5"/>
         <v>3.8715999999999937</v>
       </c>
     </row>
@@ -13953,15 +13943,15 @@
         <v>37.155999999999999</v>
       </c>
       <c r="O66">
-        <f>(H66-N66)</f>
+        <f t="shared" si="8"/>
         <v>9.2049999999999983</v>
       </c>
       <c r="P66">
-        <f>(E66-N66)</f>
+        <f t="shared" si="9"/>
         <v>5.1688000000000045</v>
       </c>
       <c r="Q66">
-        <f>(O66-P66)</f>
+        <f t="shared" ref="Q66:Q97" si="10">(O66-P66)</f>
         <v>4.0361999999999938</v>
       </c>
     </row>
@@ -13991,15 +13981,15 @@
         <v>37.058300000000003</v>
       </c>
       <c r="O67">
-        <f>(H67-N67)</f>
+        <f t="shared" si="8"/>
         <v>10.1492</v>
       </c>
       <c r="P67">
-        <f>(E67-N67)</f>
+        <f t="shared" si="9"/>
         <v>5.8194999999999979</v>
       </c>
       <c r="Q67">
-        <f>(O67-P67)</f>
+        <f t="shared" si="10"/>
         <v>4.3297000000000025</v>
       </c>
     </row>
@@ -14029,15 +14019,15 @@
         <v>37.015000000000001</v>
       </c>
       <c r="O68">
-        <f>(H68-N68)</f>
+        <f t="shared" si="8"/>
         <v>9.8113000000000028</v>
       </c>
       <c r="P68">
-        <f>(E68-N68)</f>
+        <f t="shared" si="9"/>
         <v>5.0634000000000015</v>
       </c>
       <c r="Q68">
-        <f>(O68-P68)</f>
+        <f t="shared" si="10"/>
         <v>4.7479000000000013</v>
       </c>
     </row>
@@ -14067,15 +14057,15 @@
         <v>37.084000000000003</v>
       </c>
       <c r="O69">
-        <f>(H69-N69)</f>
+        <f t="shared" si="8"/>
         <v>8.7249999999999943</v>
       </c>
       <c r="P69">
-        <f>(E69-N69)</f>
+        <f t="shared" si="9"/>
         <v>3.9636999999999958</v>
       </c>
       <c r="Q69">
-        <f>(O69-P69)</f>
+        <f t="shared" si="10"/>
         <v>4.7612999999999985</v>
       </c>
     </row>
@@ -14105,15 +14095,15 @@
         <v>37.037999999999997</v>
       </c>
       <c r="O70">
-        <f>(H70-N70)</f>
+        <f t="shared" si="8"/>
         <v>11.701000000000001</v>
       </c>
       <c r="P70">
-        <f>(E70-N70)</f>
+        <f t="shared" si="9"/>
         <v>6.6767000000000039</v>
       </c>
       <c r="Q70">
-        <f>(O70-P70)</f>
+        <f t="shared" si="10"/>
         <v>5.0242999999999967</v>
       </c>
       <c r="V70" s="10"/>
@@ -14144,15 +14134,15 @@
         <v>37.177999999999997</v>
       </c>
       <c r="O71">
-        <f>(H71-N71)</f>
+        <f t="shared" si="8"/>
         <v>13.682500000000005</v>
       </c>
       <c r="P71">
-        <f>(E71-N71)</f>
+        <f t="shared" si="9"/>
         <v>8.5907000000000053</v>
       </c>
       <c r="Q71">
-        <f>(O71-P71)</f>
+        <f t="shared" si="10"/>
         <v>5.0917999999999992</v>
       </c>
     </row>
@@ -14182,15 +14172,15 @@
         <v>37.064999999999998</v>
       </c>
       <c r="O72">
-        <f>(H72-N72)</f>
+        <f t="shared" si="8"/>
         <v>11.066000000000003</v>
       </c>
       <c r="P72">
-        <f>(E72-N72)</f>
+        <f t="shared" si="9"/>
         <v>5.940100000000001</v>
       </c>
       <c r="Q72">
-        <f>(O72-P72)</f>
+        <f t="shared" si="10"/>
         <v>5.1259000000000015</v>
       </c>
     </row>
@@ -14220,15 +14210,15 @@
         <v>36.989199999999997</v>
       </c>
       <c r="O73">
-        <f>(H73-N73)</f>
+        <f t="shared" si="8"/>
         <v>12.913800000000002</v>
       </c>
       <c r="P73">
-        <f>(E73-N73)</f>
+        <f t="shared" si="9"/>
         <v>7.4313000000000002</v>
       </c>
       <c r="Q73">
-        <f>(O73-P73)</f>
+        <f t="shared" si="10"/>
         <v>5.4825000000000017</v>
       </c>
     </row>
@@ -14261,15 +14251,15 @@
         <v>36.984699999999997</v>
       </c>
       <c r="O74">
-        <f>(H74-N74)</f>
+        <f t="shared" si="8"/>
         <v>12.778300000000002</v>
       </c>
       <c r="P74">
-        <f>(E74-N74)</f>
+        <f t="shared" si="9"/>
         <v>7.1736000000000004</v>
       </c>
       <c r="Q74">
-        <f>(O74-P74)</f>
+        <f t="shared" si="10"/>
         <v>5.6047000000000011</v>
       </c>
     </row>
@@ -14299,15 +14289,15 @@
         <v>37.131999999999998</v>
       </c>
       <c r="O75">
-        <f>(H75-N75)</f>
+        <f t="shared" si="8"/>
         <v>15.6967</v>
       </c>
       <c r="P75">
-        <f>(E75-N75)</f>
+        <f t="shared" si="9"/>
         <v>10.066800000000001</v>
       </c>
       <c r="Q75">
-        <f>(O75-P75)</f>
+        <f t="shared" si="10"/>
         <v>5.6298999999999992</v>
       </c>
     </row>
@@ -14340,15 +14330,15 @@
         <v>36.938000000000002</v>
       </c>
       <c r="O76">
-        <f>(H76-N76)</f>
+        <f t="shared" si="8"/>
         <v>14.488</v>
       </c>
       <c r="P76">
-        <f>(E76-N76)</f>
+        <f t="shared" si="9"/>
         <v>8.8297600000000003</v>
       </c>
       <c r="Q76">
-        <f>(O76-P76)</f>
+        <f t="shared" si="10"/>
         <v>5.6582399999999993</v>
       </c>
       <c r="R76" t="s">
@@ -14381,15 +14371,15 @@
         <v>31.1904</v>
       </c>
       <c r="O77">
-        <f>(H77-N77)</f>
+        <f t="shared" si="8"/>
         <v>19.072599999999998</v>
       </c>
       <c r="P77">
-        <f>(E77-N77)</f>
+        <f t="shared" si="9"/>
         <v>13.373200000000001</v>
       </c>
       <c r="Q77">
-        <f>(O77-P77)</f>
+        <f t="shared" si="10"/>
         <v>5.6993999999999971</v>
       </c>
     </row>
@@ -14422,15 +14412,15 @@
         <v>37.137099999999997</v>
       </c>
       <c r="O78">
-        <f>(H78-N78)</f>
+        <f t="shared" si="8"/>
         <v>15.528500000000001</v>
       </c>
       <c r="P78">
-        <f>(E78-N78)</f>
+        <f t="shared" si="9"/>
         <v>9.801400000000001</v>
       </c>
       <c r="Q78">
-        <f>(O78-P78)</f>
+        <f t="shared" si="10"/>
         <v>5.7271000000000001</v>
       </c>
     </row>
@@ -14462,15 +14452,15 @@
         <v>37.018500000000003</v>
       </c>
       <c r="O79">
-        <f>(H79-N79)</f>
+        <f t="shared" si="8"/>
         <v>10.536499999999997</v>
       </c>
       <c r="P79">
-        <f>(E79-N79)</f>
+        <f t="shared" si="9"/>
         <v>4.6252999999999957</v>
       </c>
       <c r="Q79">
-        <f>(O79-P79)</f>
+        <f t="shared" si="10"/>
         <v>5.9112000000000009</v>
       </c>
     </row>
@@ -14503,15 +14493,15 @@
         <v>36.9529</v>
       </c>
       <c r="O80">
-        <f>(H80-N80)</f>
+        <f t="shared" si="8"/>
         <v>13.625100000000003</v>
       </c>
       <c r="P80">
-        <f>(E80-N80)</f>
+        <f t="shared" si="9"/>
         <v>7.7109999999999985</v>
       </c>
       <c r="Q80">
-        <f>(O80-P80)</f>
+        <f t="shared" si="10"/>
         <v>5.9141000000000048</v>
       </c>
     </row>
@@ -14541,15 +14531,15 @@
         <v>36.942999999999998</v>
       </c>
       <c r="O81">
-        <f>(H81-N81)</f>
+        <f t="shared" si="8"/>
         <v>14.620000000000005</v>
       </c>
       <c r="P81">
-        <f>(E81-N81)</f>
+        <f t="shared" si="9"/>
         <v>8.6524000000000001</v>
       </c>
       <c r="Q81">
-        <f>(O81-P81)</f>
+        <f t="shared" si="10"/>
         <v>5.9676000000000045</v>
       </c>
     </row>
@@ -14579,15 +14569,15 @@
         <v>37.1113</v>
       </c>
       <c r="O82">
-        <f>(H82-N82)</f>
+        <f t="shared" si="8"/>
         <v>13.892800000000001</v>
       </c>
       <c r="P82">
-        <f>(E82-N82)</f>
+        <f t="shared" si="9"/>
         <v>7.9146000000000001</v>
       </c>
       <c r="Q82">
-        <f>(O82-P82)</f>
+        <f t="shared" si="10"/>
         <v>5.9782000000000011</v>
       </c>
     </row>
@@ -14617,15 +14607,15 @@
         <v>36.912999999999997</v>
       </c>
       <c r="O83">
-        <f>(H83-N83)</f>
+        <f t="shared" si="8"/>
         <v>14.747</v>
       </c>
       <c r="P83">
-        <f>(E83-N83)</f>
+        <f t="shared" si="9"/>
         <v>8.6831000000000031</v>
       </c>
       <c r="Q83">
-        <f>(O83-P83)</f>
+        <f t="shared" si="10"/>
         <v>6.0638999999999967</v>
       </c>
     </row>
@@ -14655,15 +14645,15 @@
         <v>37.043900000000001</v>
       </c>
       <c r="O84">
-        <f>(H84-N84)</f>
+        <f t="shared" si="8"/>
         <v>13.033099999999997</v>
       </c>
       <c r="P84">
-        <f>(E84-N84)</f>
+        <f t="shared" si="9"/>
         <v>6.816200000000002</v>
       </c>
       <c r="Q84">
-        <f>(O84-P84)</f>
+        <f t="shared" si="10"/>
         <v>6.2168999999999954</v>
       </c>
     </row>
@@ -14696,15 +14686,15 @@
         <v>37.161999999999999</v>
       </c>
       <c r="O85">
-        <f>(H85-N85)</f>
+        <f t="shared" si="8"/>
         <v>16.548999999999999</v>
       </c>
       <c r="P85">
-        <f>(E85-N85)</f>
+        <f t="shared" si="9"/>
         <v>10.255490000000002</v>
       </c>
       <c r="Q85">
-        <f>(O85-P85)</f>
+        <f t="shared" si="10"/>
         <v>6.2935099999999977</v>
       </c>
       <c r="R85" t="s">
@@ -14737,15 +14727,15 @@
         <v>37.136699999999998</v>
       </c>
       <c r="O86">
-        <f>(H86-N86)</f>
+        <f t="shared" si="8"/>
         <v>15.999300000000005</v>
       </c>
       <c r="P86">
-        <f>(E86-N86)</f>
+        <f t="shared" si="9"/>
         <v>8.6682000000000059</v>
       </c>
       <c r="Q86">
-        <f>(O86-P86)</f>
+        <f t="shared" si="10"/>
         <v>7.3310999999999993</v>
       </c>
     </row>
@@ -14775,15 +14765,15 @@
         <v>36.8932</v>
       </c>
       <c r="O87">
-        <f>(H87-N87)</f>
+        <f t="shared" si="8"/>
         <v>17.0105</v>
       </c>
       <c r="P87">
-        <f>(E87-N87)</f>
+        <f t="shared" si="9"/>
         <v>9.6546999999999983</v>
       </c>
       <c r="Q87">
-        <f>(O87-P87)</f>
+        <f t="shared" si="10"/>
         <v>7.3558000000000021</v>
       </c>
     </row>
@@ -14813,15 +14803,15 @@
         <v>37.059199999999997</v>
       </c>
       <c r="O88">
-        <f>(H88-N88)</f>
+        <f t="shared" si="8"/>
         <v>15.778800000000004</v>
       </c>
       <c r="P88">
-        <f>(E88-N88)</f>
+        <f t="shared" si="9"/>
         <v>8.3870000000000005</v>
       </c>
       <c r="Q88">
-        <f>(O88-P88)</f>
+        <f t="shared" si="10"/>
         <v>7.3918000000000035</v>
       </c>
     </row>
@@ -14857,15 +14847,15 @@
         <v>37.11</v>
       </c>
       <c r="O89">
-        <f>(H89-N89)</f>
+        <f t="shared" si="8"/>
         <v>14.203000000000003</v>
       </c>
       <c r="P89">
-        <f>(E89-N89)</f>
+        <f t="shared" si="9"/>
         <v>6.8108599999999981</v>
       </c>
       <c r="Q89">
-        <f>(O89-P89)</f>
+        <f t="shared" si="10"/>
         <v>7.3921400000000048</v>
       </c>
       <c r="R89" t="s">
@@ -14898,15 +14888,15 @@
         <v>36.857999999999997</v>
       </c>
       <c r="O90">
-        <f>(H90-N90)</f>
+        <f t="shared" si="8"/>
         <v>19.075000000000003</v>
       </c>
       <c r="P90">
-        <f>(E90-N90)</f>
+        <f t="shared" si="9"/>
         <v>11.661500000000004</v>
       </c>
       <c r="Q90">
-        <f>(O90-P90)</f>
+        <f t="shared" si="10"/>
         <v>7.4134999999999991</v>
       </c>
     </row>
@@ -14936,15 +14926,15 @@
         <v>37.017000000000003</v>
       </c>
       <c r="O91">
-        <f>(H91-N91)</f>
+        <f t="shared" si="8"/>
         <v>16.787999999999997</v>
       </c>
       <c r="P91">
-        <f>(E91-N91)</f>
+        <f t="shared" si="9"/>
         <v>9.1850499999999968</v>
       </c>
       <c r="Q91">
-        <f>(O91-P91)</f>
+        <f t="shared" si="10"/>
         <v>7.6029499999999999</v>
       </c>
     </row>
@@ -14974,15 +14964,15 @@
         <v>37.051000000000002</v>
       </c>
       <c r="O92">
-        <f>(H92-N92)</f>
+        <f t="shared" si="8"/>
         <v>17.811999999999998</v>
       </c>
       <c r="P92">
-        <f>(E92-N92)</f>
+        <f t="shared" si="9"/>
         <v>10.200299999999999</v>
       </c>
       <c r="Q92">
-        <f>(O92-P92)</f>
+        <f t="shared" si="10"/>
         <v>7.611699999999999</v>
       </c>
     </row>
@@ -15021,15 +15011,15 @@
         <v>37.143000000000001</v>
       </c>
       <c r="O93">
-        <f>(H93-N93)</f>
+        <f t="shared" si="8"/>
         <v>15.427</v>
       </c>
       <c r="P93">
-        <f>(E93-N93)</f>
+        <f t="shared" si="9"/>
         <v>7.7490999999999985</v>
       </c>
       <c r="Q93">
-        <f>(O93-P93)</f>
+        <f t="shared" si="10"/>
         <v>7.6779000000000011</v>
       </c>
       <c r="R93" t="s">
@@ -15062,15 +15052,15 @@
         <v>37.112000000000002</v>
       </c>
       <c r="O94">
-        <f>(H94-N94)</f>
+        <f t="shared" si="8"/>
         <v>19.757999999999996</v>
       </c>
       <c r="P94">
-        <f>(E94-N94)</f>
+        <f t="shared" si="9"/>
         <v>11.444299999999998</v>
       </c>
       <c r="Q94">
-        <f>(O94-P94)</f>
+        <f t="shared" si="10"/>
         <v>8.3136999999999972</v>
       </c>
     </row>
@@ -15100,15 +15090,15 @@
         <v>37.024000000000001</v>
       </c>
       <c r="O95">
-        <f>(H95-N95)</f>
+        <f t="shared" si="8"/>
         <v>17.256</v>
       </c>
       <c r="P95">
-        <f>(E95-N95)</f>
+        <f t="shared" si="9"/>
         <v>8.9309000000000012</v>
       </c>
       <c r="Q95">
-        <f>(O95-P95)</f>
+        <f t="shared" si="10"/>
         <v>8.3250999999999991</v>
       </c>
     </row>
@@ -15156,7 +15146,7 @@
         <v>8.5348199999999963</v>
       </c>
       <c r="Q96">
-        <f>(O96-P96)</f>
+        <f t="shared" si="10"/>
         <v>8.4181799999999996</v>
       </c>
       <c r="R96" t="s">
@@ -15203,7 +15193,7 @@
         <v>11.006509999999999</v>
       </c>
       <c r="Q97">
-        <f>(O97-P97)</f>
+        <f t="shared" si="10"/>
         <v>8.7674900000000022</v>
       </c>
       <c r="R97" t="s">
@@ -15247,7 +15237,7 @@
         <v>10.220399999999998</v>
       </c>
       <c r="Q98">
-        <f>(O98-P98)</f>
+        <f t="shared" ref="Q98:Q129" si="11">(O98-P98)</f>
         <v>9.1114999999999995</v>
       </c>
     </row>
@@ -15285,7 +15275,7 @@
         <v>8.2475000000000023</v>
       </c>
       <c r="Q99">
-        <f>(O99-P99)</f>
+        <f t="shared" si="11"/>
         <v>9.1565999999999974</v>
       </c>
     </row>
@@ -15330,7 +15320,7 @@
         <v>10.921129999999998</v>
       </c>
       <c r="Q100">
-        <f>(O100-P100)</f>
+        <f t="shared" si="11"/>
         <v>9.2078699999999998</v>
       </c>
       <c r="R100" t="s">
@@ -15363,15 +15353,15 @@
         <v>37.222200000000001</v>
       </c>
       <c r="O101">
-        <f>(H101-N101)</f>
+        <f t="shared" ref="O101:O137" si="12">(H101-N101)</f>
         <v>19.084800000000001</v>
       </c>
       <c r="P101">
-        <f>(E101-N101)</f>
+        <f t="shared" ref="P101:P137" si="13">(E101-N101)</f>
         <v>9.873899999999999</v>
       </c>
       <c r="Q101">
-        <f>(O101-P101)</f>
+        <f t="shared" si="11"/>
         <v>9.2109000000000023</v>
       </c>
     </row>
@@ -15401,15 +15391,15 @@
         <v>37.086199999999998</v>
       </c>
       <c r="O102">
-        <f>(H102-N102)</f>
+        <f t="shared" si="12"/>
         <v>20.4938</v>
       </c>
       <c r="P102">
-        <f>(E102-N102)</f>
+        <f t="shared" si="13"/>
         <v>11.160800000000002</v>
       </c>
       <c r="Q102">
-        <f>(O102-P102)</f>
+        <f t="shared" si="11"/>
         <v>9.3329999999999984</v>
       </c>
     </row>
@@ -15439,15 +15429,15 @@
         <v>37.045999999999999</v>
       </c>
       <c r="O103">
-        <f>(H103-N103)</f>
+        <f t="shared" si="12"/>
         <v>21.003999999999998</v>
       </c>
       <c r="P103">
-        <f>(E103-N103)</f>
+        <f t="shared" si="13"/>
         <v>11.644600000000004</v>
       </c>
       <c r="Q103">
-        <f>(O103-P103)</f>
+        <f t="shared" si="11"/>
         <v>9.3593999999999937</v>
       </c>
     </row>
@@ -15477,15 +15467,15 @@
         <v>37.027999999999999</v>
       </c>
       <c r="O104">
-        <f>(H104-N104)</f>
+        <f t="shared" si="12"/>
         <v>25.631999999999998</v>
       </c>
       <c r="P104">
-        <f>(E104-N104)</f>
+        <f t="shared" si="13"/>
         <v>16.230800000000002</v>
       </c>
       <c r="Q104">
-        <f>(O104-P104)</f>
+        <f t="shared" si="11"/>
         <v>9.4011999999999958</v>
       </c>
     </row>
@@ -15515,15 +15505,15 @@
         <v>37.121600000000001</v>
       </c>
       <c r="O105">
-        <f>(H105-N105)</f>
+        <f t="shared" si="12"/>
         <v>22.807400000000001</v>
       </c>
       <c r="P105">
-        <f>(E105-N105)</f>
+        <f t="shared" si="13"/>
         <v>12.883299999999998</v>
       </c>
       <c r="Q105">
-        <f>(O105-P105)</f>
+        <f t="shared" si="11"/>
         <v>9.9241000000000028</v>
       </c>
     </row>
@@ -15553,15 +15543,15 @@
         <v>37.0535</v>
       </c>
       <c r="O106">
-        <f>(H106-N106)</f>
+        <f t="shared" si="12"/>
         <v>24.048499999999997</v>
       </c>
       <c r="P106">
-        <f>(E106-N106)</f>
+        <f t="shared" si="13"/>
         <v>13.789900000000003</v>
       </c>
       <c r="Q106">
-        <f>(O106-P106)</f>
+        <f t="shared" si="11"/>
         <v>10.258599999999994</v>
       </c>
     </row>
@@ -15591,15 +15581,15 @@
         <v>37.098700000000001</v>
       </c>
       <c r="O107">
-        <f>(H107-N107)</f>
+        <f t="shared" si="12"/>
         <v>26.716299999999997</v>
       </c>
       <c r="P107">
-        <f>(E107-N107)</f>
+        <f t="shared" si="13"/>
         <v>15.999699999999997</v>
       </c>
       <c r="Q107">
-        <f>(O107-P107)</f>
+        <f t="shared" si="11"/>
         <v>10.7166</v>
       </c>
     </row>
@@ -15629,15 +15619,15 @@
         <v>37.128799999999998</v>
       </c>
       <c r="O108">
-        <f>(H108-N108)</f>
+        <f t="shared" si="12"/>
         <v>23.441200000000002</v>
       </c>
       <c r="P108">
-        <f>(E108-N108)</f>
+        <f t="shared" si="13"/>
         <v>12.672400000000003</v>
       </c>
       <c r="Q108">
-        <f>(O108-P108)</f>
+        <f t="shared" si="11"/>
         <v>10.768799999999999</v>
       </c>
     </row>
@@ -15667,15 +15657,15 @@
         <v>36.990499999999997</v>
       </c>
       <c r="O109">
-        <f>(H109-N109)</f>
+        <f t="shared" si="12"/>
         <v>25.951500000000003</v>
       </c>
       <c r="P109">
-        <f>(E109-N109)</f>
+        <f t="shared" si="13"/>
         <v>14.973100000000002</v>
       </c>
       <c r="Q109">
-        <f>(O109-P109)</f>
+        <f t="shared" si="11"/>
         <v>10.978400000000001</v>
       </c>
     </row>
@@ -15706,15 +15696,15 @@
         <v>66.219729999999998</v>
       </c>
       <c r="O110">
-        <f>(H110-N110)</f>
+        <f t="shared" si="12"/>
         <v>19.955269999999999</v>
       </c>
       <c r="P110">
-        <f>(E110-N110)</f>
+        <f t="shared" si="13"/>
         <v>8.8997700000000037</v>
       </c>
       <c r="Q110">
-        <f>(O110-P110)</f>
+        <f t="shared" si="11"/>
         <v>11.055499999999995</v>
       </c>
     </row>
@@ -15747,15 +15737,15 @@
         <v>37.139299999999999</v>
       </c>
       <c r="O111">
-        <f>(H111-N111)</f>
+        <f t="shared" si="12"/>
         <v>19.747700000000002</v>
       </c>
       <c r="P111">
-        <f>(E111-N111)</f>
+        <f t="shared" si="13"/>
         <v>8.515500000000003</v>
       </c>
       <c r="Q111">
-        <f>(O111-P111)</f>
+        <f t="shared" si="11"/>
         <v>11.232199999999999</v>
       </c>
       <c r="R111" t="s">
@@ -15789,15 +15779,15 @@
         <v>37.040500000000002</v>
       </c>
       <c r="O112">
-        <f>(H112-N112)</f>
+        <f t="shared" si="12"/>
         <v>20.852499999999999</v>
       </c>
       <c r="P112">
-        <f>(E112-N112)</f>
+        <f t="shared" si="13"/>
         <v>9.4953000000000003</v>
       </c>
       <c r="Q112">
-        <f>(O112-P112)</f>
+        <f t="shared" si="11"/>
         <v>11.357199999999999</v>
       </c>
     </row>
@@ -15827,15 +15817,15 @@
         <v>36.9983</v>
       </c>
       <c r="O113">
-        <f>(H113-N113)</f>
+        <f t="shared" si="12"/>
         <v>23.8827</v>
       </c>
       <c r="P113">
-        <f>(E113-N113)</f>
+        <f t="shared" si="13"/>
         <v>12.483199999999997</v>
       </c>
       <c r="Q113">
-        <f>(O113-P113)</f>
+        <f t="shared" si="11"/>
         <v>11.399500000000003</v>
       </c>
     </row>
@@ -15865,15 +15855,15 @@
         <v>37.005000000000003</v>
       </c>
       <c r="O114">
-        <f>(H114-N114)</f>
+        <f t="shared" si="12"/>
         <v>29.213999999999992</v>
       </c>
       <c r="P114">
-        <f>(E114-N114)</f>
+        <f t="shared" si="13"/>
         <v>17.791799999999995</v>
       </c>
       <c r="Q114">
-        <f>(O114-P114)</f>
+        <f t="shared" si="11"/>
         <v>11.422199999999997</v>
       </c>
     </row>
@@ -15906,15 +15896,15 @@
         <v>37.026800000000001</v>
       </c>
       <c r="O115">
-        <f>(H115-N115)</f>
+        <f t="shared" si="12"/>
         <v>26.912199999999999</v>
       </c>
       <c r="P115">
-        <f>(E115-N115)</f>
+        <f t="shared" si="13"/>
         <v>14.9161</v>
       </c>
       <c r="Q115">
-        <f>(O115-P115)</f>
+        <f t="shared" si="11"/>
         <v>11.996099999999998</v>
       </c>
     </row>
@@ -15944,15 +15934,15 @@
         <v>37.06</v>
       </c>
       <c r="O116">
-        <f>(H116-N116)</f>
+        <f t="shared" si="12"/>
         <v>25.799999999999997</v>
       </c>
       <c r="P116">
-        <f>(E116-N116)</f>
+        <f t="shared" si="13"/>
         <v>13.575299999999999</v>
       </c>
       <c r="Q116">
-        <f>(O116-P116)</f>
+        <f t="shared" si="11"/>
         <v>12.224699999999999</v>
       </c>
     </row>
@@ -15988,15 +15978,15 @@
         <v>37.030999999999999</v>
       </c>
       <c r="O117">
-        <f>(H117-N117)</f>
+        <f t="shared" si="12"/>
         <v>25.122</v>
       </c>
       <c r="P117">
-        <f>(E117-N117)</f>
+        <f t="shared" si="13"/>
         <v>12.805530000000005</v>
       </c>
       <c r="Q117">
-        <f>(O117-P117)</f>
+        <f t="shared" si="11"/>
         <v>12.316469999999995</v>
       </c>
       <c r="R117" t="s">
@@ -16029,15 +16019,15 @@
         <v>37.003700000000002</v>
       </c>
       <c r="O118">
-        <f>(H118-N118)</f>
+        <f t="shared" si="12"/>
         <v>23.996299999999998</v>
       </c>
       <c r="P118">
-        <f>(E118-N118)</f>
+        <f t="shared" si="13"/>
         <v>11.194600000000001</v>
       </c>
       <c r="Q118">
-        <f>(O118-P118)</f>
+        <f t="shared" si="11"/>
         <v>12.801699999999997</v>
       </c>
     </row>
@@ -16067,15 +16057,15 @@
         <v>37.078299999999999</v>
       </c>
       <c r="O119">
-        <f>(H119-N119)</f>
+        <f t="shared" si="12"/>
         <v>27.072699999999998</v>
       </c>
       <c r="P119">
-        <f>(E119-N119)</f>
+        <f t="shared" si="13"/>
         <v>14.259700000000002</v>
       </c>
       <c r="Q119">
-        <f>(O119-P119)</f>
+        <f t="shared" si="11"/>
         <v>12.812999999999995</v>
       </c>
     </row>
@@ -16105,15 +16095,15 @@
         <v>37.158000000000001</v>
       </c>
       <c r="O120">
-        <f>(H120-N120)</f>
+        <f t="shared" si="12"/>
         <v>36.182999999999993</v>
       </c>
       <c r="P120">
-        <f>(E120-N120)</f>
+        <f t="shared" si="13"/>
         <v>21.9236</v>
       </c>
       <c r="Q120">
-        <f>(O120-P120)</f>
+        <f t="shared" si="11"/>
         <v>14.259399999999992</v>
       </c>
     </row>
@@ -16143,15 +16133,15 @@
         <v>37.1464</v>
       </c>
       <c r="O121">
-        <f>(H121-N121)</f>
+        <f t="shared" si="12"/>
         <v>26.373600000000003</v>
       </c>
       <c r="P121">
-        <f>(E121-N121)</f>
+        <f t="shared" si="13"/>
         <v>11.621499999999997</v>
       </c>
       <c r="Q121">
-        <f>(O121-P121)</f>
+        <f t="shared" si="11"/>
         <v>14.752100000000006</v>
       </c>
     </row>
@@ -16181,15 +16171,15 @@
         <v>36.983899999999998</v>
       </c>
       <c r="O122">
-        <f>(H122-N122)</f>
+        <f t="shared" si="12"/>
         <v>31.497099999999996</v>
       </c>
       <c r="P122">
-        <f>(E122-N122)</f>
+        <f t="shared" si="13"/>
         <v>16.629100000000001</v>
       </c>
       <c r="Q122">
-        <f>(O122-P122)</f>
+        <f t="shared" si="11"/>
         <v>14.867999999999995</v>
       </c>
     </row>
@@ -16220,15 +16210,15 @@
         <v>37.010300000000001</v>
       </c>
       <c r="O123">
-        <f>(H123-N123)</f>
+        <f t="shared" si="12"/>
         <v>28.058700000000002</v>
       </c>
       <c r="P123">
-        <f>(E123-N123)</f>
+        <f t="shared" si="13"/>
         <v>12.725099999999998</v>
       </c>
       <c r="Q123">
-        <f>(O123-P123)</f>
+        <f t="shared" si="11"/>
         <v>15.333600000000004</v>
       </c>
     </row>
@@ -16259,15 +16249,15 @@
         <v>36.864199999999997</v>
       </c>
       <c r="O124">
-        <f>(H124-N124)</f>
+        <f t="shared" si="12"/>
         <v>27.94080000000001</v>
       </c>
       <c r="P124">
-        <f>(E124-N124)</f>
+        <f t="shared" si="13"/>
         <v>12.552400000000006</v>
       </c>
       <c r="Q124">
-        <f>(O124-P124)</f>
+        <f t="shared" si="11"/>
         <v>15.388400000000004</v>
       </c>
     </row>
@@ -16297,15 +16287,15 @@
         <v>37.122599999999998</v>
       </c>
       <c r="O125">
-        <f>(H125-N125)</f>
+        <f t="shared" si="12"/>
         <v>29.630400000000002</v>
       </c>
       <c r="P125">
-        <f>(E125-N125)</f>
+        <f t="shared" si="13"/>
         <v>13.672699999999999</v>
       </c>
       <c r="Q125">
-        <f>(O125-P125)</f>
+        <f t="shared" si="11"/>
         <v>15.957700000000003</v>
       </c>
     </row>
@@ -16335,15 +16325,15 @@
         <v>37.0002</v>
       </c>
       <c r="O126">
-        <f>(H126-N126)</f>
+        <f t="shared" si="12"/>
         <v>28.888799999999996</v>
       </c>
       <c r="P126">
-        <f>(E126-N126)</f>
+        <f t="shared" si="13"/>
         <v>12.646700000000003</v>
       </c>
       <c r="Q126">
-        <f>(O126-P126)</f>
+        <f t="shared" si="11"/>
         <v>16.242099999999994</v>
       </c>
     </row>
@@ -16374,15 +16364,15 @@
         <v>36.939599999999999</v>
       </c>
       <c r="O127">
-        <f>(H127-N127)</f>
+        <f t="shared" si="12"/>
         <v>32.6404</v>
       </c>
       <c r="P127">
-        <f>(E127-N127)</f>
+        <f t="shared" si="13"/>
         <v>15.231000000000002</v>
       </c>
       <c r="Q127">
-        <f>(O127-P127)</f>
+        <f t="shared" si="11"/>
         <v>17.409399999999998</v>
       </c>
     </row>
@@ -16412,15 +16402,15 @@
         <v>36.946899999999999</v>
       </c>
       <c r="O128">
-        <f>(H128-N128)</f>
+        <f t="shared" si="12"/>
         <v>37.899100000000004</v>
       </c>
       <c r="P128">
-        <f>(E128-N128)</f>
+        <f t="shared" si="13"/>
         <v>20.142400000000002</v>
       </c>
       <c r="Q128">
-        <f>(O128-P128)</f>
+        <f t="shared" si="11"/>
         <v>17.756700000000002</v>
       </c>
     </row>
@@ -16456,15 +16446,15 @@
         <v>37.107999999999997</v>
       </c>
       <c r="O129">
-        <f>(H129-N129)</f>
+        <f t="shared" si="12"/>
         <v>33.533000000000008</v>
       </c>
       <c r="P129">
-        <f>(E129-N129)</f>
+        <f t="shared" si="13"/>
         <v>14.697100000000006</v>
       </c>
       <c r="Q129">
-        <f>(O129-P129)</f>
+        <f t="shared" si="11"/>
         <v>18.835900000000002</v>
       </c>
       <c r="R129" t="s">
@@ -16503,15 +16493,15 @@
         <v>37.095999999999997</v>
       </c>
       <c r="O130">
-        <f>(H130-N130)</f>
+        <f t="shared" si="12"/>
         <v>33.685000000000009</v>
       </c>
       <c r="P130">
-        <f>(E130-N130)</f>
+        <f t="shared" si="13"/>
         <v>14.465380000000003</v>
       </c>
       <c r="Q130">
-        <f>(O130-P130)</f>
+        <f t="shared" ref="Q130:Q161" si="14">(O130-P130)</f>
         <v>19.219620000000006</v>
       </c>
       <c r="R130" t="s">
@@ -16545,15 +16535,15 @@
         <v>36.8688</v>
       </c>
       <c r="O131">
-        <f>(H131-N131)</f>
+        <f t="shared" si="12"/>
         <v>37.301200000000001</v>
       </c>
       <c r="P131">
-        <f>(E131-N131)</f>
+        <f t="shared" si="13"/>
         <v>15.371499999999997</v>
       </c>
       <c r="Q131">
-        <f>(O131-P131)</f>
+        <f t="shared" si="14"/>
         <v>21.929700000000004</v>
       </c>
     </row>
@@ -16583,15 +16573,15 @@
         <v>36.992600000000003</v>
       </c>
       <c r="O132">
-        <f>(H132-N132)</f>
+        <f t="shared" si="12"/>
         <v>55.372399999999992</v>
       </c>
       <c r="P132">
-        <f>(E132-N132)</f>
+        <f t="shared" si="13"/>
         <v>29.378399999999992</v>
       </c>
       <c r="Q132">
-        <f>(O132-P132)</f>
+        <f t="shared" si="14"/>
         <v>25.994</v>
       </c>
     </row>
@@ -16621,15 +16611,15 @@
         <v>37.106099999999998</v>
       </c>
       <c r="O133">
-        <f>(H133-N133)</f>
+        <f t="shared" si="12"/>
         <v>60.719899999999996</v>
       </c>
       <c r="P133">
-        <f>(E133-N133)</f>
+        <f t="shared" si="13"/>
         <v>30.953900000000004</v>
       </c>
       <c r="Q133">
-        <f>(O133-P133)</f>
+        <f t="shared" si="14"/>
         <v>29.765999999999991</v>
       </c>
     </row>
@@ -16665,15 +16655,15 @@
         <v>37.125999999999998</v>
       </c>
       <c r="O134">
-        <f>(H134-N134)</f>
+        <f t="shared" si="12"/>
         <v>62.051000000000009</v>
       </c>
       <c r="P134">
-        <f>(E134-N134)</f>
+        <f t="shared" si="13"/>
         <v>32.267600000000009</v>
       </c>
       <c r="Q134">
-        <f>(O134-P134)</f>
+        <f t="shared" si="14"/>
         <v>29.7834</v>
       </c>
       <c r="R134" t="s">
@@ -16706,15 +16696,15 @@
         <v>36.956699999999998</v>
       </c>
       <c r="O135">
-        <f>(H135-N135)</f>
+        <f t="shared" si="12"/>
         <v>66.958300000000008</v>
       </c>
       <c r="P135">
-        <f>(E135-N135)</f>
+        <f t="shared" si="13"/>
         <v>34.918300000000002</v>
       </c>
       <c r="Q135">
-        <f>(O135-P135)</f>
+        <f t="shared" si="14"/>
         <v>32.040000000000006</v>
       </c>
     </row>
@@ -16744,15 +16734,15 @@
         <v>36.9313</v>
       </c>
       <c r="O136">
-        <f>(H136-N136)</f>
+        <f t="shared" si="12"/>
         <v>75.421699999999987</v>
       </c>
       <c r="P136">
-        <f>(E136-N136)</f>
+        <f t="shared" si="13"/>
         <v>40.856699999999996</v>
       </c>
       <c r="Q136">
-        <f>(O136-P136)</f>
+        <f t="shared" si="14"/>
         <v>34.564999999999991</v>
       </c>
     </row>
@@ -16789,15 +16779,15 @@
         <v>37.073500000000003</v>
       </c>
       <c r="O137">
-        <f>(H137-N137)</f>
+        <f t="shared" si="12"/>
         <v>2.0625</v>
       </c>
       <c r="P137">
-        <f>(E137-N137)</f>
+        <f t="shared" si="13"/>
         <v>1.0593000000000004</v>
       </c>
       <c r="Q137">
-        <f>(O137-P137)</f>
+        <f t="shared" si="14"/>
         <v>1.0031999999999996</v>
       </c>
     </row>
@@ -16830,19 +16820,19 @@
         <v>116</v>
       </c>
       <c r="N138" s="4">
-        <f t="shared" ref="N138:N143" si="0">AVERAGE(F138,I138)</f>
+        <f t="shared" ref="N138:N143" si="15">AVERAGE(F138,I138)</f>
         <v>37.168500000000002</v>
       </c>
       <c r="O138">
-        <f t="shared" ref="O138:O143" si="1">(H138-N138)</f>
+        <f t="shared" ref="O138:O143" si="16">(H138-N138)</f>
         <v>18.008499999999998</v>
       </c>
       <c r="P138">
-        <f t="shared" ref="P138:P143" si="2">(E138-N138)</f>
+        <f t="shared" ref="P138:P143" si="17">(E138-N138)</f>
         <v>9.7560000000000002</v>
       </c>
       <c r="Q138">
-        <f t="shared" ref="Q138:Q143" si="3">(O138-P138)</f>
+        <f t="shared" ref="Q138:Q143" si="18">(O138-P138)</f>
         <v>8.2524999999999977</v>
       </c>
     </row>
@@ -16875,19 +16865,19 @@
         <v>116</v>
       </c>
       <c r="N139" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>37.057000000000002</v>
       </c>
       <c r="O139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>19.800999999999995</v>
       </c>
       <c r="P139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>10.458079999999995</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>9.3429199999999994</v>
       </c>
     </row>
@@ -16920,19 +16910,19 @@
         <v>116</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>37.155999999999999</v>
       </c>
       <c r="O140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>23.289000000000001</v>
       </c>
       <c r="P140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>11.615099999999998</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>11.673900000000003</v>
       </c>
     </row>
@@ -16965,19 +16955,19 @@
         <v>116</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>37.072499999999998</v>
       </c>
       <c r="O141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>17.419499999999999</v>
       </c>
       <c r="P141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>8.991500000000002</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>8.4279999999999973</v>
       </c>
     </row>
@@ -17010,19 +17000,19 @@
         <v>116</v>
       </c>
       <c r="N142" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>37.067</v>
       </c>
       <c r="O142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>20.310000000000002</v>
       </c>
       <c r="P142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>9.5260999999999996</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>10.783900000000003</v>
       </c>
     </row>
@@ -17055,19 +17045,19 @@
         <v>116</v>
       </c>
       <c r="N143" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>37.087500000000006</v>
       </c>
       <c r="O143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>20.735499999999995</v>
       </c>
       <c r="P143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>9.5424999999999969</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>11.192999999999998</v>
       </c>
     </row>
@@ -17083,14 +17073,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5750438-5322-5A46-95A8-63380D05FED0}">
   <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="16" width="11" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">

--- a/2021/LFM_WP_Fall2021/PWD_Oct2021_LFM_WP_Calcs.xlsx
+++ b/2021/LFM_WP_Fall2021/PWD_Oct2021_LFM_WP_Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/GitHub/PepperwoodVegPlots/2021/LFM_WP_Fall2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357092EB-BADD-804B-AD02-68B65138C8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B17268-52C7-2247-B834-01BA52DD0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="28240" windowHeight="15480" activeTab="4" xr2:uid="{05CBDBC3-C58E-254F-9CCB-F423A62E9A36}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15480" activeTab="4" xr2:uid="{05CBDBC3-C58E-254F-9CCB-F423A62E9A36}"/>
   </bookViews>
   <sheets>
     <sheet name="WP_clean" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="119">
   <si>
     <t>Site</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>Sample.number</t>
-  </si>
-  <si>
-    <t>LFM.delta</t>
   </si>
   <si>
     <t>melted bottle tare was 36.886</t>
@@ -844,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB63F9D-A779-474A-9790-68A1B1C3510F}">
   <dimension ref="A1:AC154"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
     </sheetView>
@@ -5695,20 +5692,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1904549-8154-7E48-B930-BCA793DC66AA}">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="11"/>
-    <col min="10" max="10" width="11.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="11"/>
+    <col min="9" max="9" width="11.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5730,20 +5727,14 @@
       <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
+      <c r="H1" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>85</v>
       </c>
@@ -5756,17 +5747,14 @@
       <c r="G2">
         <v>20211010</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
+      <c r="H2" s="11">
+        <v>1.8</v>
       </c>
       <c r="I2" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="J2" s="11">
         <v>5.4249999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>85</v>
       </c>
@@ -5779,17 +5767,14 @@
       <c r="G3">
         <v>20211010</v>
       </c>
-      <c r="H3" t="s">
-        <v>39</v>
+      <c r="H3" s="11">
+        <v>2.3499999999999996</v>
       </c>
       <c r="I3" s="11">
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="J3" s="11">
         <v>4.9499999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -5802,17 +5787,14 @@
       <c r="G4">
         <v>20211009</v>
       </c>
-      <c r="H4" t="s">
-        <v>39</v>
+      <c r="H4" s="11">
+        <v>3.1</v>
       </c>
       <c r="I4" s="11">
-        <v>3.1</v>
-      </c>
-      <c r="J4" s="11">
         <v>4.3833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -5825,17 +5807,14 @@
       <c r="G5">
         <v>20211009</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
+      <c r="H5" s="11">
+        <v>1.6166666666666665</v>
       </c>
       <c r="I5" s="11">
-        <v>1.6166666666666665</v>
-      </c>
-      <c r="J5" s="11">
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5848,17 +5827,14 @@
       <c r="G6">
         <v>20211009</v>
       </c>
-      <c r="H6" t="s">
-        <v>39</v>
+      <c r="H6" s="11">
+        <v>1.7</v>
       </c>
       <c r="I6" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="J6" s="11">
         <v>2.9750000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -5871,17 +5847,14 @@
       <c r="G7">
         <v>20211009</v>
       </c>
-      <c r="H7" t="s">
-        <v>39</v>
+      <c r="H7" s="11">
+        <v>2.04</v>
       </c>
       <c r="I7" s="11">
-        <v>2.04</v>
-      </c>
-      <c r="J7" s="11">
         <v>3.25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -5894,17 +5867,14 @@
       <c r="G8">
         <v>20211009</v>
       </c>
-      <c r="H8" t="s">
-        <v>39</v>
+      <c r="H8" s="11">
+        <v>3.3666666666666667</v>
       </c>
       <c r="I8" s="11">
-        <v>3.3666666666666667</v>
-      </c>
-      <c r="J8" s="11">
         <v>4.5250000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5917,17 +5887,14 @@
       <c r="G9">
         <v>20211009</v>
       </c>
-      <c r="H9" t="s">
-        <v>39</v>
+      <c r="H9" s="11">
+        <v>2.4833333333333334</v>
       </c>
       <c r="I9" s="11">
-        <v>2.4833333333333334</v>
-      </c>
-      <c r="J9" s="11">
         <v>3.4500000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5943,17 +5910,14 @@
       <c r="G10">
         <v>20211009</v>
       </c>
-      <c r="H10" t="s">
-        <v>39</v>
+      <c r="H10" s="11">
+        <v>0.65</v>
       </c>
       <c r="I10" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="J10" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5969,17 +5933,14 @@
       <c r="G11">
         <v>20211010</v>
       </c>
-      <c r="H11" t="s">
-        <v>39</v>
+      <c r="H11" s="11">
+        <v>1.635</v>
       </c>
       <c r="I11" s="11">
-        <v>1.635</v>
-      </c>
-      <c r="J11" s="11">
         <v>2.875</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5995,17 +5956,14 @@
       <c r="G12">
         <v>20211010</v>
       </c>
-      <c r="H12" t="s">
-        <v>39</v>
+      <c r="H12" s="11">
+        <v>2.0499999999999998</v>
       </c>
       <c r="I12" s="11">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J12" s="11">
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -6021,17 +5979,14 @@
       <c r="G13">
         <v>20211010</v>
       </c>
-      <c r="H13" t="s">
-        <v>39</v>
+      <c r="H13" s="11">
+        <v>0.67999999999999994</v>
       </c>
       <c r="I13" s="11">
-        <v>0.67999999999999994</v>
-      </c>
-      <c r="J13" s="11">
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
@@ -6049,17 +6004,14 @@
       <c r="G14" s="10">
         <v>20211009</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>39</v>
+      <c r="H14" s="11">
+        <v>1.175</v>
       </c>
       <c r="I14" s="11">
-        <v>1.175</v>
-      </c>
-      <c r="J14" s="11">
         <v>2.625</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
@@ -6077,17 +6029,14 @@
       <c r="G15" s="10">
         <v>20211009</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>39</v>
+      <c r="H15" s="11">
+        <v>4.9833333333333334</v>
       </c>
       <c r="I15" s="11">
-        <v>4.9833333333333334</v>
-      </c>
-      <c r="J15" s="11">
         <v>5.5500000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -6103,17 +6052,14 @@
       <c r="G16">
         <v>20201010</v>
       </c>
-      <c r="H16" t="s">
-        <v>39</v>
+      <c r="H16" s="11">
+        <v>1.375</v>
       </c>
       <c r="I16" s="11">
-        <v>1.375</v>
-      </c>
-      <c r="J16" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>85</v>
       </c>
@@ -6129,17 +6075,14 @@
       <c r="G17" s="10">
         <v>20201010</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="H17" s="11">
         <v>1.6</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6155,17 +6098,14 @@
       <c r="G18">
         <v>20201010</v>
       </c>
-      <c r="H18" t="s">
-        <v>39</v>
+      <c r="H18" s="11">
+        <v>1.8</v>
       </c>
       <c r="I18" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="J18" s="11">
         <v>2.6625000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>85</v>
       </c>
@@ -6178,17 +6118,14 @@
       <c r="G19">
         <v>20211010</v>
       </c>
-      <c r="H19" t="s">
-        <v>39</v>
+      <c r="H19" s="11">
+        <v>6.85</v>
       </c>
       <c r="I19" s="11">
-        <v>6.85</v>
-      </c>
-      <c r="J19" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>85</v>
       </c>
@@ -6201,17 +6138,14 @@
       <c r="G20">
         <v>20211010</v>
       </c>
-      <c r="H20" t="s">
-        <v>39</v>
+      <c r="H20" s="11">
+        <v>3.625</v>
       </c>
       <c r="I20" s="11">
-        <v>3.625</v>
-      </c>
-      <c r="J20" s="11">
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>85</v>
       </c>
@@ -6224,17 +6158,14 @@
       <c r="G21">
         <v>20211010</v>
       </c>
-      <c r="H21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="H21" s="11">
         <v>3.5750000000000002</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>85</v>
       </c>
@@ -6247,17 +6178,14 @@
       <c r="G22">
         <v>20211010</v>
       </c>
-      <c r="H22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="11">
         <v>3.2249999999999996</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>85</v>
       </c>
@@ -6270,17 +6198,14 @@
       <c r="G23">
         <v>20211010</v>
       </c>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="H23" s="11">
         <v>4.2249999999999996</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>85</v>
       </c>
@@ -6293,17 +6218,14 @@
       <c r="G24">
         <v>20211010</v>
       </c>
-      <c r="H24" t="s">
-        <v>39</v>
+      <c r="H24" s="11">
+        <v>3.7749999999999999</v>
       </c>
       <c r="I24" s="11">
-        <v>3.7749999999999999</v>
-      </c>
-      <c r="J24" s="11">
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>85</v>
       </c>
@@ -6316,17 +6238,14 @@
       <c r="G25">
         <v>20211010</v>
       </c>
-      <c r="H25" t="s">
-        <v>39</v>
+      <c r="H25" s="11">
+        <v>5.833333333333333</v>
       </c>
       <c r="I25" s="11">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="J25" s="11">
         <v>6.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>85</v>
       </c>
@@ -6339,17 +6258,14 @@
       <c r="G26">
         <v>20211010</v>
       </c>
-      <c r="H26" t="s">
-        <v>39</v>
+      <c r="H26" s="11">
+        <v>2.95</v>
       </c>
       <c r="I26" s="11">
-        <v>2.95</v>
-      </c>
-      <c r="J26" s="11">
         <v>4.2249999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>85</v>
       </c>
@@ -6362,17 +6278,14 @@
       <c r="G27">
         <v>20211010</v>
       </c>
-      <c r="H27" t="s">
-        <v>39</v>
+      <c r="H27" s="11">
+        <v>2.6625000000000001</v>
       </c>
       <c r="I27" s="11">
-        <v>2.6625000000000001</v>
-      </c>
-      <c r="J27" s="11">
         <v>3.2750000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>85</v>
       </c>
@@ -6385,17 +6298,14 @@
       <c r="G28">
         <v>20211010</v>
       </c>
-      <c r="H28" t="s">
-        <v>39</v>
+      <c r="H28" s="11">
+        <v>2.875</v>
       </c>
       <c r="I28" s="11">
-        <v>2.875</v>
-      </c>
-      <c r="J28" s="11">
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>85</v>
       </c>
@@ -6408,17 +6318,14 @@
       <c r="G29">
         <v>20211010</v>
       </c>
-      <c r="H29" t="s">
-        <v>39</v>
+      <c r="H29" s="11">
+        <v>3.45</v>
       </c>
       <c r="I29" s="11">
-        <v>3.45</v>
-      </c>
-      <c r="J29" s="11">
         <v>3.5666666666666664</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>85</v>
       </c>
@@ -6431,17 +6338,14 @@
       <c r="G30">
         <v>20211010</v>
       </c>
-      <c r="H30" t="s">
-        <v>39</v>
+      <c r="H30" s="11">
+        <v>2.5750000000000002</v>
       </c>
       <c r="I30" s="11">
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="J30" s="11">
         <v>3.4249999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -6454,17 +6358,14 @@
       <c r="G31">
         <v>20211009</v>
       </c>
-      <c r="H31" t="s">
-        <v>39</v>
+      <c r="H31" s="11">
+        <v>1.9750000000000001</v>
       </c>
       <c r="I31" s="11">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="J31" s="11">
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -6477,17 +6378,14 @@
       <c r="G32">
         <v>20211009</v>
       </c>
-      <c r="H32" t="s">
-        <v>39</v>
+      <c r="H32" s="11">
+        <v>2.3666666666666667</v>
       </c>
       <c r="I32" s="11">
-        <v>2.3666666666666667</v>
-      </c>
-      <c r="J32" s="11">
         <v>3.7333333333333329</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -6500,17 +6398,14 @@
       <c r="G33">
         <v>20211009</v>
       </c>
-      <c r="H33" t="s">
-        <v>39</v>
+      <c r="H33" s="11">
+        <v>1.85</v>
       </c>
       <c r="I33" s="11">
-        <v>1.85</v>
-      </c>
-      <c r="J33" s="11">
         <v>2.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -6523,17 +6418,14 @@
       <c r="G34">
         <v>20211009</v>
       </c>
-      <c r="H34" t="s">
-        <v>39</v>
+      <c r="H34" s="11">
+        <v>1.3499999999999999</v>
       </c>
       <c r="I34" s="11">
-        <v>1.3499999999999999</v>
-      </c>
-      <c r="J34" s="11">
         <v>2.375</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -6549,17 +6441,14 @@
       <c r="G35" s="10">
         <v>20211009</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>39</v>
+      <c r="H35" s="11">
+        <v>2.2625000000000002</v>
       </c>
       <c r="I35" s="11">
-        <v>2.2625000000000002</v>
-      </c>
-      <c r="J35" s="11">
         <v>3.4874999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -6572,17 +6461,14 @@
       <c r="G36">
         <v>20211009</v>
       </c>
-      <c r="H36" t="s">
-        <v>39</v>
+      <c r="H36" s="11">
+        <v>2.333333333333333</v>
       </c>
       <c r="I36" s="11">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="J36" s="11">
         <v>3.0833333333333335</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -6598,17 +6484,14 @@
       <c r="G37">
         <v>20211010</v>
       </c>
-      <c r="H37" t="s">
-        <v>39</v>
+      <c r="H37" s="11">
+        <v>1.61</v>
       </c>
       <c r="I37" s="11">
-        <v>1.61</v>
-      </c>
-      <c r="J37" s="11">
         <v>2.2250000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -6624,17 +6507,14 @@
       <c r="G38">
         <v>20211010</v>
       </c>
-      <c r="H38" t="s">
-        <v>39</v>
+      <c r="H38" s="11">
+        <v>1.1233333333333333</v>
       </c>
       <c r="I38" s="11">
-        <v>1.1233333333333333</v>
-      </c>
-      <c r="J38" s="11">
         <v>2.4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -6650,17 +6530,14 @@
       <c r="G39">
         <v>20211010</v>
       </c>
-      <c r="H39" t="s">
-        <v>39</v>
+      <c r="H39" s="11">
+        <v>0.7466666666666667</v>
       </c>
       <c r="I39" s="11">
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="J39" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -6676,17 +6553,14 @@
       <c r="G40">
         <v>20211009</v>
       </c>
-      <c r="H40" t="s">
-        <v>39</v>
+      <c r="H40" s="11">
+        <v>1.2</v>
       </c>
       <c r="I40" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="J40" s="11">
         <v>2.75</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>10</v>
       </c>
@@ -6704,17 +6578,14 @@
       <c r="G41" s="10">
         <v>20211009</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>39</v>
+      <c r="H41" s="11">
+        <v>1.65</v>
       </c>
       <c r="I41" s="11">
-        <v>1.65</v>
-      </c>
-      <c r="J41" s="11">
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -6730,17 +6601,14 @@
       <c r="G42">
         <v>20211009</v>
       </c>
-      <c r="H42" t="s">
-        <v>39</v>
+      <c r="H42" s="11">
+        <v>1.2</v>
       </c>
       <c r="I42" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="J42" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -6756,17 +6624,14 @@
       <c r="G43">
         <v>20211009</v>
       </c>
-      <c r="H43" t="s">
-        <v>39</v>
+      <c r="H43" s="11">
+        <v>0.64999999999999991</v>
       </c>
       <c r="I43" s="11">
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="J43" s="11">
         <v>1.7833333333333332</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -6782,17 +6647,14 @@
       <c r="G44">
         <v>20211009</v>
       </c>
-      <c r="H44" t="s">
-        <v>39</v>
+      <c r="H44" s="11">
+        <v>0.52500000000000002</v>
       </c>
       <c r="I44" s="11">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J44" s="11">
         <v>1.65</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -6808,17 +6670,14 @@
       <c r="G45">
         <v>20201010</v>
       </c>
-      <c r="H45" t="s">
-        <v>39</v>
+      <c r="H45" s="11">
+        <v>3</v>
       </c>
       <c r="I45" s="11">
-        <v>3</v>
-      </c>
-      <c r="J45" s="11">
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -6834,17 +6693,14 @@
       <c r="G46">
         <v>20201010</v>
       </c>
-      <c r="H46" t="s">
-        <v>39</v>
+      <c r="H46" s="11">
+        <v>2.3499999999999996</v>
       </c>
       <c r="I46" s="11">
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="J46" s="11">
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -6860,17 +6716,14 @@
       <c r="G47">
         <v>20211009</v>
       </c>
-      <c r="H47" t="s">
-        <v>39</v>
+      <c r="H47" s="11">
+        <v>2.0249999999999999</v>
       </c>
       <c r="I47" s="11">
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="J47" s="11">
         <v>3.4333333333333336</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -6886,17 +6739,14 @@
       <c r="G48">
         <v>20211009</v>
       </c>
-      <c r="H48" t="s">
-        <v>39</v>
+      <c r="H48" s="11">
+        <v>1.9666666666666668</v>
       </c>
       <c r="I48" s="11">
-        <v>1.9666666666666668</v>
-      </c>
-      <c r="J48" s="11">
         <v>3.0250000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -6912,17 +6762,14 @@
       <c r="G49">
         <v>20201010</v>
       </c>
-      <c r="H49" t="s">
-        <v>39</v>
+      <c r="H49" s="11">
+        <v>3.7</v>
       </c>
       <c r="I49" s="11">
-        <v>3.7</v>
-      </c>
-      <c r="J49" s="11">
         <v>4.9250000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -6938,17 +6785,14 @@
       <c r="G50">
         <v>20201010</v>
       </c>
-      <c r="H50" t="s">
-        <v>39</v>
+      <c r="H50" s="11">
+        <v>2.875</v>
       </c>
       <c r="I50" s="11">
-        <v>2.875</v>
-      </c>
-      <c r="J50" s="11">
         <v>5.8625000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -6964,17 +6808,14 @@
       <c r="G51">
         <v>20201010</v>
       </c>
-      <c r="H51" t="s">
-        <v>39</v>
+      <c r="H51" s="11">
+        <v>2.5499999999999998</v>
       </c>
       <c r="I51" s="11">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="J51" s="11">
         <v>4.6999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -6990,17 +6831,14 @@
       <c r="G52">
         <v>20201010</v>
       </c>
-      <c r="H52" t="s">
-        <v>39</v>
+      <c r="H52" s="11">
+        <v>4.4749999999999996</v>
       </c>
       <c r="I52" s="11">
-        <v>4.4749999999999996</v>
-      </c>
-      <c r="J52" s="11">
         <v>5.7</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -7016,17 +6854,14 @@
       <c r="G53">
         <v>20211009</v>
       </c>
-      <c r="H53" t="s">
-        <v>39</v>
+      <c r="H53" s="11">
+        <v>2.5</v>
       </c>
       <c r="I53" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="J53" s="11">
         <v>4.4749999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -7039,17 +6874,14 @@
       <c r="G54">
         <v>20211009</v>
       </c>
-      <c r="H54" t="s">
-        <v>39</v>
+      <c r="H54" s="11">
+        <v>1.3500000000000003</v>
       </c>
       <c r="I54" s="11">
-        <v>1.3500000000000003</v>
-      </c>
-      <c r="J54" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -7062,17 +6894,14 @@
       <c r="G55">
         <v>20211009</v>
       </c>
-      <c r="H55" t="s">
-        <v>39</v>
+      <c r="H55" s="11">
+        <v>1.8833333333333335</v>
       </c>
       <c r="I55" s="11">
-        <v>1.8833333333333335</v>
-      </c>
-      <c r="J55" s="11">
         <v>3.58</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -7085,17 +6914,14 @@
       <c r="G56">
         <v>20211009</v>
       </c>
-      <c r="H56" t="s">
-        <v>39</v>
+      <c r="H56" s="11">
+        <v>1.95</v>
       </c>
       <c r="I56" s="11">
-        <v>1.95</v>
-      </c>
-      <c r="J56" s="11">
         <v>3.5499999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -7108,17 +6934,14 @@
       <c r="G57">
         <v>20211009</v>
       </c>
-      <c r="H57" t="s">
-        <v>39</v>
+      <c r="H57" s="11">
+        <v>1.1666666666666667</v>
       </c>
       <c r="I57" s="11">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="J57" s="11">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -7131,17 +6954,14 @@
       <c r="G58">
         <v>20211009</v>
       </c>
-      <c r="H58" t="s">
-        <v>39</v>
+      <c r="H58" s="11">
+        <v>1.37</v>
       </c>
       <c r="I58" s="11">
-        <v>1.37</v>
-      </c>
-      <c r="J58" s="11">
         <v>3.2250000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -7154,17 +6974,14 @@
       <c r="G59">
         <v>20211009</v>
       </c>
-      <c r="H59" t="s">
-        <v>39</v>
+      <c r="H59" s="11">
+        <v>1.125</v>
       </c>
       <c r="I59" s="11">
-        <v>1.125</v>
-      </c>
-      <c r="J59" s="11">
         <v>2.5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -7181,17 +6998,14 @@
       <c r="G60">
         <v>20211009</v>
       </c>
-      <c r="H60" t="s">
-        <v>39</v>
+      <c r="H60" s="11">
+        <v>4.2333333333333334</v>
       </c>
       <c r="I60" s="11">
-        <v>4.2333333333333334</v>
-      </c>
-      <c r="J60" s="11">
         <v>4.625</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -7207,17 +7021,14 @@
       <c r="G61">
         <v>20211009</v>
       </c>
-      <c r="H61" t="s">
-        <v>39</v>
+      <c r="H61" s="11">
+        <v>3.87</v>
       </c>
       <c r="I61" s="11">
-        <v>3.87</v>
-      </c>
-      <c r="J61" s="11">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -7233,17 +7044,14 @@
       <c r="G62">
         <v>20201010</v>
       </c>
-      <c r="H62" t="s">
-        <v>39</v>
+      <c r="H62" s="11">
+        <v>3.125</v>
       </c>
       <c r="I62" s="11">
-        <v>3.125</v>
-      </c>
-      <c r="J62" s="11">
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -7259,17 +7067,14 @@
       <c r="G63">
         <v>20201010</v>
       </c>
-      <c r="H63" t="s">
-        <v>39</v>
+      <c r="H63" s="11">
+        <v>3.75</v>
       </c>
       <c r="I63" s="11">
-        <v>3.75</v>
-      </c>
-      <c r="J63" s="11">
         <v>5.4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -7285,17 +7090,14 @@
       <c r="G64">
         <v>20211009</v>
       </c>
-      <c r="H64" t="s">
-        <v>39</v>
+      <c r="H64" s="11">
+        <v>4.2750000000000004</v>
       </c>
       <c r="I64" s="11">
-        <v>4.2750000000000004</v>
-      </c>
-      <c r="J64" s="11">
         <v>5.2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -7311,17 +7113,14 @@
       <c r="G65">
         <v>20211009</v>
       </c>
-      <c r="H65" t="s">
-        <v>39</v>
+      <c r="H65" s="11">
+        <v>1.45</v>
       </c>
       <c r="I65" s="11">
-        <v>1.45</v>
-      </c>
-      <c r="J65" s="11">
         <v>3.2333333333333329</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -7337,17 +7136,14 @@
       <c r="G66">
         <v>20211010</v>
       </c>
-      <c r="H66" t="s">
-        <v>39</v>
+      <c r="H66" s="11">
+        <v>2.9</v>
       </c>
       <c r="I66" s="11">
-        <v>2.9</v>
-      </c>
-      <c r="J66" s="11">
         <v>3.2749999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -7363,17 +7159,14 @@
       <c r="G67">
         <v>20211010</v>
       </c>
-      <c r="H67" t="s">
-        <v>39</v>
+      <c r="H67" s="11">
+        <v>1.855</v>
       </c>
       <c r="I67" s="11">
-        <v>1.855</v>
-      </c>
-      <c r="J67" s="11">
         <v>2.625</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -7389,17 +7182,14 @@
       <c r="G68">
         <v>20211009</v>
       </c>
-      <c r="H68" t="s">
-        <v>39</v>
+      <c r="H68" s="11">
+        <v>3.5750000000000002</v>
       </c>
       <c r="I68" s="11">
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="J68" s="11">
         <v>4.4666666666666668</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -7415,17 +7205,14 @@
       <c r="G69">
         <v>20211009</v>
       </c>
-      <c r="H69" t="s">
-        <v>39</v>
+      <c r="H69" s="11">
+        <v>3.4750000000000001</v>
       </c>
       <c r="I69" s="11">
-        <v>3.4750000000000001</v>
-      </c>
-      <c r="J69" s="11">
         <v>4.4749999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -7441,17 +7228,14 @@
       <c r="G70">
         <v>20211009</v>
       </c>
-      <c r="H70" t="s">
-        <v>39</v>
+      <c r="H70" s="11">
+        <v>3.6749999999999998</v>
       </c>
       <c r="I70" s="11">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="J70" s="11">
         <v>4.7166666666666659</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -7467,17 +7251,14 @@
       <c r="G71">
         <v>20211010</v>
       </c>
-      <c r="H71" t="s">
-        <v>39</v>
+      <c r="H71" s="11">
+        <v>1.45</v>
       </c>
       <c r="I71" s="11">
-        <v>1.45</v>
-      </c>
-      <c r="J71" s="11">
         <v>3.6875</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -7493,17 +7274,14 @@
       <c r="G72">
         <v>20211009</v>
       </c>
-      <c r="H72" t="s">
-        <v>39</v>
+      <c r="H72" s="11">
+        <v>3.625</v>
       </c>
       <c r="I72" s="11">
-        <v>3.625</v>
-      </c>
-      <c r="J72" s="11">
         <v>4.75</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>10</v>
       </c>
@@ -7521,17 +7299,14 @@
       <c r="G73" s="10">
         <v>20211009</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>39</v>
+      <c r="H73" s="11">
+        <v>1.9249999999999998</v>
       </c>
       <c r="I73" s="11">
-        <v>1.9249999999999998</v>
-      </c>
-      <c r="J73" s="11">
         <v>2.9249999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -7547,17 +7322,14 @@
       <c r="G74">
         <v>20211009</v>
       </c>
-      <c r="H74" t="s">
-        <v>39</v>
+      <c r="H74" s="11">
+        <v>1.7</v>
       </c>
       <c r="I74" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="J74" s="11">
         <v>2.35</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -7573,17 +7345,14 @@
       <c r="G75">
         <v>20211009</v>
       </c>
-      <c r="H75" t="s">
-        <v>39</v>
+      <c r="H75" s="11">
+        <v>1.75</v>
       </c>
       <c r="I75" s="11">
-        <v>1.75</v>
-      </c>
-      <c r="J75" s="11">
         <v>2.6500000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -7599,17 +7368,14 @@
       <c r="G76">
         <v>20211009</v>
       </c>
-      <c r="H76" t="s">
-        <v>39</v>
+      <c r="H76" s="11">
+        <v>1.75</v>
       </c>
       <c r="I76" s="11">
-        <v>1.75</v>
-      </c>
-      <c r="J76" s="11">
         <v>2.5166666666666666</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -7625,17 +7391,14 @@
       <c r="G77">
         <v>20211009</v>
       </c>
-      <c r="H77" t="s">
-        <v>39</v>
+      <c r="H77" s="11">
+        <v>1.575</v>
       </c>
       <c r="I77" s="11">
-        <v>1.575</v>
-      </c>
-      <c r="J77" s="11">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -7651,102 +7414,94 @@
       <c r="G78">
         <v>20211009</v>
       </c>
-      <c r="H78" t="s">
-        <v>39</v>
+      <c r="H78" s="11">
+        <v>1.0750000000000002</v>
       </c>
       <c r="I78" s="11">
-        <v>1.0750000000000002</v>
-      </c>
-      <c r="J78" s="11">
         <v>2.75</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="12"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H81" s="12"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="J85" s="12"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="12"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="13"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="13"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H115" s="13"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="13"/>
-    </row>
-    <row r="135" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H117" s="13"/>
+    </row>
+    <row r="135" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="139" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="J139" s="13"/>
-    </row>
-    <row r="140" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="I139" s="13"/>
+    </row>
+    <row r="140" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
-      <c r="J140" s="13"/>
-    </row>
-    <row r="141" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="I140" s="13"/>
+    </row>
+    <row r="141" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
-      <c r="J141" s="13"/>
-    </row>
-    <row r="142" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="I141" s="13"/>
+    </row>
+    <row r="142" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
-      <c r="J142" s="13"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I142" s="13"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
-      <c r="J145" s="13"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I145" s="13"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="13"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H150" s="13"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
-      <c r="J154" s="12"/>
+      <c r="I154" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K154">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J154">
     <sortCondition ref="B2:B154"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7758,7 +7513,7 @@
   <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="158" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
@@ -11322,7 +11077,7 @@
   <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11386,10 +11141,10 @@
         <v>101</v>
       </c>
       <c r="R1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" t="s">
         <v>118</v>
-      </c>
-      <c r="S1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11419,19 +11174,19 @@
         <v>66.219729999999998</v>
       </c>
       <c r="O2">
-        <f>(H2-N2)</f>
+        <f t="shared" ref="O2:O24" si="0">(H2-N2)</f>
         <v>19.955269999999999</v>
       </c>
       <c r="P2">
-        <f>(E2-N2)</f>
+        <f t="shared" ref="P2:P24" si="1">(E2-N2)</f>
         <v>8.8997700000000037</v>
       </c>
       <c r="Q2">
-        <f>(O2-P2)</f>
+        <f t="shared" ref="Q2:Q33" si="2">(O2-P2)</f>
         <v>11.055499999999995</v>
       </c>
       <c r="S2">
-        <f>(Q2/P2)</f>
+        <f t="shared" ref="S2:S33" si="3">(Q2/P2)</f>
         <v>1.2422231136310253</v>
       </c>
     </row>
@@ -11461,19 +11216,19 @@
         <v>37.036999999999999</v>
       </c>
       <c r="O3">
-        <f>(H3-N3)</f>
+        <f t="shared" si="0"/>
         <v>3.5850000000000009</v>
       </c>
       <c r="P3">
-        <f>(E3-N3)</f>
+        <f t="shared" si="1"/>
         <v>2.072499999999998</v>
       </c>
       <c r="Q3">
-        <f>(O3-P3)</f>
+        <f t="shared" si="2"/>
         <v>1.5125000000000028</v>
       </c>
       <c r="S3">
-        <f>(Q3/P3)</f>
+        <f t="shared" si="3"/>
         <v>0.72979493365500814</v>
       </c>
     </row>
@@ -11503,19 +11258,19 @@
         <v>37.078299999999999</v>
       </c>
       <c r="O4">
-        <f>(H4-N4)</f>
+        <f t="shared" si="0"/>
         <v>27.072699999999998</v>
       </c>
       <c r="P4">
-        <f>(E4-N4)</f>
+        <f t="shared" si="1"/>
         <v>14.259700000000002</v>
       </c>
       <c r="Q4">
-        <f>(O4-P4)</f>
+        <f t="shared" si="2"/>
         <v>12.812999999999995</v>
       </c>
       <c r="S4">
-        <f>(Q4/P4)</f>
+        <f t="shared" si="3"/>
         <v>0.89854625272621391</v>
       </c>
     </row>
@@ -11545,19 +11300,19 @@
         <v>36.878999999999998</v>
       </c>
       <c r="O5">
-        <f>(H5-N5)</f>
+        <f t="shared" si="0"/>
         <v>7.0600000000000023</v>
       </c>
       <c r="P5">
-        <f>(E5-N5)</f>
+        <f t="shared" si="1"/>
         <v>3.5777300000000025</v>
       </c>
       <c r="Q5">
-        <f>(O5-P5)</f>
+        <f t="shared" si="2"/>
         <v>3.4822699999999998</v>
       </c>
       <c r="S5">
-        <f>(Q5/P5)</f>
+        <f t="shared" si="3"/>
         <v>0.97331827723165176</v>
       </c>
     </row>
@@ -11587,19 +11342,19 @@
         <v>37.0002</v>
       </c>
       <c r="O6">
-        <f>(H6-N6)</f>
+        <f t="shared" si="0"/>
         <v>28.888799999999996</v>
       </c>
       <c r="P6">
-        <f>(E6-N6)</f>
+        <f t="shared" si="1"/>
         <v>12.646700000000003</v>
       </c>
       <c r="Q6">
-        <f>(O6-P6)</f>
+        <f t="shared" si="2"/>
         <v>16.242099999999994</v>
       </c>
       <c r="S6">
-        <f>(Q6/P6)</f>
+        <f t="shared" si="3"/>
         <v>1.284295507919061</v>
       </c>
     </row>
@@ -11629,19 +11384,19 @@
         <v>37.076000000000001</v>
       </c>
       <c r="O7">
-        <f>(H7-N7)</f>
+        <f t="shared" si="0"/>
         <v>4.527000000000001</v>
       </c>
       <c r="P7">
-        <f>(E7-N7)</f>
+        <f t="shared" si="1"/>
         <v>2.7622999999999962</v>
       </c>
       <c r="Q7">
-        <f>(O7-P7)</f>
+        <f t="shared" si="2"/>
         <v>1.7647000000000048</v>
       </c>
       <c r="S7">
-        <f>(Q7/P7)</f>
+        <f t="shared" si="3"/>
         <v>0.63885168156970906</v>
       </c>
     </row>
@@ -11671,19 +11426,19 @@
         <v>37.06</v>
       </c>
       <c r="O8">
-        <f>(H8-N8)</f>
+        <f t="shared" si="0"/>
         <v>25.799999999999997</v>
       </c>
       <c r="P8">
-        <f>(E8-N8)</f>
+        <f t="shared" si="1"/>
         <v>13.575299999999999</v>
       </c>
       <c r="Q8">
-        <f>(O8-P8)</f>
+        <f t="shared" si="2"/>
         <v>12.224699999999999</v>
       </c>
       <c r="S8">
-        <f>(Q8/P8)</f>
+        <f t="shared" si="3"/>
         <v>0.90051048595611149</v>
       </c>
     </row>
@@ -11713,19 +11468,19 @@
         <v>37.106000000000002</v>
       </c>
       <c r="O9">
-        <f>(H9-N9)</f>
+        <f t="shared" si="0"/>
         <v>3.205999999999996</v>
       </c>
       <c r="P9">
-        <f>(E9-N9)</f>
+        <f t="shared" si="1"/>
         <v>1.3618799999999993</v>
       </c>
       <c r="Q9">
-        <f>(O9-P9)</f>
+        <f t="shared" si="2"/>
         <v>1.8441199999999967</v>
       </c>
       <c r="S9">
-        <f>(Q9/P9)</f>
+        <f t="shared" si="3"/>
         <v>1.3540987458513214</v>
       </c>
     </row>
@@ -11755,19 +11510,19 @@
         <v>37.1464</v>
       </c>
       <c r="O10">
-        <f>(H10-N10)</f>
+        <f t="shared" si="0"/>
         <v>26.373600000000003</v>
       </c>
       <c r="P10">
-        <f>(E10-N10)</f>
+        <f t="shared" si="1"/>
         <v>11.621499999999997</v>
       </c>
       <c r="Q10">
-        <f>(O10-P10)</f>
+        <f t="shared" si="2"/>
         <v>14.752100000000006</v>
       </c>
       <c r="S10">
-        <f>(Q10/P10)</f>
+        <f t="shared" si="3"/>
         <v>1.2693800283956467</v>
       </c>
     </row>
@@ -11797,19 +11552,19 @@
         <v>37.192999999999998</v>
       </c>
       <c r="O11">
-        <f>(H11-N11)</f>
+        <f t="shared" si="0"/>
         <v>2.7110000000000056</v>
       </c>
       <c r="P11">
-        <f>(E11-N11)</f>
+        <f t="shared" si="1"/>
         <v>1.2621099999999998</v>
       </c>
       <c r="Q11">
-        <f>(O11-P11)</f>
+        <f t="shared" si="2"/>
         <v>1.4488900000000058</v>
       </c>
       <c r="S11">
-        <f>(Q11/P11)</f>
+        <f t="shared" si="3"/>
         <v>1.1479902702617093</v>
       </c>
     </row>
@@ -11839,19 +11594,19 @@
         <v>37.003700000000002</v>
       </c>
       <c r="O12">
-        <f>(H12-N12)</f>
+        <f t="shared" si="0"/>
         <v>23.996299999999998</v>
       </c>
       <c r="P12">
-        <f>(E12-N12)</f>
+        <f t="shared" si="1"/>
         <v>11.194600000000001</v>
       </c>
       <c r="Q12">
-        <f>(O12-P12)</f>
+        <f t="shared" si="2"/>
         <v>12.801699999999997</v>
       </c>
       <c r="S12">
-        <f>(Q12/P12)</f>
+        <f t="shared" si="3"/>
         <v>1.1435602879959976</v>
       </c>
     </row>
@@ -11881,19 +11636,19 @@
         <v>37.171999999999997</v>
       </c>
       <c r="O13">
-        <f>(H13-N13)</f>
+        <f t="shared" si="0"/>
         <v>2.5450000000000017</v>
       </c>
       <c r="P13">
-        <f>(E13-N13)</f>
+        <f t="shared" si="1"/>
         <v>1.1512000000000029</v>
       </c>
       <c r="Q13">
-        <f>(O13-P13)</f>
+        <f t="shared" si="2"/>
         <v>1.3937999999999988</v>
       </c>
       <c r="S13">
-        <f>(Q13/P13)</f>
+        <f t="shared" si="3"/>
         <v>1.2107366226546172</v>
       </c>
     </row>
@@ -11924,19 +11679,19 @@
         <v>36.939599999999999</v>
       </c>
       <c r="O14">
-        <f>(H14-N14)</f>
+        <f t="shared" si="0"/>
         <v>32.6404</v>
       </c>
       <c r="P14">
-        <f>(E14-N14)</f>
+        <f t="shared" si="1"/>
         <v>15.231000000000002</v>
       </c>
       <c r="Q14">
-        <f>(O14-P14)</f>
+        <f t="shared" si="2"/>
         <v>17.409399999999998</v>
       </c>
       <c r="S14">
-        <f>(Q14/P14)</f>
+        <f t="shared" si="3"/>
         <v>1.143024095594511</v>
       </c>
     </row>
@@ -11966,19 +11721,19 @@
         <v>37.005000000000003</v>
       </c>
       <c r="O15">
-        <f>(H15-N15)</f>
+        <f t="shared" si="0"/>
         <v>6.5210000000000008</v>
       </c>
       <c r="P15">
-        <f>(E15-N15)</f>
+        <f t="shared" si="1"/>
         <v>2.8845999999999989</v>
       </c>
       <c r="Q15">
-        <f>(O15-P15)</f>
+        <f t="shared" si="2"/>
         <v>3.6364000000000019</v>
       </c>
       <c r="S15">
-        <f>(Q15/P15)</f>
+        <f t="shared" si="3"/>
         <v>1.2606253900020812</v>
       </c>
     </row>
@@ -12009,19 +11764,19 @@
         <v>36.8688</v>
       </c>
       <c r="O16">
-        <f>(H16-N16)</f>
+        <f t="shared" si="0"/>
         <v>37.301200000000001</v>
       </c>
       <c r="P16">
-        <f>(E16-N16)</f>
+        <f t="shared" si="1"/>
         <v>15.371499999999997</v>
       </c>
       <c r="Q16">
-        <f>(O16-P16)</f>
+        <f t="shared" si="2"/>
         <v>21.929700000000004</v>
       </c>
       <c r="S16">
-        <f>(Q16/P16)</f>
+        <f t="shared" si="3"/>
         <v>1.4266467163256682</v>
       </c>
     </row>
@@ -12051,19 +11806,19 @@
         <v>37.161000000000001</v>
       </c>
       <c r="O17">
-        <f>(H17-N17)</f>
+        <f t="shared" si="0"/>
         <v>5.4110000000000014</v>
       </c>
       <c r="P17">
-        <f>(E17-N17)</f>
+        <f t="shared" si="1"/>
         <v>2.6822999999999979</v>
       </c>
       <c r="Q17">
-        <f>(O17-P17)</f>
+        <f t="shared" si="2"/>
         <v>2.7287000000000035</v>
       </c>
       <c r="S17">
-        <f>(Q17/P17)</f>
+        <f t="shared" si="3"/>
         <v>1.0172985870335181</v>
       </c>
     </row>
@@ -12094,19 +11849,19 @@
         <v>36.864199999999997</v>
       </c>
       <c r="O18">
-        <f>(H18-N18)</f>
+        <f t="shared" si="0"/>
         <v>27.94080000000001</v>
       </c>
       <c r="P18">
-        <f>(E18-N18)</f>
+        <f t="shared" si="1"/>
         <v>12.552400000000006</v>
       </c>
       <c r="Q18">
-        <f>(O18-P18)</f>
+        <f t="shared" si="2"/>
         <v>15.388400000000004</v>
       </c>
       <c r="S18">
-        <f>(Q18/P18)</f>
+        <f t="shared" si="3"/>
         <v>1.2259328893279371</v>
       </c>
     </row>
@@ -12136,19 +11891,19 @@
         <v>37.130000000000003</v>
       </c>
       <c r="O19">
-        <f>(H19-N19)</f>
+        <f t="shared" si="0"/>
         <v>6.5229999999999961</v>
       </c>
       <c r="P19">
-        <f>(E19-N19)</f>
+        <f t="shared" si="1"/>
         <v>3.0805000000000007</v>
       </c>
       <c r="Q19">
-        <f>(O19-P19)</f>
+        <f t="shared" si="2"/>
         <v>3.4424999999999955</v>
       </c>
       <c r="S19">
-        <f>(Q19/P19)</f>
+        <f t="shared" si="3"/>
         <v>1.117513390683329</v>
       </c>
     </row>
@@ -12179,19 +11934,19 @@
         <v>37.010300000000001</v>
       </c>
       <c r="O20">
-        <f>(H20-N20)</f>
+        <f t="shared" si="0"/>
         <v>28.058700000000002</v>
       </c>
       <c r="P20">
-        <f>(E20-N20)</f>
+        <f t="shared" si="1"/>
         <v>12.725099999999998</v>
       </c>
       <c r="Q20">
-        <f>(O20-P20)</f>
+        <f t="shared" si="2"/>
         <v>15.333600000000004</v>
       </c>
       <c r="S20">
-        <f>(Q20/P20)</f>
+        <f t="shared" si="3"/>
         <v>1.20498856590518</v>
       </c>
     </row>
@@ -12221,19 +11976,19 @@
         <v>37.155000000000001</v>
       </c>
       <c r="O21">
-        <f>(H21-N21)</f>
+        <f t="shared" si="0"/>
         <v>4.2939999999999969</v>
       </c>
       <c r="P21">
-        <f>(E21-N21)</f>
+        <f t="shared" si="1"/>
         <v>2.7160000000000011</v>
       </c>
       <c r="Q21">
-        <f>(O21-P21)</f>
+        <f t="shared" si="2"/>
         <v>1.5779999999999959</v>
       </c>
       <c r="S21">
-        <f>(Q21/P21)</f>
+        <f t="shared" si="3"/>
         <v>0.58100147275404834</v>
       </c>
     </row>
@@ -12263,19 +12018,19 @@
         <v>37.045999999999999</v>
       </c>
       <c r="O22">
-        <f>(H22-N22)</f>
+        <f t="shared" si="0"/>
         <v>21.003999999999998</v>
       </c>
       <c r="P22">
-        <f>(E22-N22)</f>
+        <f t="shared" si="1"/>
         <v>11.644600000000004</v>
       </c>
       <c r="Q22">
-        <f>(O22-P22)</f>
+        <f t="shared" si="2"/>
         <v>9.3593999999999937</v>
       </c>
       <c r="S22">
-        <f>(Q22/P22)</f>
+        <f t="shared" si="3"/>
         <v>0.80375452999673591</v>
       </c>
     </row>
@@ -12305,19 +12060,19 @@
         <v>37.020000000000003</v>
       </c>
       <c r="O23">
-        <f>(H23-N23)</f>
+        <f t="shared" si="0"/>
         <v>4.4649999999999963</v>
       </c>
       <c r="P23">
-        <f>(E23-N23)</f>
+        <f t="shared" si="1"/>
         <v>2.8741999999999948</v>
       </c>
       <c r="Q23">
-        <f>(O23-P23)</f>
+        <f t="shared" si="2"/>
         <v>1.5908000000000015</v>
       </c>
       <c r="S23">
-        <f>(Q23/P23)</f>
+        <f t="shared" si="3"/>
         <v>0.55347574977385161</v>
       </c>
     </row>
@@ -12347,19 +12102,19 @@
         <v>36.983899999999998</v>
       </c>
       <c r="O24">
-        <f>(H24-N24)</f>
+        <f t="shared" si="0"/>
         <v>31.497099999999996</v>
       </c>
       <c r="P24">
-        <f>(E24-N24)</f>
+        <f t="shared" si="1"/>
         <v>16.629100000000001</v>
       </c>
       <c r="Q24">
-        <f>(O24-P24)</f>
+        <f t="shared" si="2"/>
         <v>14.867999999999995</v>
       </c>
       <c r="S24">
-        <f>(Q24/P24)</f>
+        <f t="shared" si="3"/>
         <v>0.89409529078543004</v>
       </c>
     </row>
@@ -12395,7 +12150,7 @@
         <v>103</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25">
@@ -12407,11 +12162,11 @@
         <v>2.1353000000000009</v>
       </c>
       <c r="Q25">
-        <f>(O25-P25)</f>
+        <f t="shared" si="2"/>
         <v>2.2316999999999965</v>
       </c>
       <c r="S25">
-        <f>(Q25/P25)</f>
+        <f t="shared" si="3"/>
         <v>1.0451458811408212</v>
       </c>
     </row>
@@ -12438,28 +12193,28 @@
         <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N26" s="4">
         <v>37.139299999999999</v>
       </c>
       <c r="O26">
-        <f>(H26-N26)</f>
+        <f t="shared" ref="O26:O33" si="4">(H26-N26)</f>
         <v>19.747700000000002</v>
       </c>
       <c r="P26">
-        <f>(E26-N26)</f>
+        <f t="shared" ref="P26:P33" si="5">(E26-N26)</f>
         <v>8.515500000000003</v>
       </c>
       <c r="Q26">
-        <f>(O26-P26)</f>
+        <f t="shared" si="2"/>
         <v>11.232199999999999</v>
       </c>
       <c r="R26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S26">
-        <f>(Q26/P26)</f>
+        <f t="shared" si="3"/>
         <v>1.3190300041101515</v>
       </c>
     </row>
@@ -12489,19 +12244,19 @@
         <v>36.954000000000001</v>
       </c>
       <c r="O27">
-        <f>(H27-N27)</f>
+        <f t="shared" si="4"/>
         <v>7.5779999999999959</v>
       </c>
       <c r="P27">
-        <f>(E27-N27)</f>
+        <f t="shared" si="5"/>
         <v>3.8476900000000001</v>
       </c>
       <c r="Q27">
-        <f>(O27-P27)</f>
+        <f t="shared" si="2"/>
         <v>3.7303099999999958</v>
       </c>
       <c r="S27">
-        <f>(Q27/P27)</f>
+        <f t="shared" si="3"/>
         <v>0.9694933843422926</v>
       </c>
     </row>
@@ -12531,19 +12286,19 @@
         <v>37.122599999999998</v>
       </c>
       <c r="O28">
-        <f>(H28-N28)</f>
+        <f t="shared" si="4"/>
         <v>29.630400000000002</v>
       </c>
       <c r="P28">
-        <f>(E28-N28)</f>
+        <f t="shared" si="5"/>
         <v>13.672699999999999</v>
       </c>
       <c r="Q28">
-        <f>(O28-P28)</f>
+        <f t="shared" si="2"/>
         <v>15.957700000000003</v>
       </c>
       <c r="S28">
-        <f>(Q28/P28)</f>
+        <f t="shared" si="3"/>
         <v>1.1671213439920429</v>
       </c>
     </row>
@@ -12570,28 +12325,28 @@
         <v>19</v>
       </c>
       <c r="M29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N29">
         <v>37.225000000000001</v>
       </c>
       <c r="O29">
-        <f>(H29-N29)</f>
+        <f t="shared" si="4"/>
         <v>2.4319999999999951</v>
       </c>
       <c r="P29">
-        <f>(E29-N29)</f>
+        <f t="shared" si="5"/>
         <v>1.1611199999999968</v>
       </c>
       <c r="Q29">
-        <f>(O29-P29)</f>
+        <f t="shared" si="2"/>
         <v>1.2708799999999982</v>
       </c>
       <c r="R29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S29">
-        <f>(Q29/P29)</f>
+        <f t="shared" si="3"/>
         <v>1.0945294198704714</v>
       </c>
     </row>
@@ -12627,22 +12382,22 @@
         <v>37.11</v>
       </c>
       <c r="O30">
-        <f>(H30-N30)</f>
+        <f t="shared" si="4"/>
         <v>14.203000000000003</v>
       </c>
       <c r="P30">
-        <f>(E30-N30)</f>
+        <f t="shared" si="5"/>
         <v>6.8108599999999981</v>
       </c>
       <c r="Q30">
-        <f>(O30-P30)</f>
+        <f t="shared" si="2"/>
         <v>7.3921400000000048</v>
       </c>
       <c r="R30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S30">
-        <f>(Q30/P30)</f>
+        <f t="shared" si="3"/>
         <v>1.0853460502785268</v>
       </c>
     </row>
@@ -12672,19 +12427,19 @@
         <v>37.084000000000003</v>
       </c>
       <c r="O31">
-        <f>(H31-N31)</f>
+        <f t="shared" si="4"/>
         <v>8.7249999999999943</v>
       </c>
       <c r="P31">
-        <f>(E31-N31)</f>
+        <f t="shared" si="5"/>
         <v>3.9636999999999958</v>
       </c>
       <c r="Q31">
-        <f>(O31-P31)</f>
+        <f t="shared" si="2"/>
         <v>4.7612999999999985</v>
       </c>
       <c r="S31">
-        <f>(Q31/P31)</f>
+        <f t="shared" si="3"/>
         <v>1.2012261271034648</v>
       </c>
     </row>
@@ -12720,22 +12475,22 @@
         <v>37.107999999999997</v>
       </c>
       <c r="O32">
-        <f>(H32-N32)</f>
+        <f t="shared" si="4"/>
         <v>33.533000000000008</v>
       </c>
       <c r="P32">
-        <f>(E32-N32)</f>
+        <f t="shared" si="5"/>
         <v>14.697100000000006</v>
       </c>
       <c r="Q32">
-        <f>(O32-P32)</f>
+        <f t="shared" si="2"/>
         <v>18.835900000000002</v>
       </c>
       <c r="R32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S32">
-        <f>(Q32/P32)</f>
+        <f t="shared" si="3"/>
         <v>1.2816065754468564</v>
       </c>
     </row>
@@ -12767,19 +12522,19 @@
         <v>37.018500000000003</v>
       </c>
       <c r="O33">
-        <f>(H33-N33)</f>
+        <f t="shared" si="4"/>
         <v>10.536499999999997</v>
       </c>
       <c r="P33">
-        <f>(E33-N33)</f>
+        <f t="shared" si="5"/>
         <v>4.6252999999999957</v>
       </c>
       <c r="Q33">
-        <f>(O33-P33)</f>
+        <f t="shared" si="2"/>
         <v>5.9112000000000009</v>
       </c>
       <c r="S33">
-        <f>(Q33/P33)</f>
+        <f t="shared" si="3"/>
         <v>1.278014399066008</v>
       </c>
     </row>
@@ -12815,7 +12570,7 @@
         <v>102</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N34" s="17"/>
       <c r="O34">
@@ -12827,14 +12582,14 @@
         <v>6.5616000000000057</v>
       </c>
       <c r="Q34">
-        <f>(O34-P34)</f>
+        <f t="shared" ref="Q34:Q65" si="6">(O34-P34)</f>
         <v>3.1933999999999969</v>
       </c>
       <c r="R34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S34">
-        <f>(Q34/P34)</f>
+        <f t="shared" ref="S34:S65" si="7">(Q34/P34)</f>
         <v>0.48668007802974794</v>
       </c>
       <c r="T34" s="10"/>
@@ -12864,28 +12619,28 @@
         <v>19</v>
       </c>
       <c r="M35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N35">
         <v>37.161999999999999</v>
       </c>
       <c r="O35">
-        <f>(H35-N35)</f>
+        <f t="shared" ref="O35:O43" si="8">(H35-N35)</f>
         <v>16.548999999999999</v>
       </c>
       <c r="P35">
-        <f>(E35-N35)</f>
+        <f t="shared" ref="P35:P43" si="9">(E35-N35)</f>
         <v>10.255490000000002</v>
       </c>
       <c r="Q35">
-        <f>(O35-P35)</f>
+        <f t="shared" si="6"/>
         <v>6.2935099999999977</v>
       </c>
       <c r="R35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S35">
-        <f>(Q35/P35)</f>
+        <f t="shared" si="7"/>
         <v>0.613672286745928</v>
       </c>
     </row>
@@ -12915,19 +12670,19 @@
         <v>37.112000000000002</v>
       </c>
       <c r="O36">
-        <f>(H36-N36)</f>
+        <f t="shared" si="8"/>
         <v>19.757999999999996</v>
       </c>
       <c r="P36">
-        <f>(E36-N36)</f>
+        <f t="shared" si="9"/>
         <v>11.444299999999998</v>
       </c>
       <c r="Q36">
-        <f>(O36-P36)</f>
+        <f t="shared" si="6"/>
         <v>8.3136999999999972</v>
       </c>
       <c r="S36">
-        <f>(Q36/P36)</f>
+        <f t="shared" si="7"/>
         <v>0.72644897459870839</v>
       </c>
     </row>
@@ -12957,19 +12712,19 @@
         <v>37.158000000000001</v>
       </c>
       <c r="O37">
-        <f>(H37-N37)</f>
+        <f t="shared" si="8"/>
         <v>36.182999999999993</v>
       </c>
       <c r="P37">
-        <f>(E37-N37)</f>
+        <f t="shared" si="9"/>
         <v>21.9236</v>
       </c>
       <c r="Q37">
-        <f>(O37-P37)</f>
+        <f t="shared" si="6"/>
         <v>14.259399999999992</v>
       </c>
       <c r="S37">
-        <f>(Q37/P37)</f>
+        <f t="shared" si="7"/>
         <v>0.65041325329781574</v>
       </c>
     </row>
@@ -12999,19 +12754,19 @@
         <v>37.006999999999998</v>
       </c>
       <c r="O38">
-        <f>(H38-N38)</f>
+        <f t="shared" si="8"/>
         <v>8.7220000000000013</v>
       </c>
       <c r="P38">
-        <f>(E38-N38)</f>
+        <f t="shared" si="9"/>
         <v>5.7161000000000044</v>
       </c>
       <c r="Q38">
-        <f>(O38-P38)</f>
+        <f t="shared" si="6"/>
         <v>3.0058999999999969</v>
       </c>
       <c r="S38">
-        <f>(Q38/P38)</f>
+        <f t="shared" si="7"/>
         <v>0.5258655376917819</v>
       </c>
       <c r="V38" s="10"/>
@@ -13042,19 +12797,19 @@
         <v>37.064999999999998</v>
       </c>
       <c r="O39">
-        <f>(H39-N39)</f>
+        <f t="shared" si="8"/>
         <v>11.066000000000003</v>
       </c>
       <c r="P39">
-        <f>(E39-N39)</f>
+        <f t="shared" si="9"/>
         <v>5.940100000000001</v>
       </c>
       <c r="Q39">
-        <f>(O39-P39)</f>
+        <f t="shared" si="6"/>
         <v>5.1259000000000015</v>
       </c>
       <c r="S39">
-        <f>(Q39/P39)</f>
+        <f t="shared" si="7"/>
         <v>0.86293160047810658</v>
       </c>
     </row>
@@ -13084,19 +12839,19 @@
         <v>36.857999999999997</v>
       </c>
       <c r="O40">
-        <f>(H40-N40)</f>
+        <f t="shared" si="8"/>
         <v>19.075000000000003</v>
       </c>
       <c r="P40">
-        <f>(E40-N40)</f>
+        <f t="shared" si="9"/>
         <v>11.661500000000004</v>
       </c>
       <c r="Q40">
-        <f>(O40-P40)</f>
+        <f t="shared" si="6"/>
         <v>7.4134999999999991</v>
       </c>
       <c r="S40">
-        <f>(Q40/P40)</f>
+        <f t="shared" si="7"/>
         <v>0.63572439223084476</v>
       </c>
     </row>
@@ -13126,19 +12881,19 @@
         <v>36.912999999999997</v>
       </c>
       <c r="O41">
-        <f>(H41-N41)</f>
+        <f t="shared" si="8"/>
         <v>14.747</v>
       </c>
       <c r="P41">
-        <f>(E41-N41)</f>
+        <f t="shared" si="9"/>
         <v>8.6831000000000031</v>
       </c>
       <c r="Q41">
-        <f>(O41-P41)</f>
+        <f t="shared" si="6"/>
         <v>6.0638999999999967</v>
       </c>
       <c r="S41">
-        <f>(Q41/P41)</f>
+        <f t="shared" si="7"/>
         <v>0.69835657771993809</v>
       </c>
     </row>
@@ -13168,19 +12923,19 @@
         <v>37.027999999999999</v>
       </c>
       <c r="O42">
-        <f>(H42-N42)</f>
+        <f t="shared" si="8"/>
         <v>25.631999999999998</v>
       </c>
       <c r="P42">
-        <f>(E42-N42)</f>
+        <f t="shared" si="9"/>
         <v>16.230800000000002</v>
       </c>
       <c r="Q42">
-        <f>(O42-P42)</f>
+        <f t="shared" si="6"/>
         <v>9.4011999999999958</v>
       </c>
       <c r="S42">
-        <f>(Q42/P42)</f>
+        <f t="shared" si="7"/>
         <v>0.57921975503363943</v>
       </c>
     </row>
@@ -13210,19 +12965,19 @@
         <v>37.005000000000003</v>
       </c>
       <c r="O43">
-        <f>(H43-N43)</f>
+        <f t="shared" si="8"/>
         <v>29.213999999999992</v>
       </c>
       <c r="P43">
-        <f>(E43-N43)</f>
+        <f t="shared" si="9"/>
         <v>17.791799999999995</v>
       </c>
       <c r="Q43">
-        <f>(O43-P43)</f>
+        <f t="shared" si="6"/>
         <v>11.422199999999997</v>
       </c>
       <c r="S43">
-        <f>(Q43/P43)</f>
+        <f t="shared" si="7"/>
         <v>0.64199237851144908</v>
       </c>
     </row>
@@ -13255,7 +13010,7 @@
         <v>19</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N44" s="16"/>
       <c r="O44">
@@ -13267,14 +13022,14 @@
         <v>10.921129999999998</v>
       </c>
       <c r="Q44">
-        <f>(O44-P44)</f>
+        <f t="shared" si="6"/>
         <v>9.2078699999999998</v>
       </c>
       <c r="R44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S44">
-        <f>(Q44/P44)</f>
+        <f t="shared" si="7"/>
         <v>0.84312429208332851</v>
       </c>
     </row>
@@ -13304,19 +13059,19 @@
         <v>37.134999999999998</v>
       </c>
       <c r="O45">
-        <f>(H45-N45)</f>
+        <f t="shared" ref="O45:O70" si="10">(H45-N45)</f>
         <v>9.1340000000000003</v>
       </c>
       <c r="P45">
-        <f>(E45-N45)</f>
+        <f t="shared" ref="P45:P70" si="11">(E45-N45)</f>
         <v>5.7446000000000055</v>
       </c>
       <c r="Q45">
-        <f>(O45-P45)</f>
+        <f t="shared" si="6"/>
         <v>3.3893999999999949</v>
       </c>
       <c r="S45">
-        <f>(Q45/P45)</f>
+        <f t="shared" si="7"/>
         <v>0.590014970581066</v>
       </c>
     </row>
@@ -13346,19 +13101,19 @@
         <v>37.155999999999999</v>
       </c>
       <c r="O46">
-        <f>(H46-N46)</f>
+        <f t="shared" si="10"/>
         <v>9.2049999999999983</v>
       </c>
       <c r="P46">
-        <f>(E46-N46)</f>
+        <f t="shared" si="11"/>
         <v>5.1688000000000045</v>
       </c>
       <c r="Q46">
-        <f>(O46-P46)</f>
+        <f t="shared" si="6"/>
         <v>4.0361999999999938</v>
       </c>
       <c r="S46">
-        <f>(Q46/P46)</f>
+        <f t="shared" si="7"/>
         <v>0.78087757313109241</v>
       </c>
     </row>
@@ -13385,25 +13140,25 @@
         <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N47" s="8">
         <v>37.145000000000003</v>
       </c>
       <c r="O47">
-        <f>(H47-N47)</f>
+        <f t="shared" si="10"/>
         <v>9.3739999999999952</v>
       </c>
       <c r="P47">
-        <f>(E47-N47)</f>
+        <f t="shared" si="11"/>
         <v>6.1538799999999938</v>
       </c>
       <c r="Q47">
-        <f>(O47-P47)</f>
+        <f t="shared" si="6"/>
         <v>3.2201200000000014</v>
       </c>
       <c r="S47">
-        <f>(Q47/P47)</f>
+        <f t="shared" si="7"/>
         <v>0.52326662203357954</v>
       </c>
     </row>
@@ -13433,19 +13188,19 @@
         <v>36.942999999999998</v>
       </c>
       <c r="O48">
-        <f>(H48-N48)</f>
+        <f t="shared" si="10"/>
         <v>14.620000000000005</v>
       </c>
       <c r="P48">
-        <f>(E48-N48)</f>
+        <f t="shared" si="11"/>
         <v>8.6524000000000001</v>
       </c>
       <c r="Q48">
-        <f>(O48-P48)</f>
+        <f t="shared" si="6"/>
         <v>5.9676000000000045</v>
       </c>
       <c r="S48">
-        <f>(Q48/P48)</f>
+        <f t="shared" si="7"/>
         <v>0.68970459063381306</v>
       </c>
     </row>
@@ -13475,19 +13230,19 @@
         <v>37.155000000000001</v>
       </c>
       <c r="O49">
-        <f>(H49-N49)</f>
+        <f t="shared" si="10"/>
         <v>9.8489999999999966</v>
       </c>
       <c r="P49">
-        <f>(E49-N49)</f>
+        <f t="shared" si="11"/>
         <v>6.1597999999999971</v>
       </c>
       <c r="Q49">
-        <f>(O49-P49)</f>
+        <f t="shared" si="6"/>
         <v>3.6891999999999996</v>
       </c>
       <c r="S49">
-        <f>(Q49/P49)</f>
+        <f t="shared" si="7"/>
         <v>0.59891554920614332</v>
       </c>
     </row>
@@ -13517,19 +13272,19 @@
         <v>37.037999999999997</v>
       </c>
       <c r="O50">
-        <f>(H50-N50)</f>
+        <f t="shared" si="10"/>
         <v>11.701000000000001</v>
       </c>
       <c r="P50">
-        <f>(E50-N50)</f>
+        <f t="shared" si="11"/>
         <v>6.6767000000000039</v>
       </c>
       <c r="Q50">
-        <f>(O50-P50)</f>
+        <f t="shared" si="6"/>
         <v>5.0242999999999967</v>
       </c>
       <c r="S50">
-        <f>(Q50/P50)</f>
+        <f t="shared" si="7"/>
         <v>0.75251246873455357</v>
       </c>
       <c r="V50" s="10"/>
@@ -13560,19 +13315,19 @@
         <v>37.017000000000003</v>
       </c>
       <c r="O51">
-        <f>(H51-N51)</f>
+        <f t="shared" si="10"/>
         <v>16.787999999999997</v>
       </c>
       <c r="P51">
-        <f>(E51-N51)</f>
+        <f t="shared" si="11"/>
         <v>9.1850499999999968</v>
       </c>
       <c r="Q51">
-        <f>(O51-P51)</f>
+        <f t="shared" si="6"/>
         <v>7.6029499999999999</v>
       </c>
       <c r="S51">
-        <f>(Q51/P51)</f>
+        <f t="shared" si="7"/>
         <v>0.82775270684427438</v>
       </c>
     </row>
@@ -13602,19 +13357,19 @@
         <v>37.051000000000002</v>
       </c>
       <c r="O52">
-        <f>(H52-N52)</f>
+        <f t="shared" si="10"/>
         <v>17.811999999999998</v>
       </c>
       <c r="P52">
-        <f>(E52-N52)</f>
+        <f t="shared" si="11"/>
         <v>10.200299999999999</v>
       </c>
       <c r="Q52">
-        <f>(O52-P52)</f>
+        <f t="shared" si="6"/>
         <v>7.611699999999999</v>
       </c>
       <c r="S52">
-        <f>(Q52/P52)</f>
+        <f t="shared" si="7"/>
         <v>0.74622315029950104</v>
       </c>
     </row>
@@ -13644,19 +13399,19 @@
         <v>37.023000000000003</v>
       </c>
       <c r="O53">
-        <f>(H53-N53)</f>
+        <f t="shared" si="10"/>
         <v>3.0319999999999965</v>
       </c>
       <c r="P53">
-        <f>(E53-N53)</f>
+        <f t="shared" si="11"/>
         <v>1.5504999999999995</v>
       </c>
       <c r="Q53">
-        <f>(O53-P53)</f>
+        <f t="shared" si="6"/>
         <v>1.4814999999999969</v>
       </c>
       <c r="S53">
-        <f>(Q53/P53)</f>
+        <f t="shared" si="7"/>
         <v>0.95549822637858584</v>
       </c>
     </row>
@@ -13686,26 +13441,26 @@
         <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N54" s="4">
         <f>AVERAGE(F54,I54)</f>
         <v>37.168500000000002</v>
       </c>
       <c r="O54">
-        <f>(H54-N54)</f>
+        <f t="shared" si="10"/>
         <v>18.008499999999998</v>
       </c>
       <c r="P54">
-        <f>(E54-N54)</f>
+        <f t="shared" si="11"/>
         <v>9.7560000000000002</v>
       </c>
       <c r="Q54">
-        <f>(O54-P54)</f>
+        <f t="shared" si="6"/>
         <v>8.2524999999999977</v>
       </c>
       <c r="S54">
-        <f>(Q54/P54)</f>
+        <f t="shared" si="7"/>
         <v>0.8458897088970887</v>
       </c>
     </row>
@@ -13735,26 +13490,26 @@
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N55" s="4">
         <f>AVERAGE(F55,I55)</f>
         <v>37.073500000000003</v>
       </c>
       <c r="O55">
-        <f>(H55-N55)</f>
+        <f t="shared" si="10"/>
         <v>2.0625</v>
       </c>
       <c r="P55">
-        <f>(E55-N55)</f>
+        <f t="shared" si="11"/>
         <v>1.0593000000000004</v>
       </c>
       <c r="Q55">
-        <f>(O55-P55)</f>
+        <f t="shared" si="6"/>
         <v>1.0031999999999996</v>
       </c>
       <c r="S55">
-        <f>(Q55/P55)</f>
+        <f t="shared" si="7"/>
         <v>0.94704049844236693</v>
       </c>
     </row>
@@ -13784,26 +13539,26 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N56" s="4">
         <f>AVERAGE(F56,I56)</f>
         <v>37.057000000000002</v>
       </c>
       <c r="O56">
-        <f>(H56-N56)</f>
+        <f t="shared" si="10"/>
         <v>19.800999999999995</v>
       </c>
       <c r="P56">
-        <f>(E56-N56)</f>
+        <f t="shared" si="11"/>
         <v>10.458079999999995</v>
       </c>
       <c r="Q56">
-        <f>(O56-P56)</f>
+        <f t="shared" si="6"/>
         <v>9.3429199999999994</v>
       </c>
       <c r="S56">
-        <f>(Q56/P56)</f>
+        <f t="shared" si="7"/>
         <v>0.89336857243394618</v>
       </c>
     </row>
@@ -13833,19 +13588,19 @@
         <v>37.045999999999999</v>
       </c>
       <c r="O57">
-        <f>(H57-N57)</f>
+        <f t="shared" si="10"/>
         <v>3.2250000000000014</v>
       </c>
       <c r="P57">
-        <f>(E57-N57)</f>
+        <f t="shared" si="11"/>
         <v>1.5636999999999972</v>
       </c>
       <c r="Q57">
-        <f>(O57-P57)</f>
+        <f t="shared" si="6"/>
         <v>1.6613000000000042</v>
       </c>
       <c r="S57">
-        <f>(Q57/P57)</f>
+        <f t="shared" si="7"/>
         <v>1.0624160644624974</v>
       </c>
     </row>
@@ -13875,26 +13630,26 @@
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N58" s="4">
         <f>AVERAGE(F58,I58)</f>
         <v>37.155999999999999</v>
       </c>
       <c r="O58">
-        <f>(H58-N58)</f>
+        <f t="shared" si="10"/>
         <v>23.289000000000001</v>
       </c>
       <c r="P58">
-        <f>(E58-N58)</f>
+        <f t="shared" si="11"/>
         <v>11.615099999999998</v>
       </c>
       <c r="Q58">
-        <f>(O58-P58)</f>
+        <f t="shared" si="6"/>
         <v>11.673900000000003</v>
       </c>
       <c r="S58">
-        <f>(Q58/P58)</f>
+        <f t="shared" si="7"/>
         <v>1.005062375700597</v>
       </c>
     </row>
@@ -13924,19 +13679,19 @@
         <v>37.119999999999997</v>
       </c>
       <c r="O59">
-        <f>(H59-N59)</f>
+        <f t="shared" si="10"/>
         <v>1.6430000000000007</v>
       </c>
       <c r="P59">
-        <f>(E59-N59)</f>
+        <f t="shared" si="11"/>
         <v>0.89550000000000551</v>
       </c>
       <c r="Q59">
-        <f>(O59-P59)</f>
+        <f t="shared" si="6"/>
         <v>0.74749999999999517</v>
       </c>
       <c r="S59">
-        <f>(Q59/P59)</f>
+        <f t="shared" si="7"/>
         <v>0.83472920156336183</v>
       </c>
     </row>
@@ -13966,26 +13721,26 @@
         <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N60" s="4">
         <f>AVERAGE(F60,I60)</f>
         <v>37.072499999999998</v>
       </c>
       <c r="O60">
-        <f>(H60-N60)</f>
+        <f t="shared" si="10"/>
         <v>17.419499999999999</v>
       </c>
       <c r="P60">
-        <f>(E60-N60)</f>
+        <f t="shared" si="11"/>
         <v>8.991500000000002</v>
       </c>
       <c r="Q60">
-        <f>(O60-P60)</f>
+        <f t="shared" si="6"/>
         <v>8.4279999999999973</v>
       </c>
       <c r="S60">
-        <f>(Q60/P60)</f>
+        <f t="shared" si="7"/>
         <v>0.93732970027247908</v>
       </c>
     </row>
@@ -14015,19 +13770,19 @@
         <v>36.860999999999997</v>
       </c>
       <c r="O61">
-        <f>(H61-N61)</f>
+        <f t="shared" si="10"/>
         <v>3.7439999999999998</v>
       </c>
       <c r="P61">
-        <f>(E61-N61)</f>
+        <f t="shared" si="11"/>
         <v>1.8231999999999999</v>
       </c>
       <c r="Q61">
-        <f>(O61-P61)</f>
+        <f t="shared" si="6"/>
         <v>1.9207999999999998</v>
       </c>
       <c r="S61">
-        <f>(Q61/P61)</f>
+        <f t="shared" si="7"/>
         <v>1.0535322509872751</v>
       </c>
     </row>
@@ -14057,26 +13812,26 @@
         <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N62" s="4">
         <f>AVERAGE(F62,I62)</f>
         <v>37.067</v>
       </c>
       <c r="O62">
-        <f>(H62-N62)</f>
+        <f t="shared" si="10"/>
         <v>20.310000000000002</v>
       </c>
       <c r="P62">
-        <f>(E62-N62)</f>
+        <f t="shared" si="11"/>
         <v>9.5260999999999996</v>
       </c>
       <c r="Q62">
-        <f>(O62-P62)</f>
+        <f t="shared" si="6"/>
         <v>10.783900000000003</v>
       </c>
       <c r="S62">
-        <f>(Q62/P62)</f>
+        <f t="shared" si="7"/>
         <v>1.1320372450425675</v>
       </c>
     </row>
@@ -14106,19 +13861,19 @@
         <v>37.081000000000003</v>
       </c>
       <c r="O63">
-        <f>(H63-N63)</f>
+        <f t="shared" si="10"/>
         <v>3.9519999999999982</v>
       </c>
       <c r="P63">
-        <f>(E63-N63)</f>
+        <f t="shared" si="11"/>
         <v>1.9758999999999958</v>
       </c>
       <c r="Q63">
-        <f>(O63-P63)</f>
+        <f t="shared" si="6"/>
         <v>1.9761000000000024</v>
       </c>
       <c r="S63">
-        <f>(Q63/P63)</f>
+        <f t="shared" si="7"/>
         <v>1.0001012196973564</v>
       </c>
     </row>
@@ -14148,26 +13903,26 @@
         <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N64" s="4">
         <f>AVERAGE(F64,I64)</f>
         <v>37.087500000000006</v>
       </c>
       <c r="O64">
-        <f>(H64-N64)</f>
+        <f t="shared" si="10"/>
         <v>20.735499999999995</v>
       </c>
       <c r="P64">
-        <f>(E64-N64)</f>
+        <f t="shared" si="11"/>
         <v>9.5424999999999969</v>
       </c>
       <c r="Q64">
-        <f>(O64-P64)</f>
+        <f t="shared" si="6"/>
         <v>11.192999999999998</v>
       </c>
       <c r="S64">
-        <f>(Q64/P64)</f>
+        <f t="shared" si="7"/>
         <v>1.1729630599947605</v>
       </c>
     </row>
@@ -14194,28 +13949,28 @@
         <v>19</v>
       </c>
       <c r="M65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N65">
         <v>37.015000000000001</v>
       </c>
       <c r="O65">
-        <f>(H65-N65)</f>
+        <f t="shared" si="10"/>
         <v>6.3190000000000026</v>
       </c>
       <c r="P65">
-        <f>(E65-N65)</f>
+        <f t="shared" si="11"/>
         <v>2.8699099999999973</v>
       </c>
       <c r="Q65">
-        <f>(O65-P65)</f>
+        <f t="shared" si="6"/>
         <v>3.4490900000000053</v>
       </c>
       <c r="R65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S65">
-        <f>(Q65/P65)</f>
+        <f t="shared" si="7"/>
         <v>1.2018112066232072</v>
       </c>
     </row>
@@ -14251,22 +14006,22 @@
         <v>37.095999999999997</v>
       </c>
       <c r="O66">
-        <f>(H66-N66)</f>
+        <f t="shared" si="10"/>
         <v>33.685000000000009</v>
       </c>
       <c r="P66">
-        <f>(E66-N66)</f>
+        <f t="shared" si="11"/>
         <v>14.465380000000003</v>
       </c>
       <c r="Q66">
-        <f>(O66-P66)</f>
+        <f t="shared" ref="Q66:Q97" si="12">(O66-P66)</f>
         <v>19.219620000000006</v>
       </c>
       <c r="R66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S66">
-        <f>(Q66/P66)</f>
+        <f t="shared" ref="S66:S97" si="13">(Q66/P66)</f>
         <v>1.3286633327295931</v>
       </c>
     </row>
@@ -14296,19 +14051,19 @@
         <v>37.067</v>
       </c>
       <c r="O67">
-        <f>(H67-N67)</f>
+        <f t="shared" si="10"/>
         <v>4.8830000000000027</v>
       </c>
       <c r="P67">
-        <f>(E67-N67)</f>
+        <f t="shared" si="11"/>
         <v>3.0150999999999968</v>
       </c>
       <c r="Q67">
-        <f>(O67-P67)</f>
+        <f t="shared" si="12"/>
         <v>1.8679000000000059</v>
       </c>
       <c r="S67">
-        <f>(Q67/P67)</f>
+        <f t="shared" si="13"/>
         <v>0.61951510729329307</v>
       </c>
     </row>
@@ -14338,19 +14093,19 @@
         <v>37.121600000000001</v>
       </c>
       <c r="O68">
-        <f>(H68-N68)</f>
+        <f t="shared" si="10"/>
         <v>22.807400000000001</v>
       </c>
       <c r="P68">
-        <f>(E68-N68)</f>
+        <f t="shared" si="11"/>
         <v>12.883299999999998</v>
       </c>
       <c r="Q68">
-        <f>(O68-P68)</f>
+        <f t="shared" si="12"/>
         <v>9.9241000000000028</v>
       </c>
       <c r="S68">
-        <f>(Q68/P68)</f>
+        <f t="shared" si="13"/>
         <v>0.77030729704345968</v>
       </c>
     </row>
@@ -14380,19 +14135,19 @@
         <v>36.878</v>
       </c>
       <c r="O69">
-        <f>(H69-N69)</f>
+        <f t="shared" si="10"/>
         <v>2.6760000000000019</v>
       </c>
       <c r="P69">
-        <f>(E69-N69)</f>
+        <f t="shared" si="11"/>
         <v>1.4654000000000025</v>
       </c>
       <c r="Q69">
-        <f>(O69-P69)</f>
+        <f t="shared" si="12"/>
         <v>1.2105999999999995</v>
       </c>
       <c r="S69">
-        <f>(Q69/P69)</f>
+        <f t="shared" si="13"/>
         <v>0.82612256039306498</v>
       </c>
     </row>
@@ -14425,19 +14180,19 @@
         <v>37.062100000000001</v>
       </c>
       <c r="O70">
-        <f>(H70-N70)</f>
+        <f t="shared" si="10"/>
         <v>19.331899999999997</v>
       </c>
       <c r="P70">
-        <f>(E70-N70)</f>
+        <f t="shared" si="11"/>
         <v>10.220399999999998</v>
       </c>
       <c r="Q70">
-        <f>(O70-P70)</f>
+        <f t="shared" si="12"/>
         <v>9.1114999999999995</v>
       </c>
       <c r="S70">
-        <f>(Q70/P70)</f>
+        <f t="shared" si="13"/>
         <v>0.89150131110328379</v>
       </c>
     </row>
@@ -14470,7 +14225,7 @@
         <v>72</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N71" s="17"/>
       <c r="O71">
@@ -14482,14 +14237,14 @@
         <v>4.5165999999999968</v>
       </c>
       <c r="Q71">
-        <f>(O71-P71)</f>
+        <f t="shared" si="12"/>
         <v>2.5804000000000045</v>
       </c>
       <c r="R71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S71">
-        <f>(Q71/P71)</f>
+        <f t="shared" si="13"/>
         <v>0.57131470575211585</v>
       </c>
     </row>
@@ -14530,11 +14285,11 @@
         <v>7.1736000000000004</v>
       </c>
       <c r="Q72">
-        <f>(O72-P72)</f>
+        <f t="shared" si="12"/>
         <v>5.6047000000000011</v>
       </c>
       <c r="S72">
-        <f>(Q72/P72)</f>
+        <f t="shared" si="13"/>
         <v>0.78129530500724886</v>
       </c>
     </row>
@@ -14573,11 +14328,11 @@
         <v>0.87930000000000064</v>
       </c>
       <c r="Q73">
-        <f>(O73-P73)</f>
+        <f t="shared" si="12"/>
         <v>1.9316999999999993</v>
       </c>
       <c r="S73">
-        <f>(Q73/P73)</f>
+        <f t="shared" si="13"/>
         <v>2.1968611395428157</v>
       </c>
     </row>
@@ -14618,11 +14373,11 @@
         <v>7.7109999999999985</v>
       </c>
       <c r="Q74">
-        <f>(O74-P74)</f>
+        <f t="shared" si="12"/>
         <v>5.9141000000000048</v>
       </c>
       <c r="S74">
-        <f>(Q74/P74)</f>
+        <f t="shared" si="13"/>
         <v>0.76696926468681181</v>
       </c>
     </row>
@@ -14658,7 +14413,7 @@
         <v>56</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N75" s="17"/>
       <c r="O75">
@@ -14670,14 +14425,14 @@
         <v>4.3102799999999988</v>
       </c>
       <c r="Q75">
-        <f>(O75-P75)</f>
+        <f t="shared" si="12"/>
         <v>2.6617200000000025</v>
       </c>
       <c r="R75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S75">
-        <f>(Q75/P75)</f>
+        <f t="shared" si="13"/>
         <v>0.61752832762604826</v>
       </c>
     </row>
@@ -14707,19 +14462,19 @@
         <v>37.136699999999998</v>
       </c>
       <c r="O76">
-        <f>(H76-N76)</f>
+        <f t="shared" ref="O76:O119" si="14">(H76-N76)</f>
         <v>15.999300000000005</v>
       </c>
       <c r="P76">
-        <f>(E76-N76)</f>
+        <f t="shared" ref="P76:P119" si="15">(E76-N76)</f>
         <v>8.6682000000000059</v>
       </c>
       <c r="Q76">
-        <f>(O76-P76)</f>
+        <f t="shared" si="12"/>
         <v>7.3310999999999993</v>
       </c>
       <c r="S76">
-        <f>(Q76/P76)</f>
+        <f t="shared" si="13"/>
         <v>0.84574652176922482</v>
       </c>
     </row>
@@ -14749,19 +14504,19 @@
         <v>37.136000000000003</v>
       </c>
       <c r="O77">
-        <f>(H77-N77)</f>
+        <f t="shared" si="14"/>
         <v>6.7409999999999997</v>
       </c>
       <c r="P77">
-        <f>(E77-N77)</f>
+        <f t="shared" si="15"/>
         <v>3.746699999999997</v>
       </c>
       <c r="Q77">
-        <f>(O77-P77)</f>
+        <f t="shared" si="12"/>
         <v>2.9943000000000026</v>
       </c>
       <c r="S77">
-        <f>(Q77/P77)</f>
+        <f t="shared" si="13"/>
         <v>0.79918328128753435</v>
       </c>
     </row>
@@ -14794,19 +14549,19 @@
         <v>37.026800000000001</v>
       </c>
       <c r="O78">
-        <f>(H78-N78)</f>
+        <f t="shared" si="14"/>
         <v>26.912199999999999</v>
       </c>
       <c r="P78">
-        <f>(E78-N78)</f>
+        <f t="shared" si="15"/>
         <v>14.9161</v>
       </c>
       <c r="Q78">
-        <f>(O78-P78)</f>
+        <f t="shared" si="12"/>
         <v>11.996099999999998</v>
       </c>
       <c r="S78">
-        <f>(Q78/P78)</f>
+        <f t="shared" si="13"/>
         <v>0.80423837330133197</v>
       </c>
     </row>
@@ -14836,19 +14591,19 @@
         <v>37.143000000000001</v>
       </c>
       <c r="O79">
-        <f>(H79-N79)</f>
+        <f t="shared" si="14"/>
         <v>5.7340000000000018</v>
       </c>
       <c r="P79">
-        <f>(E79-N79)</f>
+        <f t="shared" si="15"/>
         <v>3.6576999999999984</v>
       </c>
       <c r="Q79">
-        <f>(O79-P79)</f>
+        <f t="shared" si="12"/>
         <v>2.0763000000000034</v>
       </c>
       <c r="S79">
-        <f>(Q79/P79)</f>
+        <f t="shared" si="13"/>
         <v>0.5676518030456309</v>
       </c>
     </row>
@@ -14878,19 +14633,19 @@
         <v>37.0535</v>
       </c>
       <c r="O80">
-        <f>(H80-N80)</f>
+        <f t="shared" si="14"/>
         <v>24.048499999999997</v>
       </c>
       <c r="P80">
-        <f>(E80-N80)</f>
+        <f t="shared" si="15"/>
         <v>13.789900000000003</v>
       </c>
       <c r="Q80">
-        <f>(O80-P80)</f>
+        <f t="shared" si="12"/>
         <v>10.258599999999994</v>
       </c>
       <c r="S80">
-        <f>(Q80/P80)</f>
+        <f t="shared" si="13"/>
         <v>0.74392127571628452</v>
       </c>
     </row>
@@ -14920,19 +14675,19 @@
         <v>36.951999999999998</v>
       </c>
       <c r="O81">
-        <f>(H81-N81)</f>
+        <f t="shared" si="14"/>
         <v>9.0100000000000051</v>
       </c>
       <c r="P81">
-        <f>(E81-N81)</f>
+        <f t="shared" si="15"/>
         <v>5.7886000000000024</v>
       </c>
       <c r="Q81">
-        <f>(O81-P81)</f>
+        <f t="shared" si="12"/>
         <v>3.2214000000000027</v>
       </c>
       <c r="S81">
-        <f>(Q81/P81)</f>
+        <f t="shared" si="13"/>
         <v>0.55650761842241669</v>
       </c>
     </row>
@@ -14962,19 +14717,19 @@
         <v>36.989199999999997</v>
       </c>
       <c r="O82">
-        <f>(H82-N82)</f>
+        <f t="shared" si="14"/>
         <v>12.913800000000002</v>
       </c>
       <c r="P82">
-        <f>(E82-N82)</f>
+        <f t="shared" si="15"/>
         <v>7.4313000000000002</v>
       </c>
       <c r="Q82">
-        <f>(O82-P82)</f>
+        <f t="shared" si="12"/>
         <v>5.4825000000000017</v>
       </c>
       <c r="S82">
-        <f>(Q82/P82)</f>
+        <f t="shared" si="13"/>
         <v>0.73775786201606741</v>
       </c>
     </row>
@@ -15005,19 +14760,19 @@
         <v>37.040500000000002</v>
       </c>
       <c r="O83">
-        <f>(H83-N83)</f>
+        <f t="shared" si="14"/>
         <v>20.852499999999999</v>
       </c>
       <c r="P83">
-        <f>(E83-N83)</f>
+        <f t="shared" si="15"/>
         <v>9.4953000000000003</v>
       </c>
       <c r="Q83">
-        <f>(O83-P83)</f>
+        <f t="shared" si="12"/>
         <v>11.357199999999999</v>
       </c>
       <c r="S83">
-        <f>(Q83/P83)</f>
+        <f t="shared" si="13"/>
         <v>1.1960864848925257</v>
       </c>
     </row>
@@ -15047,19 +14802,19 @@
         <v>37.177999999999997</v>
       </c>
       <c r="O84">
-        <f>(H84-N84)</f>
+        <f t="shared" si="14"/>
         <v>13.682500000000005</v>
       </c>
       <c r="P84">
-        <f>(E84-N84)</f>
+        <f t="shared" si="15"/>
         <v>8.5907000000000053</v>
       </c>
       <c r="Q84">
-        <f>(O84-P84)</f>
+        <f t="shared" si="12"/>
         <v>5.0917999999999992</v>
       </c>
       <c r="S84">
-        <f>(Q84/P84)</f>
+        <f t="shared" si="13"/>
         <v>0.5927107220599015</v>
       </c>
     </row>
@@ -15089,19 +14844,19 @@
         <v>37.098700000000001</v>
       </c>
       <c r="O85">
-        <f>(H85-N85)</f>
+        <f t="shared" si="14"/>
         <v>26.716299999999997</v>
       </c>
       <c r="P85">
-        <f>(E85-N85)</f>
+        <f t="shared" si="15"/>
         <v>15.999699999999997</v>
       </c>
       <c r="Q85">
-        <f>(O85-P85)</f>
+        <f t="shared" si="12"/>
         <v>10.7166</v>
       </c>
       <c r="S85">
-        <f>(Q85/P85)</f>
+        <f t="shared" si="13"/>
         <v>0.66980005875110171</v>
       </c>
     </row>
@@ -15131,19 +14886,19 @@
         <v>37.024000000000001</v>
       </c>
       <c r="O86">
-        <f>(H86-N86)</f>
+        <f t="shared" si="14"/>
         <v>17.256</v>
       </c>
       <c r="P86">
-        <f>(E86-N86)</f>
+        <f t="shared" si="15"/>
         <v>8.9309000000000012</v>
       </c>
       <c r="Q86">
-        <f>(O86-P86)</f>
+        <f t="shared" si="12"/>
         <v>8.3250999999999991</v>
       </c>
       <c r="S86">
-        <f>(Q86/P86)</f>
+        <f t="shared" si="13"/>
         <v>0.93216809056198124</v>
       </c>
     </row>
@@ -15173,19 +14928,19 @@
         <v>36.9313</v>
       </c>
       <c r="O87">
-        <f>(H87-N87)</f>
+        <f t="shared" si="14"/>
         <v>75.421699999999987</v>
       </c>
       <c r="P87">
-        <f>(E87-N87)</f>
+        <f t="shared" si="15"/>
         <v>40.856699999999996</v>
       </c>
       <c r="Q87">
-        <f>(O87-P87)</f>
+        <f t="shared" si="12"/>
         <v>34.564999999999991</v>
       </c>
       <c r="S87">
-        <f>(Q87/P87)</f>
+        <f t="shared" si="13"/>
         <v>0.8460056734880691</v>
       </c>
     </row>
@@ -15218,19 +14973,19 @@
         <v>37.137099999999997</v>
       </c>
       <c r="O88">
-        <f>(H88-N88)</f>
+        <f t="shared" si="14"/>
         <v>15.528500000000001</v>
       </c>
       <c r="P88">
-        <f>(E88-N88)</f>
+        <f t="shared" si="15"/>
         <v>9.801400000000001</v>
       </c>
       <c r="Q88">
-        <f>(O88-P88)</f>
+        <f t="shared" si="12"/>
         <v>5.7271000000000001</v>
       </c>
       <c r="S88">
-        <f>(Q88/P88)</f>
+        <f t="shared" si="13"/>
         <v>0.58431448568571831</v>
       </c>
     </row>
@@ -15260,19 +15015,19 @@
         <v>36.9983</v>
       </c>
       <c r="O89">
-        <f>(H89-N89)</f>
+        <f t="shared" si="14"/>
         <v>23.8827</v>
       </c>
       <c r="P89">
-        <f>(E89-N89)</f>
+        <f t="shared" si="15"/>
         <v>12.483199999999997</v>
       </c>
       <c r="Q89">
-        <f>(O89-P89)</f>
+        <f t="shared" si="12"/>
         <v>11.399500000000003</v>
       </c>
       <c r="S89">
-        <f>(Q89/P89)</f>
+        <f t="shared" si="13"/>
         <v>0.91318732376313816</v>
       </c>
     </row>
@@ -15308,22 +15063,22 @@
         <v>37.125999999999998</v>
       </c>
       <c r="O90">
-        <f>(H90-N90)</f>
+        <f t="shared" si="14"/>
         <v>62.051000000000009</v>
       </c>
       <c r="P90">
-        <f>(E90-N90)</f>
+        <f t="shared" si="15"/>
         <v>32.267600000000009</v>
       </c>
       <c r="Q90">
-        <f>(O90-P90)</f>
+        <f t="shared" si="12"/>
         <v>29.7834</v>
       </c>
       <c r="R90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S90">
-        <f>(Q90/P90)</f>
+        <f t="shared" si="13"/>
         <v>0.92301255748800626</v>
       </c>
     </row>
@@ -15353,19 +15108,19 @@
         <v>37.088000000000001</v>
       </c>
       <c r="O91">
-        <f>(H91-N91)</f>
+        <f t="shared" si="14"/>
         <v>5.6077000000000012</v>
       </c>
       <c r="P91">
-        <f>(E91-N91)</f>
+        <f t="shared" si="15"/>
         <v>3.693799999999996</v>
       </c>
       <c r="Q91">
-        <f>(O91-P91)</f>
+        <f t="shared" si="12"/>
         <v>1.9139000000000053</v>
       </c>
       <c r="S91">
-        <f>(Q91/P91)</f>
+        <f t="shared" si="13"/>
         <v>0.51813850235530001</v>
       </c>
     </row>
@@ -15395,19 +15150,19 @@
         <v>37.018900000000002</v>
       </c>
       <c r="O92">
-        <f>(H92-N92)</f>
+        <f t="shared" si="14"/>
         <v>9.6395999999999944</v>
       </c>
       <c r="P92">
-        <f>(E92-N92)</f>
+        <f t="shared" si="15"/>
         <v>5.7680000000000007</v>
       </c>
       <c r="Q92">
-        <f>(O92-P92)</f>
+        <f t="shared" si="12"/>
         <v>3.8715999999999937</v>
       </c>
       <c r="S92">
-        <f>(Q92/P92)</f>
+        <f t="shared" si="13"/>
         <v>0.67122052704576862</v>
       </c>
     </row>
@@ -15437,19 +15192,19 @@
         <v>37.1113</v>
       </c>
       <c r="O93">
-        <f>(H93-N93)</f>
+        <f t="shared" si="14"/>
         <v>13.892800000000001</v>
       </c>
       <c r="P93">
-        <f>(E93-N93)</f>
+        <f t="shared" si="15"/>
         <v>7.9146000000000001</v>
       </c>
       <c r="Q93">
-        <f>(O93-P93)</f>
+        <f t="shared" si="12"/>
         <v>5.9782000000000011</v>
       </c>
       <c r="S93">
-        <f>(Q93/P93)</f>
+        <f t="shared" si="13"/>
         <v>0.75533823566573177</v>
       </c>
     </row>
@@ -15479,19 +15234,19 @@
         <v>37.015000000000001</v>
       </c>
       <c r="O94">
-        <f>(H94-N94)</f>
+        <f t="shared" si="14"/>
         <v>9.8113000000000028</v>
       </c>
       <c r="P94">
-        <f>(E94-N94)</f>
+        <f t="shared" si="15"/>
         <v>5.0634000000000015</v>
       </c>
       <c r="Q94">
-        <f>(O94-P94)</f>
+        <f t="shared" si="12"/>
         <v>4.7479000000000013</v>
       </c>
       <c r="S94">
-        <f>(Q94/P94)</f>
+        <f t="shared" si="13"/>
         <v>0.93769008966307221</v>
       </c>
     </row>
@@ -15521,19 +15276,19 @@
         <v>36.956699999999998</v>
       </c>
       <c r="O95">
-        <f>(H95-N95)</f>
+        <f t="shared" si="14"/>
         <v>66.958300000000008</v>
       </c>
       <c r="P95">
-        <f>(E95-N95)</f>
+        <f t="shared" si="15"/>
         <v>34.918300000000002</v>
       </c>
       <c r="Q95">
-        <f>(O95-P95)</f>
+        <f t="shared" si="12"/>
         <v>32.040000000000006</v>
       </c>
       <c r="S95">
-        <f>(Q95/P95)</f>
+        <f t="shared" si="13"/>
         <v>0.91757044300553015</v>
       </c>
     </row>
@@ -15563,19 +15318,19 @@
         <v>37.198999999999998</v>
       </c>
       <c r="O96">
-        <f>(H96-N96)</f>
+        <f t="shared" si="14"/>
         <v>6.9879000000000033</v>
       </c>
       <c r="P96">
-        <f>(E96-N96)</f>
+        <f t="shared" si="15"/>
         <v>3.4220000000000041</v>
       </c>
       <c r="Q96">
-        <f>(O96-P96)</f>
+        <f t="shared" si="12"/>
         <v>3.5658999999999992</v>
       </c>
       <c r="S96">
-        <f>(Q96/P96)</f>
+        <f t="shared" si="13"/>
         <v>1.0420514319111616</v>
       </c>
     </row>
@@ -15605,19 +15360,19 @@
         <v>37.106099999999998</v>
       </c>
       <c r="O97">
-        <f>(H97-N97)</f>
+        <f t="shared" si="14"/>
         <v>60.719899999999996</v>
       </c>
       <c r="P97">
-        <f>(E97-N97)</f>
+        <f t="shared" si="15"/>
         <v>30.953900000000004</v>
       </c>
       <c r="Q97">
-        <f>(O97-P97)</f>
+        <f t="shared" si="12"/>
         <v>29.765999999999991</v>
       </c>
       <c r="S97">
-        <f>(Q97/P97)</f>
+        <f t="shared" si="13"/>
         <v>0.96162357570451495</v>
       </c>
     </row>
@@ -15647,19 +15402,19 @@
         <v>37.024999999999999</v>
       </c>
       <c r="O98">
-        <f>(H98-N98)</f>
+        <f t="shared" si="14"/>
         <v>4.5373000000000019</v>
       </c>
       <c r="P98">
-        <f>(E98-N98)</f>
+        <f t="shared" si="15"/>
         <v>3.1405999999999992</v>
       </c>
       <c r="Q98">
-        <f>(O98-P98)</f>
+        <f t="shared" ref="Q98:Q129" si="16">(O98-P98)</f>
         <v>1.3967000000000027</v>
       </c>
       <c r="S98">
-        <f>(Q98/P98)</f>
+        <f t="shared" ref="S98:S129" si="17">(Q98/P98)</f>
         <v>0.4447239381010008</v>
       </c>
     </row>
@@ -15689,19 +15444,19 @@
         <v>37.135599999999997</v>
       </c>
       <c r="O99">
-        <f>(H99-N99)</f>
+        <f t="shared" si="14"/>
         <v>5.0025000000000048</v>
       </c>
       <c r="P99">
-        <f>(E99-N99)</f>
+        <f t="shared" si="15"/>
         <v>3.0777000000000001</v>
       </c>
       <c r="Q99">
-        <f>(O99-P99)</f>
+        <f t="shared" si="16"/>
         <v>1.9248000000000047</v>
       </c>
       <c r="S99">
-        <f>(Q99/P99)</f>
+        <f t="shared" si="17"/>
         <v>0.62540208597329328</v>
       </c>
     </row>
@@ -15731,19 +15486,19 @@
         <v>36.976100000000002</v>
       </c>
       <c r="O100">
-        <f>(H100-N100)</f>
+        <f t="shared" si="14"/>
         <v>8.1861999999999995</v>
       </c>
       <c r="P100">
-        <f>(E100-N100)</f>
+        <f t="shared" si="15"/>
         <v>4.8125999999999962</v>
       </c>
       <c r="Q100">
-        <f>(O100-P100)</f>
+        <f t="shared" si="16"/>
         <v>3.3736000000000033</v>
       </c>
       <c r="S100">
-        <f>(Q100/P100)</f>
+        <f t="shared" si="17"/>
         <v>0.70099322611478321</v>
       </c>
     </row>
@@ -15773,19 +15528,19 @@
         <v>37.134</v>
       </c>
       <c r="O101">
-        <f>(H101-N101)</f>
+        <f t="shared" si="14"/>
         <v>4.4572999999999965</v>
       </c>
       <c r="P101">
-        <f>(E101-N101)</f>
+        <f t="shared" si="15"/>
         <v>2.8494000000000028</v>
       </c>
       <c r="Q101">
-        <f>(O101-P101)</f>
+        <f t="shared" si="16"/>
         <v>1.6078999999999937</v>
       </c>
       <c r="S101">
-        <f>(Q101/P101)</f>
+        <f t="shared" si="17"/>
         <v>0.56429423738330597</v>
       </c>
     </row>
@@ -15815,19 +15570,19 @@
         <v>37.035200000000003</v>
       </c>
       <c r="O102">
-        <f>(H102-N102)</f>
+        <f t="shared" si="14"/>
         <v>5.2817999999999969</v>
       </c>
       <c r="P102">
-        <f>(E102-N102)</f>
+        <f t="shared" si="15"/>
         <v>3.0686999999999998</v>
       </c>
       <c r="Q102">
-        <f>(O102-P102)</f>
+        <f t="shared" si="16"/>
         <v>2.2130999999999972</v>
       </c>
       <c r="S102">
-        <f>(Q102/P102)</f>
+        <f t="shared" si="17"/>
         <v>0.72118486655586966</v>
       </c>
     </row>
@@ -15857,19 +15612,19 @@
         <v>36.899799999999999</v>
       </c>
       <c r="O103">
-        <f>(H103-N103)</f>
+        <f t="shared" si="14"/>
         <v>6.9234000000000009</v>
       </c>
       <c r="P103">
-        <f>(E103-N103)</f>
+        <f t="shared" si="15"/>
         <v>3.8387999999999991</v>
       </c>
       <c r="Q103">
-        <f>(O103-P103)</f>
+        <f t="shared" si="16"/>
         <v>3.0846000000000018</v>
       </c>
       <c r="S103">
-        <f>(Q103/P103)</f>
+        <f t="shared" si="17"/>
         <v>0.80353235386058208</v>
       </c>
     </row>
@@ -15899,19 +15654,19 @@
         <v>37.101999999999997</v>
       </c>
       <c r="O104">
-        <f>(H104-N104)</f>
+        <f t="shared" si="14"/>
         <v>4.7244000000000028</v>
       </c>
       <c r="P104">
-        <f>(E104-N104)</f>
+        <f t="shared" si="15"/>
         <v>2.8198000000000008</v>
       </c>
       <c r="Q104">
-        <f>(O104-P104)</f>
+        <f t="shared" si="16"/>
         <v>1.9046000000000021</v>
       </c>
       <c r="S104">
-        <f>(Q104/P104)</f>
+        <f t="shared" si="17"/>
         <v>0.67543797432442076</v>
       </c>
     </row>
@@ -15941,19 +15696,19 @@
         <v>37.110399999999998</v>
       </c>
       <c r="O105">
-        <f>(H105-N105)</f>
+        <f t="shared" si="14"/>
         <v>8.6373000000000033</v>
       </c>
       <c r="P105">
-        <f>(E105-N105)</f>
+        <f t="shared" si="15"/>
         <v>4.9040999999999997</v>
       </c>
       <c r="Q105">
-        <f>(O105-P105)</f>
+        <f t="shared" si="16"/>
         <v>3.7332000000000036</v>
       </c>
       <c r="S105">
-        <f>(Q105/P105)</f>
+        <f t="shared" si="17"/>
         <v>0.76124059460451543</v>
       </c>
     </row>
@@ -15983,19 +15738,19 @@
         <v>36.97</v>
       </c>
       <c r="O106">
-        <f>(H106-N106)</f>
+        <f t="shared" si="14"/>
         <v>2.9442999999999984</v>
       </c>
       <c r="P106">
-        <f>(E106-N106)</f>
+        <f t="shared" si="15"/>
         <v>1.764400000000002</v>
       </c>
       <c r="Q106">
-        <f>(O106-P106)</f>
+        <f t="shared" si="16"/>
         <v>1.1798999999999964</v>
       </c>
       <c r="S106">
-        <f>(Q106/P106)</f>
+        <f t="shared" si="17"/>
         <v>0.66872591249149571</v>
       </c>
     </row>
@@ -16025,19 +15780,19 @@
         <v>37.058300000000003</v>
       </c>
       <c r="O107">
-        <f>(H107-N107)</f>
+        <f t="shared" si="14"/>
         <v>10.1492</v>
       </c>
       <c r="P107">
-        <f>(E107-N107)</f>
+        <f t="shared" si="15"/>
         <v>5.8194999999999979</v>
       </c>
       <c r="Q107">
-        <f>(O107-P107)</f>
+        <f t="shared" si="16"/>
         <v>4.3297000000000025</v>
       </c>
       <c r="S107">
-        <f>(Q107/P107)</f>
+        <f t="shared" si="17"/>
         <v>0.74399862531145355</v>
       </c>
     </row>
@@ -16067,19 +15822,19 @@
         <v>37.223999999999997</v>
       </c>
       <c r="O108">
-        <f>(H108-N108)</f>
+        <f t="shared" si="14"/>
         <v>2.7450000000000045</v>
       </c>
       <c r="P108">
-        <f>(E108-N108)</f>
+        <f t="shared" si="15"/>
         <v>1.4137000000000057</v>
       </c>
       <c r="Q108">
-        <f>(O108-P108)</f>
+        <f t="shared" si="16"/>
         <v>1.3312999999999988</v>
       </c>
       <c r="S108">
-        <f>(Q108/P108)</f>
+        <f t="shared" si="17"/>
         <v>0.94171323477399271</v>
       </c>
     </row>
@@ -16109,19 +15864,19 @@
         <v>37.128799999999998</v>
       </c>
       <c r="O109">
-        <f>(H109-N109)</f>
+        <f t="shared" si="14"/>
         <v>23.441200000000002</v>
       </c>
       <c r="P109">
-        <f>(E109-N109)</f>
+        <f t="shared" si="15"/>
         <v>12.672400000000003</v>
       </c>
       <c r="Q109">
-        <f>(O109-P109)</f>
+        <f t="shared" si="16"/>
         <v>10.768799999999999</v>
       </c>
       <c r="S109">
-        <f>(Q109/P109)</f>
+        <f t="shared" si="17"/>
         <v>0.84978378207758565</v>
       </c>
     </row>
@@ -16151,19 +15906,19 @@
         <v>37.210999999999999</v>
       </c>
       <c r="O110">
-        <f>(H110-N110)</f>
+        <f t="shared" si="14"/>
         <v>2.4278000000000048</v>
       </c>
       <c r="P110">
-        <f>(E110-N110)</f>
+        <f t="shared" si="15"/>
         <v>1.4600000000000009</v>
       </c>
       <c r="Q110">
-        <f>(O110-P110)</f>
+        <f t="shared" si="16"/>
         <v>0.96780000000000399</v>
       </c>
       <c r="S110">
-        <f>(Q110/P110)</f>
+        <f t="shared" si="17"/>
         <v>0.66287671232876944</v>
       </c>
     </row>
@@ -16193,19 +15948,19 @@
         <v>37.017899999999997</v>
       </c>
       <c r="O111">
-        <f>(H111-N111)</f>
+        <f t="shared" si="14"/>
         <v>7.8845000000000027</v>
       </c>
       <c r="P111">
-        <f>(E111-N111)</f>
+        <f t="shared" si="15"/>
         <v>4.4747000000000057</v>
       </c>
       <c r="Q111">
-        <f>(O111-P111)</f>
+        <f t="shared" si="16"/>
         <v>3.4097999999999971</v>
       </c>
       <c r="S111">
-        <f>(Q111/P111)</f>
+        <f t="shared" si="17"/>
         <v>0.76201756542337873</v>
       </c>
     </row>
@@ -16235,19 +15990,19 @@
         <v>37.131999999999998</v>
       </c>
       <c r="O112">
-        <f>(H112-N112)</f>
+        <f t="shared" si="14"/>
         <v>15.6967</v>
       </c>
       <c r="P112">
-        <f>(E112-N112)</f>
+        <f t="shared" si="15"/>
         <v>10.066800000000001</v>
       </c>
       <c r="Q112">
-        <f>(O112-P112)</f>
+        <f t="shared" si="16"/>
         <v>5.6298999999999992</v>
       </c>
       <c r="S112">
-        <f>(Q112/P112)</f>
+        <f t="shared" si="17"/>
         <v>0.55925418206381361</v>
       </c>
     </row>
@@ -16277,19 +16032,19 @@
         <v>36.990499999999997</v>
       </c>
       <c r="O113">
-        <f>(H113-N113)</f>
+        <f t="shared" si="14"/>
         <v>25.951500000000003</v>
       </c>
       <c r="P113">
-        <f>(E113-N113)</f>
+        <f t="shared" si="15"/>
         <v>14.973100000000002</v>
       </c>
       <c r="Q113">
-        <f>(O113-P113)</f>
+        <f t="shared" si="16"/>
         <v>10.978400000000001</v>
       </c>
       <c r="S113">
-        <f>(Q113/P113)</f>
+        <f t="shared" si="17"/>
         <v>0.73320822007466713</v>
       </c>
     </row>
@@ -16319,19 +16074,19 @@
         <v>37.005000000000003</v>
       </c>
       <c r="O114">
-        <f>(H114-N114)</f>
+        <f t="shared" si="14"/>
         <v>5.6175999999999959</v>
       </c>
       <c r="P114">
-        <f>(E114-N114)</f>
+        <f t="shared" si="15"/>
         <v>2.7937999999999974</v>
       </c>
       <c r="Q114">
-        <f>(O114-P114)</f>
+        <f t="shared" si="16"/>
         <v>2.8237999999999985</v>
       </c>
       <c r="S114">
-        <f>(Q114/P114)</f>
+        <f t="shared" si="17"/>
         <v>1.0107380628534617</v>
       </c>
     </row>
@@ -16361,19 +16116,19 @@
         <v>36.992600000000003</v>
       </c>
       <c r="O115">
-        <f>(H115-N115)</f>
+        <f t="shared" si="14"/>
         <v>55.372399999999992</v>
       </c>
       <c r="P115">
-        <f>(E115-N115)</f>
+        <f t="shared" si="15"/>
         <v>29.378399999999992</v>
       </c>
       <c r="Q115">
-        <f>(O115-P115)</f>
+        <f t="shared" si="16"/>
         <v>25.994</v>
       </c>
       <c r="S115">
-        <f>(Q115/P115)</f>
+        <f t="shared" si="17"/>
         <v>0.8847997167987367</v>
       </c>
     </row>
@@ -16403,19 +16158,19 @@
         <v>37.011899999999997</v>
       </c>
       <c r="O116">
-        <f>(H116-N116)</f>
+        <f t="shared" si="14"/>
         <v>8.3719999999999999</v>
       </c>
       <c r="P116">
-        <f>(E116-N116)</f>
+        <f t="shared" si="15"/>
         <v>5.0400000000000063</v>
       </c>
       <c r="Q116">
-        <f>(O116-P116)</f>
+        <f t="shared" si="16"/>
         <v>3.3319999999999936</v>
       </c>
       <c r="S116">
-        <f>(Q116/P116)</f>
+        <f t="shared" si="17"/>
         <v>0.66111111111110898</v>
       </c>
     </row>
@@ -16445,19 +16200,19 @@
         <v>37.069000000000003</v>
       </c>
       <c r="O117">
-        <f>(H117-N117)</f>
+        <f t="shared" si="14"/>
         <v>5.9919999999999973</v>
       </c>
       <c r="P117">
-        <f>(E117-N117)</f>
+        <f t="shared" si="15"/>
         <v>3.5564999999999998</v>
       </c>
       <c r="Q117">
-        <f>(O117-P117)</f>
+        <f t="shared" si="16"/>
         <v>2.4354999999999976</v>
       </c>
       <c r="S117">
-        <f>(Q117/P117)</f>
+        <f t="shared" si="17"/>
         <v>0.6848024743427521</v>
       </c>
     </row>
@@ -16487,19 +16242,19 @@
         <v>36.8932</v>
       </c>
       <c r="O118">
-        <f>(H118-N118)</f>
+        <f t="shared" si="14"/>
         <v>17.0105</v>
       </c>
       <c r="P118">
-        <f>(E118-N118)</f>
+        <f t="shared" si="15"/>
         <v>9.6546999999999983</v>
       </c>
       <c r="Q118">
-        <f>(O118-P118)</f>
+        <f t="shared" si="16"/>
         <v>7.3558000000000021</v>
       </c>
       <c r="S118">
-        <f>(Q118/P118)</f>
+        <f t="shared" si="17"/>
         <v>0.76188799237677018</v>
       </c>
     </row>
@@ -16529,19 +16284,19 @@
         <v>37.056399999999996</v>
       </c>
       <c r="O119">
-        <f>(H119-N119)</f>
+        <f t="shared" si="14"/>
         <v>7.2052000000000049</v>
       </c>
       <c r="P119">
-        <f>(E119-N119)</f>
+        <f t="shared" si="15"/>
         <v>4.3102000000000018</v>
       </c>
       <c r="Q119">
-        <f>(O119-P119)</f>
+        <f t="shared" si="16"/>
         <v>2.8950000000000031</v>
       </c>
       <c r="S119">
-        <f>(Q119/P119)</f>
+        <f t="shared" si="17"/>
         <v>0.67166256786228062</v>
       </c>
     </row>
@@ -16574,10 +16329,10 @@
         <v>16</v>
       </c>
       <c r="K120" t="s">
+        <v>112</v>
+      </c>
+      <c r="M120" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="M120" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="N120" s="17"/>
       <c r="O120">
@@ -16589,11 +16344,11 @@
         <v>2.3389999999999986</v>
       </c>
       <c r="Q120">
-        <f>(O120-P120)</f>
+        <f t="shared" si="16"/>
         <v>1.9579999999999984</v>
       </c>
       <c r="S120">
-        <f>(Q120/P120)</f>
+        <f t="shared" si="17"/>
         <v>0.837109876015391</v>
       </c>
     </row>
@@ -16620,7 +16375,7 @@
         <v>16</v>
       </c>
       <c r="M121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N121">
         <v>36.938000000000002</v>
@@ -16634,14 +16389,14 @@
         <v>8.8297600000000003</v>
       </c>
       <c r="Q121">
-        <f>(O121-P121)</f>
+        <f t="shared" si="16"/>
         <v>5.6582399999999993</v>
       </c>
       <c r="R121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S121">
-        <f>(Q121/P121)</f>
+        <f t="shared" si="17"/>
         <v>0.64081469938027746</v>
       </c>
     </row>
@@ -16679,11 +16434,11 @@
         <v>2.4579000000000022</v>
       </c>
       <c r="Q122">
-        <f>(O122-P122)</f>
+        <f t="shared" si="16"/>
         <v>1.3920999999999992</v>
       </c>
       <c r="S122">
-        <f>(Q122/P122)</f>
+        <f t="shared" si="17"/>
         <v>0.56637780218885958</v>
       </c>
     </row>
@@ -16721,11 +16476,11 @@
         <v>13.373200000000001</v>
       </c>
       <c r="Q123">
-        <f>(O123-P123)</f>
+        <f t="shared" si="16"/>
         <v>5.6993999999999971</v>
       </c>
       <c r="S123">
-        <f>(Q123/P123)</f>
+        <f t="shared" si="17"/>
         <v>0.42618071964825149</v>
       </c>
     </row>
@@ -16766,11 +16521,11 @@
         <v>2.1475999999999971</v>
       </c>
       <c r="Q124">
-        <f>(O124-P124)</f>
+        <f t="shared" si="16"/>
         <v>1.3481000000000023</v>
       </c>
       <c r="S124">
-        <f>(Q124/P124)</f>
+        <f t="shared" si="17"/>
         <v>0.62772397094431187</v>
       </c>
     </row>
@@ -16806,7 +16561,7 @@
         <v>54</v>
       </c>
       <c r="M125" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N125" s="17"/>
       <c r="O125">
@@ -16818,14 +16573,14 @@
         <v>8.5348199999999963</v>
       </c>
       <c r="Q125">
-        <f>(O125-P125)</f>
+        <f t="shared" si="16"/>
         <v>8.4181799999999996</v>
       </c>
       <c r="R125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S125">
-        <f>(Q125/P125)</f>
+        <f t="shared" si="17"/>
         <v>0.98633363093773541</v>
       </c>
     </row>
@@ -16855,19 +16610,19 @@
         <v>37.152200000000001</v>
       </c>
       <c r="O126">
-        <f>(H126-N126)</f>
+        <f t="shared" ref="O126:O141" si="18">(H126-N126)</f>
         <v>5.0268000000000015</v>
       </c>
       <c r="P126">
-        <f>(E126-N126)</f>
+        <f t="shared" ref="P126:P141" si="19">(E126-N126)</f>
         <v>2.8061999999999969</v>
       </c>
       <c r="Q126">
-        <f>(O126-P126)</f>
+        <f t="shared" si="16"/>
         <v>2.2206000000000046</v>
       </c>
       <c r="S126">
-        <f>(Q126/P126)</f>
+        <f t="shared" si="17"/>
         <v>0.79131922172332947</v>
       </c>
     </row>
@@ -16903,22 +16658,22 @@
         <v>37.064</v>
       </c>
       <c r="O127">
-        <f>(H127-N127)</f>
+        <f t="shared" si="18"/>
         <v>19.774000000000001</v>
       </c>
       <c r="P127">
-        <f>(E127-N127)</f>
+        <f t="shared" si="19"/>
         <v>11.006509999999999</v>
       </c>
       <c r="Q127">
-        <f>(O127-P127)</f>
+        <f t="shared" si="16"/>
         <v>8.7674900000000022</v>
       </c>
       <c r="R127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S127">
-        <f>(Q127/P127)</f>
+        <f t="shared" si="17"/>
         <v>0.79657311899957417</v>
       </c>
     </row>
@@ -16948,19 +16703,19 @@
         <v>37.091999999999999</v>
       </c>
       <c r="O128">
-        <f>(H128-N128)</f>
+        <f t="shared" si="18"/>
         <v>2.5320000000000036</v>
       </c>
       <c r="P128">
-        <f>(E128-N128)</f>
+        <f t="shared" si="19"/>
         <v>1.4804999999999993</v>
       </c>
       <c r="Q128">
-        <f>(O128-P128)</f>
+        <f t="shared" si="16"/>
         <v>1.0515000000000043</v>
       </c>
       <c r="S128">
-        <f>(Q128/P128)</f>
+        <f t="shared" si="17"/>
         <v>0.71023302938196886</v>
       </c>
     </row>
@@ -16990,19 +16745,19 @@
         <v>37.043900000000001</v>
       </c>
       <c r="O129">
-        <f>(H129-N129)</f>
+        <f t="shared" si="18"/>
         <v>13.033099999999997</v>
       </c>
       <c r="P129">
-        <f>(E129-N129)</f>
+        <f t="shared" si="19"/>
         <v>6.816200000000002</v>
       </c>
       <c r="Q129">
-        <f>(O129-P129)</f>
+        <f t="shared" si="16"/>
         <v>6.2168999999999954</v>
       </c>
       <c r="S129">
-        <f>(Q129/P129)</f>
+        <f t="shared" si="17"/>
         <v>0.91207711041342587</v>
       </c>
     </row>
@@ -17032,19 +16787,19 @@
         <v>36.911999999999999</v>
       </c>
       <c r="O130">
-        <f>(H130-N130)</f>
+        <f t="shared" si="18"/>
         <v>4.7150000000000034</v>
       </c>
       <c r="P130">
-        <f>(E130-N130)</f>
+        <f t="shared" si="19"/>
         <v>2.7801000000000045</v>
       </c>
       <c r="Q130">
-        <f>(O130-P130)</f>
+        <f t="shared" ref="Q130:Q161" si="20">(O130-P130)</f>
         <v>1.934899999999999</v>
       </c>
       <c r="S130">
-        <f>(Q130/P130)</f>
+        <f t="shared" ref="S130:S143" si="21">(Q130/P130)</f>
         <v>0.69598215891514548</v>
       </c>
     </row>
@@ -17074,19 +16829,19 @@
         <v>37.086199999999998</v>
       </c>
       <c r="O131">
-        <f>(H131-N131)</f>
+        <f t="shared" si="18"/>
         <v>20.4938</v>
       </c>
       <c r="P131">
-        <f>(E131-N131)</f>
+        <f t="shared" si="19"/>
         <v>11.160800000000002</v>
       </c>
       <c r="Q131">
-        <f>(O131-P131)</f>
+        <f t="shared" si="20"/>
         <v>9.3329999999999984</v>
       </c>
       <c r="S131">
-        <f>(Q131/P131)</f>
+        <f t="shared" si="21"/>
         <v>0.83623037775069864</v>
       </c>
     </row>
@@ -17119,19 +16874,19 @@
         <v>37.084000000000003</v>
       </c>
       <c r="O132">
-        <f>(H132-N132)</f>
+        <f t="shared" si="18"/>
         <v>7.4259999999999948</v>
       </c>
       <c r="P132">
-        <f>(E132-N132)</f>
+        <f t="shared" si="19"/>
         <v>4.4739999999999966</v>
       </c>
       <c r="Q132">
-        <f>(O132-P132)</f>
+        <f t="shared" si="20"/>
         <v>2.9519999999999982</v>
       </c>
       <c r="S132">
-        <f>(Q132/P132)</f>
+        <f t="shared" si="21"/>
         <v>0.65981224854716147</v>
       </c>
     </row>
@@ -17161,19 +16916,19 @@
         <v>37.222200000000001</v>
       </c>
       <c r="O133">
-        <f>(H133-N133)</f>
+        <f t="shared" si="18"/>
         <v>19.084800000000001</v>
       </c>
       <c r="P133">
-        <f>(E133-N133)</f>
+        <f t="shared" si="19"/>
         <v>9.873899999999999</v>
       </c>
       <c r="Q133">
-        <f>(O133-P133)</f>
+        <f t="shared" si="20"/>
         <v>9.2109000000000023</v>
       </c>
       <c r="S133">
-        <f>(Q133/P133)</f>
+        <f t="shared" si="21"/>
         <v>0.93285327985902255</v>
       </c>
     </row>
@@ -17203,19 +16958,19 @@
         <v>37.081000000000003</v>
       </c>
       <c r="O134">
-        <f>(H134-N134)</f>
+        <f t="shared" si="18"/>
         <v>6.4959999999999951</v>
       </c>
       <c r="P134">
-        <f>(E134-N134)</f>
+        <f t="shared" si="19"/>
         <v>3.9873999999999938</v>
       </c>
       <c r="Q134">
-        <f>(O134-P134)</f>
+        <f t="shared" si="20"/>
         <v>2.5086000000000013</v>
       </c>
       <c r="S134">
-        <f>(Q134/P134)</f>
+        <f t="shared" si="21"/>
         <v>0.62913176505994006</v>
       </c>
     </row>
@@ -17245,19 +17000,19 @@
         <v>36.946899999999999</v>
       </c>
       <c r="O135">
-        <f>(H135-N135)</f>
+        <f t="shared" si="18"/>
         <v>37.899100000000004</v>
       </c>
       <c r="P135">
-        <f>(E135-N135)</f>
+        <f t="shared" si="19"/>
         <v>20.142400000000002</v>
       </c>
       <c r="Q135">
-        <f>(O135-P135)</f>
+        <f t="shared" si="20"/>
         <v>17.756700000000002</v>
       </c>
       <c r="S135">
-        <f>(Q135/P135)</f>
+        <f t="shared" si="21"/>
         <v>0.8815583048693304</v>
       </c>
     </row>
@@ -17287,19 +17042,19 @@
         <v>37.085999999999999</v>
       </c>
       <c r="O136">
-        <f>(H136-N136)</f>
+        <f t="shared" si="18"/>
         <v>6.9909999999999997</v>
       </c>
       <c r="P136">
-        <f>(E136-N136)</f>
+        <f t="shared" si="19"/>
         <v>4.2635000000000005</v>
       </c>
       <c r="Q136">
-        <f>(O136-P136)</f>
+        <f t="shared" si="20"/>
         <v>2.7274999999999991</v>
       </c>
       <c r="S136">
-        <f>(Q136/P136)</f>
+        <f t="shared" si="21"/>
         <v>0.63973261404948956</v>
       </c>
     </row>
@@ -17329,19 +17084,19 @@
         <v>37.059199999999997</v>
       </c>
       <c r="O137">
-        <f>(H137-N137)</f>
+        <f t="shared" si="18"/>
         <v>15.778800000000004</v>
       </c>
       <c r="P137">
-        <f>(E137-N137)</f>
+        <f t="shared" si="19"/>
         <v>8.3870000000000005</v>
       </c>
       <c r="Q137">
-        <f>(O137-P137)</f>
+        <f t="shared" si="20"/>
         <v>7.3918000000000035</v>
       </c>
       <c r="S137">
-        <f>(Q137/P137)</f>
+        <f t="shared" si="21"/>
         <v>0.8813401693096462</v>
       </c>
     </row>
@@ -17371,19 +17126,19 @@
         <v>36.923000000000002</v>
       </c>
       <c r="O138">
-        <f>(H138-N138)</f>
+        <f t="shared" si="18"/>
         <v>6.0420000000000016</v>
       </c>
       <c r="P138">
-        <f>(E138-N138)</f>
+        <f t="shared" si="19"/>
         <v>3.6137999999999977</v>
       </c>
       <c r="Q138">
-        <f>(O138-P138)</f>
+        <f t="shared" si="20"/>
         <v>2.4282000000000039</v>
       </c>
       <c r="S138">
-        <f>(Q138/P138)</f>
+        <f t="shared" si="21"/>
         <v>0.67192429022082167</v>
       </c>
     </row>
@@ -17419,22 +17174,22 @@
         <v>37.030999999999999</v>
       </c>
       <c r="O139">
-        <f>(H139-N139)</f>
+        <f t="shared" si="18"/>
         <v>25.122</v>
       </c>
       <c r="P139">
-        <f>(E139-N139)</f>
+        <f t="shared" si="19"/>
         <v>12.805530000000005</v>
       </c>
       <c r="Q139">
-        <f>(O139-P139)</f>
+        <f t="shared" si="20"/>
         <v>12.316469999999995</v>
       </c>
       <c r="R139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S139">
-        <f>(Q139/P139)</f>
+        <f t="shared" si="21"/>
         <v>0.9618086873405467</v>
       </c>
     </row>
@@ -17464,19 +17219,19 @@
         <v>36.9848</v>
       </c>
       <c r="O140">
-        <f>(H140-N140)</f>
+        <f t="shared" si="18"/>
         <v>2.2931999999999988</v>
       </c>
       <c r="P140">
-        <f>(E140-N140)</f>
+        <f t="shared" si="19"/>
         <v>1.1328000000000031</v>
       </c>
       <c r="Q140">
-        <f>(O140-P140)</f>
+        <f t="shared" si="20"/>
         <v>1.1603999999999957</v>
       </c>
       <c r="S140">
-        <f>(Q140/P140)</f>
+        <f t="shared" si="21"/>
         <v>1.0243644067796542</v>
       </c>
     </row>
@@ -17506,19 +17261,19 @@
         <v>37.0259</v>
       </c>
       <c r="O141">
-        <f>(H141-N141)</f>
+        <f t="shared" si="18"/>
         <v>17.4041</v>
       </c>
       <c r="P141">
-        <f>(E141-N141)</f>
+        <f t="shared" si="19"/>
         <v>8.2475000000000023</v>
       </c>
       <c r="Q141">
-        <f>(O141-P141)</f>
+        <f t="shared" si="20"/>
         <v>9.1565999999999974</v>
       </c>
       <c r="S141">
-        <f>(Q141/P141)</f>
+        <f t="shared" si="21"/>
         <v>1.1102273416186716</v>
       </c>
     </row>
@@ -17554,10 +17309,10 @@
         <v>16</v>
       </c>
       <c r="K142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M142" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N142" s="17"/>
       <c r="O142">
@@ -17569,14 +17324,14 @@
         <v>1.6618500000000012</v>
       </c>
       <c r="Q142">
-        <f>(O142-P142)</f>
+        <f t="shared" si="20"/>
         <v>1.7111499999999964</v>
       </c>
       <c r="R142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S142">
-        <f>(Q142/P142)</f>
+        <f t="shared" si="21"/>
         <v>1.0296657339711739</v>
       </c>
     </row>
@@ -17623,14 +17378,14 @@
         <v>7.7490999999999985</v>
       </c>
       <c r="Q143">
-        <f>(O143-P143)</f>
+        <f t="shared" si="20"/>
         <v>7.6779000000000011</v>
       </c>
       <c r="R143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S143">
-        <f>(Q143/P143)</f>
+        <f t="shared" si="21"/>
         <v>0.99081183621323798</v>
       </c>
     </row>
@@ -17647,8 +17402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5750438-5322-5A46-95A8-63380D05FED0}">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17709,10 +17464,10 @@
         <v>101</v>
       </c>
       <c r="R1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" t="s">
         <v>118</v>
-      </c>
-      <c r="S1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -18612,7 +18367,7 @@
         <v>19</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N25">
         <v>37.139299999999999</v>
@@ -18627,7 +18382,7 @@
         <v>11.232199999999999</v>
       </c>
       <c r="R25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S25">
         <v>1.3190300041101515</v>
@@ -18665,7 +18420,7 @@
         <v>103</v>
       </c>
       <c r="M26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O26">
         <v>4.3669999999999973</v>
@@ -18797,7 +18552,7 @@
         <v>7.3921400000000048</v>
       </c>
       <c r="R29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S29">
         <v>1.0853460502785268</v>
@@ -18826,7 +18581,7 @@
         <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N30">
         <v>37.225000000000001</v>
@@ -18841,7 +18596,7 @@
         <v>1.2708799999999982</v>
       </c>
       <c r="R30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S30">
         <v>1.0945294198704714</v>
@@ -18888,7 +18643,7 @@
         <v>18.835900000000002</v>
       </c>
       <c r="R31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S31">
         <v>1.2816065754468564</v>
@@ -18993,7 +18748,7 @@
         <v>19</v>
       </c>
       <c r="M34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N34">
         <v>37.161999999999999</v>
@@ -19008,7 +18763,7 @@
         <v>6.2935099999999977</v>
       </c>
       <c r="R34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S34">
         <v>0.613672286745928</v>
@@ -19046,7 +18801,7 @@
         <v>102</v>
       </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35">
         <v>9.7550000000000026</v>
@@ -19058,7 +18813,7 @@
         <v>3.1933999999999969</v>
       </c>
       <c r="R35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S35">
         <v>0.48668007802974794</v>
@@ -19397,7 +19152,7 @@
         <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O44">
         <v>20.128999999999998</v>
@@ -19409,7 +19164,7 @@
         <v>9.2078699999999998</v>
       </c>
       <c r="R44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S44">
         <v>0.84312429208332851</v>
@@ -19552,7 +19307,7 @@
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N48">
         <v>37.145000000000003</v>
@@ -19748,7 +19503,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N53">
         <v>37.168500000000002</v>
@@ -19830,7 +19585,7 @@
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N55">
         <v>37.057000000000002</v>
@@ -19874,7 +19629,7 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N56">
         <v>37.073500000000003</v>
@@ -19918,7 +19673,7 @@
         <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N57">
         <v>37.155999999999999</v>
@@ -20000,7 +19755,7 @@
         <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N59">
         <v>37.072499999999998</v>
@@ -20082,7 +19837,7 @@
         <v>19</v>
       </c>
       <c r="K61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N61">
         <v>37.067</v>
@@ -20164,7 +19919,7 @@
         <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N63">
         <v>37.087500000000006</v>
@@ -20261,7 +20016,7 @@
         <v>19.219620000000006</v>
       </c>
       <c r="R65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S65">
         <v>1.3286633327295931</v>
@@ -20290,7 +20045,7 @@
         <v>19</v>
       </c>
       <c r="M66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N66">
         <v>37.015000000000001</v>
@@ -20305,7 +20060,7 @@
         <v>3.4490900000000053</v>
       </c>
       <c r="R66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S66">
         <v>1.2018112066232072</v>
@@ -20533,10 +20288,10 @@
         <v>16</v>
       </c>
       <c r="K72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O72">
         <v>7.0970000000000013</v>
@@ -20548,7 +20303,7 @@
         <v>2.5804000000000045</v>
       </c>
       <c r="R72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S72">
         <v>0.57131470575211585</v>
@@ -20703,7 +20458,7 @@
         <v>56</v>
       </c>
       <c r="M76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O76">
         <v>6.9720000000000013</v>
@@ -20715,7 +20470,7 @@
         <v>2.6617200000000025</v>
       </c>
       <c r="R76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S76">
         <v>0.61752832762604826</v>
@@ -21224,7 +20979,7 @@
         <v>29.7834</v>
       </c>
       <c r="R89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S89">
         <v>0.92301255748800626</v>
@@ -22393,7 +22148,7 @@
         <v>16</v>
       </c>
       <c r="M120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N120">
         <v>36.938000000000002</v>
@@ -22408,7 +22163,7 @@
         <v>5.6582399999999993</v>
       </c>
       <c r="R120" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S120">
         <v>0.64081469938027746</v>
@@ -22443,10 +22198,10 @@
         <v>16</v>
       </c>
       <c r="K121" t="s">
+        <v>112</v>
+      </c>
+      <c r="M121" t="s">
         <v>113</v>
-      </c>
-      <c r="M121" t="s">
-        <v>114</v>
       </c>
       <c r="O121">
         <v>4.296999999999997</v>
@@ -22569,7 +22324,7 @@
         <v>54</v>
       </c>
       <c r="M124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O124">
         <v>16.952999999999996</v>
@@ -22581,7 +22336,7 @@
         <v>8.4181799999999996</v>
       </c>
       <c r="R124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S124">
         <v>0.98633363093773541</v>
@@ -22669,7 +22424,7 @@
         <v>8.7674900000000022</v>
       </c>
       <c r="R126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S126">
         <v>0.79657311899957417</v>
@@ -23137,7 +22892,7 @@
         <v>12.316469999999995</v>
       </c>
       <c r="R138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S138">
         <v>0.9618086873405467</v>
@@ -23301,7 +23056,7 @@
         <v>7.6779000000000011</v>
       </c>
       <c r="R142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S142">
         <v>0.99081183621323798</v>
@@ -23339,10 +23094,10 @@
         <v>16</v>
       </c>
       <c r="K143" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M143" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O143">
         <v>3.3729999999999976</v>
@@ -23354,7 +23109,7 @@
         <v>1.7111499999999964</v>
       </c>
       <c r="R143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S143">
         <v>1.0296657339711739</v>

--- a/2021/LFM_WP_Fall2021/PWD_Oct2021_LFM_WP_Calcs.xlsx
+++ b/2021/LFM_WP_Fall2021/PWD_Oct2021_LFM_WP_Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/GitHub/PepperwoodVegPlots/2021/LFM_WP_Fall2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B17268-52C7-2247-B834-01BA52DD0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7067B1-4F49-7E48-BD19-26046547781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15480" activeTab="4" xr2:uid="{05CBDBC3-C58E-254F-9CCB-F423A62E9A36}"/>
+    <workbookView xWindow="12280" yWindow="1940" windowWidth="28240" windowHeight="15480" activeTab="4" xr2:uid="{05CBDBC3-C58E-254F-9CCB-F423A62E9A36}"/>
   </bookViews>
   <sheets>
     <sheet name="WP_clean" sheetId="2" r:id="rId1"/>
@@ -841,9 +841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB63F9D-A779-474A-9790-68A1B1C3510F}">
   <dimension ref="A1:AC154"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,60 +939,58 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2">
-        <v>57.6</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>10704</v>
+        <v>10715</v>
       </c>
       <c r="F2">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G2" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11">
         <f>AVERAGE(I2:M2)</f>
-        <v>4.6499999999999995</v>
+        <v>4.3833333333333337</v>
       </c>
       <c r="I2">
-        <v>4.55</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J2">
-        <v>4.95</v>
+        <v>4.2</v>
       </c>
       <c r="K2">
-        <v>4.45</v>
-      </c>
+        <v>4.3</v>
+      </c>
+      <c r="O2" s="8"/>
       <c r="Q2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="S2">
-        <v>10704</v>
+        <v>10715</v>
       </c>
       <c r="T2">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="U2" t="s">
         <v>39</v>
       </c>
       <c r="V2" s="11">
         <f>AVERAGE(W2:AA2)</f>
-        <v>3.125</v>
+        <v>3.1</v>
       </c>
       <c r="W2">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="X2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1000,12 +998,12 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3">
-        <v>10713</v>
+        <v>10717</v>
       </c>
       <c r="F3">
         <v>20211009</v>
@@ -1014,28 +1012,29 @@
         <v>74</v>
       </c>
       <c r="H3" s="11">
-        <f t="shared" ref="H3:H66" si="0">AVERAGE(I3:M3)</f>
-        <v>3</v>
+        <f>AVERAGE(I3:M3)</f>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="J3">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
+      <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="s">
         <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S3">
-        <v>10713</v>
+        <v>10717</v>
       </c>
       <c r="T3">
         <v>20211009</v>
@@ -1044,17 +1043,17 @@
         <v>39</v>
       </c>
       <c r="V3" s="11">
-        <f t="shared" ref="V3:V66" si="1">AVERAGE(W3:AA3)</f>
-        <v>1.3500000000000003</v>
+        <f>AVERAGE(W3:AA3)</f>
+        <v>1.6166666666666665</v>
       </c>
       <c r="W3">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="X3">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Y3">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -1066,12 +1065,12 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4">
-        <v>10714</v>
+        <v>10720</v>
       </c>
       <c r="F4">
         <v>20211009</v>
@@ -1080,28 +1079,29 @@
         <v>74</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" si="0"/>
-        <v>3.5249999999999999</v>
+        <f>AVERAGE(I4:M4)</f>
+        <v>2.9750000000000001</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="J4">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
+      <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="s">
         <v>47</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="S4">
-        <v>10714</v>
+        <v>10720</v>
       </c>
       <c r="T4">
         <v>20211009</v>
@@ -1110,14 +1110,14 @@
         <v>39</v>
       </c>
       <c r="V4" s="11">
-        <f t="shared" si="1"/>
-        <v>1.9750000000000001</v>
+        <f>AVERAGE(W4:AA4)</f>
+        <v>1.7</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="Y4"/>
       <c r="Z4"/>
@@ -1135,7 +1135,7 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5">
-        <v>10715</v>
+        <v>10721</v>
       </c>
       <c r="F5">
         <v>20211009</v>
@@ -1144,21 +1144,20 @@
         <v>74</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" si="0"/>
-        <v>4.3833333333333337</v>
+        <f>AVERAGE(I5:M5)</f>
+        <v>3.25</v>
       </c>
       <c r="I5">
-        <v>4.6500000000000004</v>
+        <v>3.25</v>
       </c>
       <c r="J5">
-        <v>4.2</v>
-      </c>
-      <c r="K5">
-        <v>4.3</v>
-      </c>
+        <v>3.25</v>
+      </c>
+      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
+      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" t="s">
         <v>47</v>
@@ -1167,7 +1166,7 @@
         <v>42</v>
       </c>
       <c r="S5">
-        <v>10715</v>
+        <v>10721</v>
       </c>
       <c r="T5">
         <v>20211009</v>
@@ -1176,133 +1175,129 @@
         <v>39</v>
       </c>
       <c r="V5" s="11">
-        <f t="shared" si="1"/>
-        <v>3.1</v>
+        <f>AVERAGE(W5:AA5)</f>
+        <v>2.04</v>
       </c>
       <c r="W5">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
-        <v>3.1</v>
-      </c>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
+        <v>2.35</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>1.6</v>
+      </c>
+      <c r="AA5">
+        <v>1.75</v>
+      </c>
       <c r="AB5"/>
       <c r="AC5"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>10716</v>
+        <v>10729</v>
       </c>
       <c r="F6">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G6" t="s">
         <v>74</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="0"/>
-        <v>3.7333333333333329</v>
+        <f>AVERAGE(I6:M6)</f>
+        <v>5.4249999999999998</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="J6">
-        <v>3.35</v>
-      </c>
-      <c r="K6">
-        <v>4.55</v>
+        <v>5.55</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="S6">
-        <v>10716</v>
+        <v>10729</v>
       </c>
       <c r="T6">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U6" t="s">
         <v>39</v>
       </c>
       <c r="V6" s="11">
-        <f t="shared" si="1"/>
-        <v>2.3666666666666667</v>
+        <f>AVERAGE(W6:AA6)</f>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>2.2999999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="X6">
-        <v>2.4</v>
-      </c>
-      <c r="Y6">
-        <v>2.4</v>
-      </c>
-      <c r="AC6" s="8"/>
+        <v>1.85</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="E7">
-        <v>10717</v>
+        <v>10730</v>
       </c>
       <c r="F7">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G7" t="s">
         <v>74</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="0"/>
-        <v>3.7</v>
+        <f>AVERAGE(I7:M7)</f>
+        <v>4.9499999999999993</v>
       </c>
       <c r="I7">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="J7">
-        <v>3.65</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="R7" t="s">
         <v>42</v>
       </c>
       <c r="S7">
-        <v>10717</v>
+        <v>10730</v>
       </c>
       <c r="T7">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U7" t="s">
         <v>39</v>
       </c>
       <c r="V7" s="11">
-        <f t="shared" si="1"/>
-        <v>1.6166666666666665</v>
+        <f>AVERAGE(W7:AA7)</f>
+        <v>2.3499999999999996</v>
       </c>
       <c r="W7">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="X7">
-        <v>1.55</v>
-      </c>
-      <c r="Y7">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -1310,10 +1305,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>10718</v>
+        <v>10993</v>
       </c>
       <c r="F8">
         <v>20211009</v>
@@ -1322,23 +1317,23 @@
         <v>74</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
+        <f>AVERAGE(I8:M8)</f>
+        <v>4.5250000000000004</v>
       </c>
       <c r="I8">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="J8">
-        <v>2.7</v>
+        <v>4.55</v>
       </c>
       <c r="Q8" t="s">
         <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="S8">
-        <v>10718</v>
+        <v>10993</v>
       </c>
       <c r="T8">
         <v>20211009</v>
@@ -1347,14 +1342,17 @@
         <v>39</v>
       </c>
       <c r="V8" s="11">
-        <f t="shared" si="1"/>
-        <v>1.85</v>
+        <f>AVERAGE(W8:AA8)</f>
+        <v>3.3666666666666667</v>
       </c>
       <c r="W8">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="X8">
-        <v>1.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="Y8">
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -1362,10 +1360,10 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>10719</v>
+        <v>10996</v>
       </c>
       <c r="F9">
         <v>20211009</v>
@@ -1374,23 +1372,26 @@
         <v>74</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="0"/>
-        <v>2.375</v>
+        <f>AVERAGE(I9:M9)</f>
+        <v>3.4500000000000006</v>
       </c>
       <c r="I9">
-        <v>2.4</v>
+        <v>3.35</v>
       </c>
       <c r="J9">
-        <v>2.35</v>
+        <v>3.55</v>
+      </c>
+      <c r="K9">
+        <v>3.45</v>
       </c>
       <c r="Q9" t="s">
         <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="S9">
-        <v>10719</v>
+        <v>10996</v>
       </c>
       <c r="T9">
         <v>20211009</v>
@@ -1399,28 +1400,31 @@
         <v>39</v>
       </c>
       <c r="V9" s="11">
-        <f t="shared" si="1"/>
-        <v>1.3499999999999999</v>
+        <f>AVERAGE(W9:AA9)</f>
+        <v>2.4833333333333334</v>
       </c>
       <c r="W9">
-        <v>1.45</v>
+        <v>2.65</v>
       </c>
       <c r="X9">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>10720</v>
+        <v>10974</v>
       </c>
       <c r="F10">
         <v>20211009</v>
@@ -1429,23 +1433,26 @@
         <v>74</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9750000000000001</v>
+        <f>AVERAGE(I10:M10)</f>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K10">
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="S10">
-        <v>10720</v>
+        <v>10974</v>
       </c>
       <c r="T10">
         <v>20211009</v>
@@ -1454,25 +1461,31 @@
         <v>39</v>
       </c>
       <c r="V10" s="11">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
+        <f>AVERAGE(W10:AA10)</f>
+        <v>0.65</v>
       </c>
       <c r="W10">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="X10">
-        <v>1.7</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y10">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>58.1</v>
       </c>
       <c r="E11">
-        <v>10721</v>
+        <v>10975</v>
       </c>
       <c r="F11">
         <v>20211009</v>
@@ -1481,142 +1494,136 @@
         <v>74</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
+        <f>AVERAGE(I11:M11)</f>
+        <v>2.875</v>
       </c>
       <c r="I11">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="J11">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="R11" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="S11">
-        <v>10721</v>
+        <v>10975</v>
       </c>
       <c r="T11">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U11" t="s">
         <v>39</v>
       </c>
       <c r="V11" s="11">
-        <f t="shared" si="1"/>
-        <v>2.04</v>
+        <f>AVERAGE(W11:AA11)</f>
+        <v>1.635</v>
       </c>
       <c r="W11">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="X11">
-        <v>2.35</v>
-      </c>
-      <c r="Y11">
-        <v>2</v>
-      </c>
-      <c r="Z11">
-        <v>1.6</v>
-      </c>
-      <c r="AA11">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>42.4</v>
+        <v>53.9</v>
       </c>
       <c r="E12">
-        <v>10722</v>
+        <v>10976</v>
       </c>
       <c r="F12">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G12" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
+        <f>AVERAGE(I12:M12)</f>
+        <v>2.8333333333333335</v>
       </c>
       <c r="I12">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="J12">
-        <v>3.55</v>
+        <v>2.7</v>
+      </c>
+      <c r="K12">
+        <v>2.75</v>
       </c>
       <c r="Q12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="S12">
-        <v>10722</v>
+        <v>10976</v>
       </c>
       <c r="T12">
-        <v>20201010</v>
+        <v>20211010</v>
       </c>
       <c r="U12" t="s">
         <v>39</v>
       </c>
       <c r="V12" s="11">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>AVERAGE(W12:AA12)</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="W12">
-        <v>2.9</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="X12">
-        <v>3.1</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
       </c>
       <c r="E13">
-        <v>10723</v>
+        <v>10977</v>
       </c>
       <c r="F13">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G13" t="s">
         <v>74</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>AVERAGE(I13:M13)</f>
+        <v>1.9750000000000001</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="J13">
-        <v>7</v>
-      </c>
-      <c r="N13" t="s">
-        <v>93</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="S13">
-        <v>10723</v>
+        <v>10977</v>
       </c>
       <c r="T13">
         <v>20211010</v>
@@ -1625,135 +1632,162 @@
         <v>39</v>
       </c>
       <c r="V13" s="11">
-        <f t="shared" si="1"/>
-        <v>6.85</v>
+        <f>AVERAGE(W13:AA13)</f>
+        <v>0.67999999999999994</v>
       </c>
       <c r="W13">
-        <v>7</v>
+        <v>0.64</v>
       </c>
       <c r="X13">
-        <v>6.7</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>91</v>
+        <v>0.76</v>
+      </c>
+      <c r="Y13">
+        <v>0.6</v>
+      </c>
+      <c r="Z13">
+        <v>0.72</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>10724</v>
-      </c>
-      <c r="F14">
-        <v>20211010</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="A14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>17</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>10985</v>
+      </c>
+      <c r="F14" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>4.2249999999999996</v>
-      </c>
-      <c r="I14">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="J14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14">
-        <v>10724</v>
-      </c>
-      <c r="T14">
-        <v>20211010</v>
-      </c>
-      <c r="U14" t="s">
+        <f>AVERAGE(I14:M14)</f>
+        <v>2.625</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K14" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="10">
+        <v>10985</v>
+      </c>
+      <c r="T14" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>39</v>
       </c>
       <c r="V14" s="11">
-        <f t="shared" si="1"/>
-        <v>2.95</v>
-      </c>
-      <c r="W14">
-        <v>2.95</v>
-      </c>
-      <c r="X14">
-        <v>2.95</v>
-      </c>
+        <f>AVERAGE(W14:AA14)</f>
+        <v>1.175</v>
+      </c>
+      <c r="W14" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X14" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="10">
+        <v>30.1</v>
       </c>
       <c r="E15">
-        <v>10725</v>
+        <v>10986</v>
       </c>
       <c r="F15">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="0"/>
-        <v>6.1000000000000005</v>
+        <f>AVERAGE(I15:M15)</f>
+        <v>5.5500000000000007</v>
       </c>
       <c r="I15">
-        <v>6.65</v>
+        <v>5.65</v>
       </c>
       <c r="J15">
-        <v>5.85</v>
-      </c>
-      <c r="K15">
-        <v>5.8</v>
-      </c>
-      <c r="Q15" t="s">
+        <v>5.45</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="10">
+        <v>10986</v>
+      </c>
+      <c r="T15" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" s="11">
+        <f>AVERAGE(W15:AA15)</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="W15" s="10">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="X15" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y15" s="10">
         <v>6</v>
       </c>
-      <c r="R15" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15">
-        <v>10725</v>
-      </c>
-      <c r="T15">
-        <v>20211010</v>
-      </c>
-      <c r="U15" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="11">
-        <f t="shared" si="1"/>
-        <v>3.625</v>
-      </c>
-      <c r="W15">
-        <v>3.5</v>
-      </c>
-      <c r="X15">
-        <v>3.75</v>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>10726</v>
+      <c r="A16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F16">
         <v>20211010</v>
@@ -1764,41 +1798,44 @@
       <c r="I16" t="s">
         <v>87</v>
       </c>
-      <c r="Q16" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16">
-        <v>10726</v>
+      <c r="Q16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="T16">
-        <v>20211010</v>
-      </c>
-      <c r="U16" t="s">
+        <v>20201010</v>
+      </c>
+      <c r="U16" s="8" t="s">
         <v>39</v>
       </c>
       <c r="V16" s="11">
-        <f t="shared" si="1"/>
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="W16">
-        <v>3.65</v>
-      </c>
-      <c r="X16">
-        <v>3.5</v>
+        <f>AVERAGE(W16:AA16)</f>
+        <v>1.6</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="X16" s="8">
+        <v>1.6</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>10727</v>
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
       </c>
       <c r="F17">
         <v>20211010</v>
@@ -1806,44 +1843,60 @@
       <c r="G17" t="s">
         <v>74</v>
       </c>
-      <c r="I17" t="s">
-        <v>87</v>
+      <c r="H17" s="11">
+        <f>AVERAGE(I17:M17)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I17">
+        <v>2.9</v>
+      </c>
+      <c r="J17">
+        <v>1.45</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>2.4500000000000002</v>
       </c>
       <c r="Q17" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="R17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17">
-        <v>10727</v>
+        <v>43</v>
+      </c>
+      <c r="S17" t="s">
+        <v>81</v>
       </c>
       <c r="T17">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="U17" t="s">
         <v>39</v>
       </c>
       <c r="V17" s="11">
-        <f t="shared" si="1"/>
-        <v>3.2249999999999996</v>
+        <f>AVERAGE(W17:AA17)</f>
+        <v>1.375</v>
       </c>
       <c r="W17">
-        <v>3.05</v>
+        <v>1.35</v>
       </c>
       <c r="X17">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>10728</v>
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
       </c>
       <c r="F18">
         <v>20211010</v>
@@ -1851,33 +1904,46 @@
       <c r="G18" t="s">
         <v>74</v>
       </c>
-      <c r="I18" t="s">
-        <v>87</v>
+      <c r="H18" s="11">
+        <f>AVERAGE(I18:M18)</f>
+        <v>2.6625000000000001</v>
+      </c>
+      <c r="I18">
+        <v>3.85</v>
+      </c>
+      <c r="J18">
+        <v>1.85</v>
+      </c>
+      <c r="K18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L18">
+        <v>2.9</v>
       </c>
       <c r="Q18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R18" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18">
-        <v>10728</v>
+        <v>43</v>
+      </c>
+      <c r="S18" t="s">
+        <v>80</v>
       </c>
       <c r="T18">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="U18" t="s">
         <v>39</v>
       </c>
       <c r="V18" s="11">
-        <f t="shared" si="1"/>
-        <v>4.2249999999999996</v>
+        <f>AVERAGE(W18:AA18)</f>
+        <v>1.8</v>
       </c>
       <c r="W18">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="X18">
-        <v>3.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -1885,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>10729</v>
+        <v>10723</v>
       </c>
       <c r="F19">
         <v>20211010</v>
@@ -1897,23 +1963,26 @@
         <v>74</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="0"/>
-        <v>5.4249999999999998</v>
+        <f>AVERAGE(I19:M19)</f>
+        <v>7</v>
       </c>
       <c r="I19">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>5.55</v>
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>93</v>
       </c>
       <c r="Q19" t="s">
         <v>6</v>
       </c>
       <c r="R19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S19">
-        <v>10729</v>
+        <v>10723</v>
       </c>
       <c r="T19">
         <v>20211010</v>
@@ -1922,14 +1991,17 @@
         <v>39</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
+        <f>AVERAGE(W19:AA19)</f>
+        <v>6.85</v>
       </c>
       <c r="W19">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="X19">
-        <v>1.85</v>
+        <v>6.7</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -1937,10 +2009,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E20">
-        <v>10730</v>
+        <v>10725</v>
       </c>
       <c r="F20">
         <v>20211010</v>
@@ -1949,23 +2021,26 @@
         <v>74</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="0"/>
-        <v>4.9499999999999993</v>
+        <f>AVERAGE(I20:M20)</f>
+        <v>6.1000000000000005</v>
       </c>
       <c r="I20">
-        <v>4.8</v>
+        <v>6.65</v>
       </c>
       <c r="J20">
-        <v>5.0999999999999996</v>
+        <v>5.85</v>
+      </c>
+      <c r="K20">
+        <v>5.8</v>
       </c>
       <c r="Q20" t="s">
         <v>6</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S20">
-        <v>10730</v>
+        <v>10725</v>
       </c>
       <c r="T20">
         <v>20211010</v>
@@ -1974,14 +2049,14 @@
         <v>39</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="1"/>
-        <v>2.3499999999999996</v>
+        <f>AVERAGE(W20:AA20)</f>
+        <v>3.625</v>
       </c>
       <c r="W20">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="X20">
-        <v>2.2999999999999998</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -1992,7 +2067,7 @@
         <v>40</v>
       </c>
       <c r="E21">
-        <v>10731</v>
+        <v>10732</v>
       </c>
       <c r="F21">
         <v>20211010</v>
@@ -2001,14 +2076,14 @@
         <v>74</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="0"/>
-        <v>3.2750000000000004</v>
+        <f>AVERAGE(I21:M21)</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="I21">
-        <v>3.35</v>
+        <v>4.45</v>
       </c>
       <c r="J21">
-        <v>3.2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="Q21" t="s">
         <v>6</v>
@@ -2017,7 +2092,7 @@
         <v>40</v>
       </c>
       <c r="S21">
-        <v>10731</v>
+        <v>10732</v>
       </c>
       <c r="T21">
         <v>20211010</v>
@@ -2026,23 +2101,14 @@
         <v>39</v>
       </c>
       <c r="V21" s="11">
-        <f t="shared" si="1"/>
-        <v>2.6625000000000001</v>
+        <f>AVERAGE(W21:AA21)</f>
+        <v>3.7749999999999999</v>
       </c>
       <c r="W21">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="X21">
-        <v>2.5</v>
-      </c>
-      <c r="Y21">
-        <v>2.75</v>
-      </c>
-      <c r="Z21">
-        <v>2</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>45</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -2053,7 +2119,7 @@
         <v>33</v>
       </c>
       <c r="E22">
-        <v>10732</v>
+        <v>10733</v>
       </c>
       <c r="F22">
         <v>20211010</v>
@@ -2062,14 +2128,14 @@
         <v>74</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="0"/>
-        <v>4.3000000000000007</v>
+        <f>AVERAGE(I22:M22)</f>
+        <v>6.1</v>
       </c>
       <c r="I22">
-        <v>4.45</v>
-      </c>
-      <c r="J22">
-        <v>4.1500000000000004</v>
+        <v>6.1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
       </c>
       <c r="Q22" t="s">
         <v>6</v>
@@ -2078,7 +2144,7 @@
         <v>33</v>
       </c>
       <c r="S22">
-        <v>10732</v>
+        <v>10733</v>
       </c>
       <c r="T22">
         <v>20211010</v>
@@ -2087,14 +2153,17 @@
         <v>39</v>
       </c>
       <c r="V22" s="11">
-        <f t="shared" si="1"/>
-        <v>3.7749999999999999</v>
+        <f>AVERAGE(W22:AA22)</f>
+        <v>5.833333333333333</v>
       </c>
       <c r="W22">
-        <v>3.75</v>
+        <v>5.45</v>
       </c>
       <c r="X22">
-        <v>3.8</v>
+        <v>6.55</v>
+      </c>
+      <c r="Y22">
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -2102,10 +2171,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>10733</v>
+        <v>10724</v>
       </c>
       <c r="F23">
         <v>20211010</v>
@@ -2114,23 +2183,23 @@
         <v>74</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="0"/>
-        <v>6.1</v>
+        <f>AVERAGE(I23:M23)</f>
+        <v>4.2249999999999996</v>
       </c>
       <c r="I23">
-        <v>6.1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>76</v>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J23">
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q23" t="s">
         <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="S23">
-        <v>10733</v>
+        <v>10724</v>
       </c>
       <c r="T23">
         <v>20211010</v>
@@ -2139,30 +2208,27 @@
         <v>39</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="1"/>
-        <v>5.833333333333333</v>
+        <f>AVERAGE(W23:AA23)</f>
+        <v>2.95</v>
       </c>
       <c r="W23">
-        <v>5.45</v>
+        <v>2.95</v>
       </c>
       <c r="X23">
-        <v>6.55</v>
-      </c>
-      <c r="Y23">
-        <v>5.5</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24">
-        <v>10734</v>
+        <v>10726</v>
       </c>
       <c r="F24">
         <v>20211010</v>
@@ -2170,29 +2236,25 @@
       <c r="G24" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="11">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="I24">
-        <v>3.9</v>
-      </c>
-      <c r="J24">
-        <v>3.9</v>
-      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
+      <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" t="s">
         <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S24">
-        <v>10734</v>
+        <v>10726</v>
       </c>
       <c r="T24">
         <v>20211010</v>
@@ -2201,14 +2263,14 @@
         <v>39</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="1"/>
-        <v>2.875</v>
+        <f>AVERAGE(W24:AA24)</f>
+        <v>3.5750000000000002</v>
       </c>
       <c r="W24">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="X24">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="Y24"/>
       <c r="Z24"/>
@@ -2220,11 +2282,11 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>10735</v>
+        <v>10727</v>
       </c>
       <c r="F25">
         <v>20211010</v>
@@ -2232,27 +2294,17 @@
       <c r="G25" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="11">
-        <f t="shared" si="0"/>
-        <v>3.5666666666666664</v>
-      </c>
-      <c r="I25">
-        <v>3.15</v>
-      </c>
-      <c r="J25">
-        <v>3.85</v>
-      </c>
-      <c r="K25">
-        <v>3.7</v>
+      <c r="I25" t="s">
+        <v>87</v>
       </c>
       <c r="Q25" t="s">
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S25">
-        <v>10735</v>
+        <v>10727</v>
       </c>
       <c r="T25">
         <v>20211010</v>
@@ -2261,27 +2313,27 @@
         <v>39</v>
       </c>
       <c r="V25" s="11">
-        <f t="shared" si="1"/>
-        <v>3.45</v>
+        <f>AVERAGE(W25:AA25)</f>
+        <v>3.2249999999999996</v>
       </c>
       <c r="W25">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="X25">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26">
-        <v>10736</v>
+        <v>10728</v>
       </c>
       <c r="F26">
         <v>20211010</v>
@@ -2289,29 +2341,25 @@
       <c r="G26" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="11">
-        <f t="shared" si="0"/>
-        <v>3.4249999999999998</v>
-      </c>
-      <c r="I26">
-        <v>3.45</v>
-      </c>
-      <c r="J26">
-        <v>3.4</v>
-      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
+      <c r="O26"/>
       <c r="P26"/>
       <c r="Q26" t="s">
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S26">
-        <v>10736</v>
+        <v>10728</v>
       </c>
       <c r="T26">
         <v>20211010</v>
@@ -2320,14 +2368,14 @@
         <v>39</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="1"/>
-        <v>2.5750000000000002</v>
+        <f>AVERAGE(W26:AA26)</f>
+        <v>4.2249999999999996</v>
       </c>
       <c r="W26">
-        <v>2.5499999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="X26">
-        <v>2.6</v>
+        <v>3.95</v>
       </c>
       <c r="Y26"/>
       <c r="Z26"/>
@@ -2337,135 +2385,133 @@
     </row>
     <row r="27" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27">
-        <v>89.8</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C27"/>
       <c r="D27"/>
       <c r="E27">
-        <v>10800</v>
+        <v>10731</v>
       </c>
       <c r="F27">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G27" t="s">
         <v>74</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="0"/>
-        <v>3.4333333333333336</v>
+        <f>AVERAGE(I27:M27)</f>
+        <v>3.2750000000000004</v>
       </c>
       <c r="I27">
         <v>3.35</v>
       </c>
       <c r="J27">
-        <v>3.5</v>
-      </c>
-      <c r="K27">
-        <v>3.45</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
+      <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="S27">
-        <v>10800</v>
+        <v>10731</v>
       </c>
       <c r="T27">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U27" t="s">
         <v>39</v>
       </c>
       <c r="V27" s="11">
-        <f t="shared" si="1"/>
-        <v>2.0249999999999999</v>
+        <f>AVERAGE(W27:AA27)</f>
+        <v>2.6625000000000001</v>
       </c>
       <c r="W27">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="X27">
+        <v>2.5</v>
+      </c>
+      <c r="Y27">
+        <v>2.75</v>
+      </c>
+      <c r="Z27">
         <v>2</v>
       </c>
-      <c r="Y27">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Z27">
-        <v>2.4</v>
-      </c>
       <c r="AA27"/>
-      <c r="AB27"/>
+      <c r="AB27" t="s">
+        <v>45</v>
+      </c>
       <c r="AC27"/>
     </row>
     <row r="28" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28">
-        <v>50.9</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C28"/>
       <c r="D28"/>
       <c r="E28">
-        <v>10801</v>
+        <v>10734</v>
       </c>
       <c r="F28">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G28" t="s">
         <v>74</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="0"/>
-        <v>4.4749999999999996</v>
+        <f>AVERAGE(I28:M28)</f>
+        <v>3.9</v>
       </c>
       <c r="I28">
-        <v>4.5999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="J28">
-        <v>4.3499999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
+      <c r="O28" s="8"/>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="S28">
-        <v>10801</v>
+        <v>10734</v>
       </c>
       <c r="T28">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U28" t="s">
         <v>39</v>
       </c>
       <c r="V28" s="11">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>AVERAGE(W28:AA28)</f>
+        <v>2.875</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="Y28"/>
       <c r="Z28"/>
@@ -2475,62 +2521,61 @@
     </row>
     <row r="29" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29">
-        <v>83.4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C29"/>
       <c r="D29"/>
       <c r="E29">
-        <v>10803</v>
+        <v>10735</v>
       </c>
       <c r="F29">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="0"/>
-        <v>4.4666666666666668</v>
+        <f>AVERAGE(I29:M29)</f>
+        <v>3.5666666666666664</v>
       </c>
       <c r="I29">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="J29">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K29">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
+      <c r="O29"/>
       <c r="P29"/>
       <c r="Q29" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S29">
-        <v>10803</v>
+        <v>10735</v>
       </c>
       <c r="T29">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U29" t="s">
         <v>39</v>
       </c>
       <c r="V29" s="11">
-        <f t="shared" si="1"/>
-        <v>3.5750000000000002</v>
+        <f>AVERAGE(W29:AA29)</f>
+        <v>3.45</v>
       </c>
       <c r="W29">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="X29">
         <v>3.45</v>
@@ -2543,33 +2588,31 @@
     </row>
     <row r="30" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30">
-        <v>73.400000000000006</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C30"/>
       <c r="D30"/>
       <c r="E30">
-        <v>10805</v>
+        <v>10736</v>
       </c>
       <c r="F30">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G30" t="s">
         <v>74</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="0"/>
-        <v>3.0250000000000004</v>
+        <f>AVERAGE(I30:M30)</f>
+        <v>3.4249999999999998</v>
       </c>
       <c r="I30">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J30">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
@@ -2577,33 +2620,31 @@
       <c r="N30"/>
       <c r="P30"/>
       <c r="Q30" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="S30">
-        <v>10805</v>
+        <v>10736</v>
       </c>
       <c r="T30">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U30" t="s">
         <v>39</v>
       </c>
       <c r="V30" s="11">
-        <f t="shared" si="1"/>
-        <v>1.9666666666666668</v>
+        <f>AVERAGE(W30:AA30)</f>
+        <v>2.5750000000000002</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="X30">
-        <v>2.15</v>
-      </c>
-      <c r="Y30">
-        <v>1.95</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
@@ -2611,17 +2652,15 @@
     </row>
     <row r="31" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31">
-        <v>35.9</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C31"/>
       <c r="D31"/>
       <c r="E31">
-        <v>10806</v>
+        <v>10714</v>
       </c>
       <c r="F31">
         <v>20211009</v>
@@ -2630,28 +2669,29 @@
         <v>74</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="0"/>
-        <v>4.4749999999999996</v>
+        <f>AVERAGE(I31:M31)</f>
+        <v>3.5249999999999999</v>
       </c>
       <c r="I31">
-        <v>4.45</v>
+        <v>3.5</v>
       </c>
       <c r="J31">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
+      <c r="O31" s="8"/>
       <c r="P31"/>
       <c r="Q31" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="R31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S31">
-        <v>10806</v>
+        <v>10714</v>
       </c>
       <c r="T31">
         <v>20211009</v>
@@ -2660,14 +2700,14 @@
         <v>39</v>
       </c>
       <c r="V31" s="11">
-        <f t="shared" si="1"/>
-        <v>3.4750000000000001</v>
+        <f>AVERAGE(W31:AA31)</f>
+        <v>1.9750000000000001</v>
       </c>
       <c r="W31">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>3.45</v>
+        <v>1.95</v>
       </c>
       <c r="Y31"/>
       <c r="Z31"/>
@@ -2677,17 +2717,15 @@
     </row>
     <row r="32" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32">
-        <v>33.799999999999997</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C32"/>
       <c r="D32"/>
       <c r="E32">
-        <v>10864</v>
+        <v>10716</v>
       </c>
       <c r="F32">
         <v>20211009</v>
@@ -2696,28 +2734,31 @@
         <v>74</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
+        <f>AVERAGE(I32:M32)</f>
+        <v>3.7333333333333329</v>
       </c>
       <c r="I32">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="J32">
-        <v>5.2</v>
-      </c>
-      <c r="K32"/>
+        <v>3.35</v>
+      </c>
+      <c r="K32">
+        <v>4.55</v>
+      </c>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
+      <c r="O32"/>
       <c r="P32"/>
       <c r="Q32" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="R32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S32">
-        <v>10864</v>
+        <v>10716</v>
       </c>
       <c r="T32">
         <v>20211009</v>
@@ -2726,33 +2767,31 @@
         <v>39</v>
       </c>
       <c r="V32" s="11">
-        <f t="shared" si="1"/>
-        <v>4.2750000000000004</v>
+        <f>AVERAGE(W32:AA32)</f>
+        <v>2.3666666666666667</v>
       </c>
       <c r="W32">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="X32">
-        <v>4.25</v>
-      </c>
-      <c r="Y32"/>
+        <v>2.4</v>
+      </c>
+      <c r="Y32">
+        <v>2.4</v>
+      </c>
       <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32"/>
-      <c r="AC32"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33">
-        <v>94.3</v>
+        <v>70</v>
       </c>
       <c r="E33">
-        <v>10865</v>
+        <v>10718</v>
       </c>
       <c r="F33">
         <v>20211009</v>
@@ -2761,26 +2800,23 @@
         <v>74</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="0"/>
-        <v>3.2333333333333329</v>
+        <f>AVERAGE(I33:M33)</f>
+        <v>2.6</v>
       </c>
       <c r="I33">
-        <v>3.55</v>
+        <v>2.5</v>
       </c>
       <c r="J33">
-        <v>2.8</v>
-      </c>
-      <c r="K33">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="Q33" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="R33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S33">
-        <v>10865</v>
+        <v>10718</v>
       </c>
       <c r="T33">
         <v>20211009</v>
@@ -2789,31 +2825,25 @@
         <v>39</v>
       </c>
       <c r="V33" s="11">
-        <f t="shared" si="1"/>
-        <v>1.45</v>
+        <f>AVERAGE(W33:AA33)</f>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="X33">
-        <v>1.35</v>
-      </c>
-      <c r="Y33">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34">
-        <v>68.7</v>
+        <v>70</v>
       </c>
       <c r="E34">
-        <v>10894</v>
+        <v>10719</v>
       </c>
       <c r="F34">
         <v>20211009</v>
@@ -2822,111 +2852,117 @@
         <v>74</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="0"/>
-        <v>3.2749999999999999</v>
+        <f>AVERAGE(I34:M34)</f>
+        <v>2.375</v>
       </c>
       <c r="I34">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="J34">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="Q34" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="R34" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S34">
-        <v>10894</v>
+        <v>10719</v>
       </c>
       <c r="T34">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="U34" t="s">
         <v>39</v>
       </c>
       <c r="V34" s="11">
-        <f t="shared" si="1"/>
-        <v>2.9</v>
+        <f>AVERAGE(W34:AA34)</f>
+        <v>1.3499999999999999</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="X34">
-        <v>2.8</v>
+        <v>1.3</v>
+      </c>
+      <c r="Y34">
+        <v>1.3</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35">
-        <v>72.5</v>
-      </c>
-      <c r="E35">
-        <v>10896</v>
-      </c>
-      <c r="F35">
+      <c r="A35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10">
+        <v>10989</v>
+      </c>
+      <c r="F35" s="10">
         <v>20211009</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="10" t="s">
         <v>74</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="0"/>
-        <v>4.7166666666666659</v>
-      </c>
-      <c r="I35">
-        <v>5.3</v>
-      </c>
-      <c r="J35">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K35">
-        <v>4.5</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R35" t="s">
-        <v>77</v>
-      </c>
-      <c r="S35">
-        <v>10896</v>
-      </c>
-      <c r="T35">
+        <f>AVERAGE(I35:M35)</f>
+        <v>3.4874999999999998</v>
+      </c>
+      <c r="I35" s="10">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="J35" s="10">
+        <v>3.55</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S35" s="10">
+        <v>10989</v>
+      </c>
+      <c r="T35" s="10">
         <v>20211009</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" s="10" t="s">
         <v>39</v>
       </c>
       <c r="V35" s="11">
-        <f t="shared" si="1"/>
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="W35">
-        <v>3.65</v>
-      </c>
-      <c r="X35">
-        <v>3.7</v>
-      </c>
+        <f>AVERAGE(W35:AA35)</f>
+        <v>2.2625000000000002</v>
+      </c>
+      <c r="W35" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="X35" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36">
-        <v>58.6</v>
+        <v>70</v>
       </c>
       <c r="E36">
-        <v>10898</v>
+        <v>10992</v>
       </c>
       <c r="F36">
         <v>20211009</v>
@@ -2935,87 +2971,84 @@
         <v>74</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="0"/>
-        <v>3.6875</v>
+        <f>AVERAGE(I36:M36)</f>
+        <v>3.0833333333333335</v>
       </c>
       <c r="I36">
-        <v>4.55</v>
+        <v>2.95</v>
       </c>
       <c r="J36">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="K36">
-        <v>3.25</v>
-      </c>
-      <c r="L36">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q36" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="R36" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S36">
-        <v>10898</v>
+        <v>10992</v>
       </c>
       <c r="T36">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="U36" t="s">
         <v>39</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="1"/>
-        <v>1.45</v>
+        <f>AVERAGE(W36:AA36)</f>
+        <v>2.333333333333333</v>
       </c>
       <c r="W36">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="X36">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y36">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37">
-        <v>80.2</v>
+        <v>72.5</v>
       </c>
       <c r="E37">
-        <v>10899</v>
+        <v>10965</v>
       </c>
       <c r="F37">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G37" t="s">
         <v>74</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
+        <f>AVERAGE(I37:M37)</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I37">
-        <v>4.45</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
-        <v>4.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S37">
-        <v>10899</v>
+        <v>10965</v>
       </c>
       <c r="T37">
         <v>20211009</v>
@@ -3024,226 +3057,227 @@
         <v>39</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" si="1"/>
-        <v>3.625</v>
+        <f>AVERAGE(W37:AA37)</f>
+        <v>1.2</v>
       </c>
       <c r="W37">
-        <v>3.55</v>
+        <v>1.2</v>
       </c>
       <c r="X37">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>8.6</v>
+        <v>31.3</v>
       </c>
       <c r="E38">
-        <v>10956</v>
+        <v>10972</v>
       </c>
       <c r="F38">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G38" t="s">
         <v>74</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
+        <f>AVERAGE(I38:M38)</f>
+        <v>2.2250000000000001</v>
       </c>
       <c r="I38">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="J38">
-        <v>2.85</v>
-      </c>
-      <c r="K38">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q38" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S38">
-        <v>10956</v>
+        <v>10972</v>
       </c>
       <c r="T38">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U38" t="s">
         <v>39</v>
       </c>
       <c r="V38" s="11">
-        <f t="shared" si="1"/>
-        <v>1.0750000000000002</v>
+        <f>AVERAGE(W38:AA38)</f>
+        <v>1.61</v>
       </c>
       <c r="W38">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="X38">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>66.8</v>
+        <v>63.2</v>
       </c>
       <c r="E39">
-        <v>10959</v>
+        <v>10978</v>
       </c>
       <c r="F39">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G39" t="s">
         <v>74</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="0"/>
-        <v>1.7833333333333332</v>
+        <f>AVERAGE(I39:M39)</f>
+        <v>2.4</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J39">
-        <v>1.45</v>
-      </c>
-      <c r="K39">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R39" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="S39">
-        <v>10959</v>
+        <v>10978</v>
       </c>
       <c r="T39">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U39" t="s">
         <v>39</v>
       </c>
       <c r="V39" s="11">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
+        <f>AVERAGE(W39:AA39)</f>
+        <v>1.1233333333333333</v>
       </c>
       <c r="W39">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X39">
-        <v>0.7</v>
-      </c>
-      <c r="AC39" s="10"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C40">
-        <v>42.9</v>
+        <v>23.7</v>
       </c>
       <c r="E40">
-        <v>10960</v>
+        <v>10979</v>
       </c>
       <c r="F40">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G40" t="s">
         <v>74</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="0"/>
-        <v>1.65</v>
+        <f>AVERAGE(I40:M40)</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I40">
-        <v>1.65</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J40">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R40" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="S40">
-        <v>10960</v>
+        <v>10979</v>
       </c>
       <c r="T40">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U40" t="s">
         <v>39</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f>AVERAGE(W40:AA40)</f>
+        <v>0.7466666666666667</v>
       </c>
       <c r="W40">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="X40">
-        <v>0.45</v>
-      </c>
-      <c r="AC40" s="10"/>
+        <v>0.69</v>
+      </c>
+      <c r="Y40">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C41">
-        <v>46.5</v>
+        <v>45.2</v>
       </c>
       <c r="E41">
-        <v>10961</v>
+        <v>10982</v>
       </c>
       <c r="F41">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G41" t="s">
         <v>74</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="0"/>
-        <v>2.35</v>
+        <f>AVERAGE(I41:M41)</f>
+        <v>2.75</v>
       </c>
       <c r="I41">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="J41">
-        <v>2.35</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
       <c r="Q41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S41">
-        <v>10961</v>
+        <v>10982</v>
       </c>
       <c r="T41">
         <v>20211009</v>
@@ -3252,148 +3286,125 @@
         <v>39</v>
       </c>
       <c r="V41" s="11">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
+        <f>AVERAGE(W41:AA41)</f>
+        <v>1.2</v>
       </c>
       <c r="W41">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="X41">
-        <v>1.7</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>90</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42">
-        <v>35.9</v>
-      </c>
-      <c r="E42">
-        <v>10962</v>
-      </c>
-      <c r="F42">
+      <c r="A42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="10">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10">
+        <v>10983</v>
+      </c>
+      <c r="F42" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="11">
+        <f>AVERAGE(I42:M42)</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J42" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="S42" s="10">
+        <v>10983</v>
+      </c>
+      <c r="T42" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42" s="11">
+        <f>AVERAGE(W42:AA42)</f>
+        <v>1.65</v>
+      </c>
+      <c r="W42" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="X42" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="8">
         <v>20211010</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6500000000000004</v>
-      </c>
-      <c r="I42">
-        <v>2.6</v>
-      </c>
-      <c r="J42">
-        <v>2.7</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" t="s">
-        <v>71</v>
-      </c>
-      <c r="S42">
-        <v>10962</v>
-      </c>
-      <c r="T42">
-        <v>20211009</v>
-      </c>
-      <c r="U42" t="s">
-        <v>39</v>
-      </c>
-      <c r="V42" s="11">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="W42">
-        <v>1.7</v>
-      </c>
-      <c r="X42">
-        <v>1.8</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC42" s="10"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43">
-        <v>53.4</v>
-      </c>
-      <c r="E43">
-        <v>10963</v>
-      </c>
-      <c r="F43">
-        <v>20211010</v>
-      </c>
-      <c r="G43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="11">
-        <f t="shared" si="0"/>
-        <v>2.5166666666666666</v>
-      </c>
-      <c r="I43">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J43">
-        <v>2.75</v>
-      </c>
-      <c r="K43">
-        <v>2.75</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" t="s">
-        <v>71</v>
-      </c>
-      <c r="S43">
-        <v>10963</v>
-      </c>
-      <c r="T43">
-        <v>20211009</v>
-      </c>
-      <c r="U43" t="s">
-        <v>39</v>
-      </c>
-      <c r="V43" s="11">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="W43">
-        <v>1.8</v>
-      </c>
-      <c r="X43">
-        <v>1.7</v>
+      <c r="H43" s="12"/>
+      <c r="I43" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J43" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C44">
-        <v>52.2</v>
+        <v>42.4</v>
       </c>
       <c r="E44">
-        <v>10964</v>
+        <v>10722</v>
       </c>
       <c r="F44">
         <v>20211010</v>
@@ -3402,84 +3413,82 @@
         <v>74</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
+        <f>AVERAGE(I44:M44)</f>
+        <v>3.5999999999999996</v>
       </c>
       <c r="I44">
-        <v>2.4500000000000002</v>
+        <v>3.65</v>
       </c>
       <c r="J44">
-        <v>2.4500000000000002</v>
+        <v>3.55</v>
       </c>
       <c r="Q44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R44" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="S44">
-        <v>10964</v>
+        <v>10722</v>
       </c>
       <c r="T44">
-        <v>20211009</v>
+        <v>20201010</v>
       </c>
       <c r="U44" t="s">
         <v>39</v>
       </c>
       <c r="V44" s="11">
-        <f t="shared" si="1"/>
-        <v>1.575</v>
+        <f>AVERAGE(W44:AA44)</f>
+        <v>3</v>
       </c>
       <c r="W44">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44">
-        <v>1.8</v>
-      </c>
-      <c r="Z44">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C45">
-        <v>72.5</v>
+        <v>89.8</v>
       </c>
       <c r="E45">
-        <v>10965</v>
+        <v>10800</v>
       </c>
       <c r="F45">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G45" t="s">
         <v>74</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <f>AVERAGE(I45:M45)</f>
+        <v>3.4333333333333336</v>
       </c>
       <c r="I45">
-        <v>2.2999999999999998</v>
+        <v>3.35</v>
       </c>
       <c r="J45">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="K45">
+        <v>3.45</v>
+      </c>
+      <c r="O45" s="10"/>
       <c r="Q45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="S45">
-        <v>10965</v>
+        <v>10800</v>
       </c>
       <c r="T45">
         <v>20211009</v>
@@ -3488,83 +3497,93 @@
         <v>39</v>
       </c>
       <c r="V45" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
+        <f>AVERAGE(W45:AA45)</f>
+        <v>2.0249999999999999</v>
       </c>
       <c r="W45">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X45">
-        <v>1.2</v>
+        <v>2</v>
+      </c>
+      <c r="Y45">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z45">
+        <v>2.4</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46">
-        <v>62.2</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E46">
-        <v>10966</v>
+        <v>10805</v>
       </c>
       <c r="F46">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G46" t="s">
         <v>74</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="0"/>
-        <v>4.9250000000000007</v>
+        <f>AVERAGE(I46:M46)</f>
+        <v>3.0250000000000004</v>
       </c>
       <c r="I46">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="J46">
-        <v>5.15</v>
-      </c>
+        <v>2.95</v>
+      </c>
+      <c r="O46" s="10"/>
       <c r="Q46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S46">
-        <v>10966</v>
+        <v>10805</v>
       </c>
       <c r="T46">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="U46" t="s">
         <v>39</v>
       </c>
       <c r="V46" s="11">
-        <f t="shared" si="1"/>
-        <v>3.7</v>
+        <f>AVERAGE(W46:AA46)</f>
+        <v>1.9666666666666668</v>
       </c>
       <c r="W46">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3.7</v>
+        <v>2.15</v>
+      </c>
+      <c r="Y46">
+        <v>1.95</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47">
-        <v>84.3</v>
+        <v>66.8</v>
       </c>
       <c r="E47">
-        <v>10967</v>
+        <v>10959</v>
       </c>
       <c r="F47">
         <v>20211010</v>
@@ -3573,65 +3592,57 @@
         <v>74</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="0"/>
-        <v>5.8625000000000007</v>
+        <f>AVERAGE(I47:M47)</f>
+        <v>1.7833333333333332</v>
       </c>
       <c r="I47">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>5.85</v>
+        <v>1.45</v>
       </c>
       <c r="K47">
-        <v>5.4</v>
-      </c>
-      <c r="L47">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="Q47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S47">
-        <v>10967</v>
+        <v>10959</v>
       </c>
       <c r="T47">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="U47" t="s">
         <v>39</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" si="1"/>
-        <v>2.875</v>
+        <f>AVERAGE(W47:AA47)</f>
+        <v>0.64999999999999991</v>
       </c>
       <c r="W47">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="X47">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Y47">
-        <v>3.4</v>
-      </c>
-      <c r="Z47">
-        <v>2.9</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="AC47" s="10"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C48">
-        <v>72.2</v>
+        <v>42.9</v>
       </c>
       <c r="E48">
-        <v>10968</v>
+        <v>10960</v>
       </c>
       <c r="F48">
         <v>20211010</v>
@@ -3640,43 +3651,41 @@
         <v>74</v>
       </c>
       <c r="H48" s="11">
-        <f t="shared" si="0"/>
-        <v>4.6999999999999993</v>
+        <f>AVERAGE(I48:M48)</f>
+        <v>1.65</v>
       </c>
       <c r="I48">
-        <v>4.8499999999999996</v>
+        <v>1.65</v>
       </c>
       <c r="J48">
-        <v>4.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S48">
-        <v>10968</v>
+        <v>10960</v>
       </c>
       <c r="T48">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="U48" t="s">
         <v>39</v>
       </c>
       <c r="V48" s="11">
-        <f t="shared" si="1"/>
-        <v>2.5499999999999998</v>
+        <f>AVERAGE(W48:AA48)</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="W48">
-        <v>2.25</v>
+        <v>0.6</v>
       </c>
       <c r="X48">
-        <v>2.85</v>
-      </c>
-      <c r="Y48">
-        <v>2.5499999999999998</v>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="AC48" s="10"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -3698,7 +3707,7 @@
         <v>74</v>
       </c>
       <c r="H49" s="11">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I49:M49)</f>
         <v>3.5</v>
       </c>
       <c r="I49">
@@ -3726,7 +3735,7 @@
         <v>39</v>
       </c>
       <c r="V49" s="11">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(W49:AA49)</f>
         <v>2.3499999999999996</v>
       </c>
       <c r="W49">
@@ -3738,126 +3747,133 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50">
-        <v>37.5</v>
+        <v>50.9</v>
       </c>
       <c r="E50">
-        <v>10970</v>
+        <v>10801</v>
       </c>
       <c r="F50">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G50" t="s">
         <v>74</v>
       </c>
       <c r="H50" s="11">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
+        <f>AVERAGE(I50:M50)</f>
+        <v>4.4749999999999996</v>
       </c>
       <c r="I50">
-        <v>5.25</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J50">
-        <v>5.55</v>
-      </c>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O50" s="10"/>
       <c r="Q50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S50">
-        <v>10970</v>
+        <v>10801</v>
       </c>
       <c r="T50">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="U50" t="s">
         <v>39</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
+        <f>AVERAGE(W50:AA50)</f>
+        <v>2.5</v>
       </c>
       <c r="W50">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="X50">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>68</v>
       </c>
       <c r="C51">
-        <v>46.5</v>
+        <v>58.6</v>
       </c>
       <c r="E51">
-        <v>10971</v>
+        <v>10898</v>
       </c>
       <c r="F51">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="G51" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="11">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
+        <f>AVERAGE(I51:M51)</f>
+        <v>3.6875</v>
       </c>
       <c r="I51">
-        <v>5.45</v>
+        <v>4.55</v>
       </c>
       <c r="J51">
-        <v>5.95</v>
+        <v>3.65</v>
+      </c>
+      <c r="K51">
+        <v>3.25</v>
+      </c>
+      <c r="L51">
+        <v>3.3</v>
       </c>
       <c r="Q51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R51" t="s">
         <v>68</v>
       </c>
       <c r="S51">
-        <v>10971</v>
+        <v>10898</v>
       </c>
       <c r="T51">
-        <v>20201010</v>
+        <v>20211010</v>
       </c>
       <c r="U51" t="s">
         <v>39</v>
       </c>
       <c r="V51" s="11">
-        <f t="shared" si="1"/>
-        <v>4.4749999999999996</v>
+        <f>AVERAGE(W51:AA51)</f>
+        <v>1.45</v>
       </c>
       <c r="W51">
-        <v>4.45</v>
+        <v>1.4</v>
       </c>
       <c r="X51">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C52">
-        <v>31.3</v>
+        <v>62.2</v>
       </c>
       <c r="E52">
-        <v>10972</v>
+        <v>10966</v>
       </c>
       <c r="F52">
         <v>20211010</v>
@@ -3866,230 +3882,230 @@
         <v>74</v>
       </c>
       <c r="H52" s="11">
-        <f t="shared" si="0"/>
-        <v>2.2250000000000001</v>
+        <f>AVERAGE(I52:M52)</f>
+        <v>4.9250000000000007</v>
       </c>
       <c r="I52">
-        <v>2.25</v>
+        <v>4.7</v>
       </c>
       <c r="J52">
-        <v>2.2000000000000002</v>
+        <v>5.15</v>
       </c>
       <c r="Q52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S52">
-        <v>10972</v>
+        <v>10966</v>
       </c>
       <c r="T52">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="U52" t="s">
         <v>39</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" si="1"/>
-        <v>1.61</v>
+        <f>AVERAGE(W52:AA52)</f>
+        <v>3.7</v>
       </c>
       <c r="W52">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="X52">
-        <v>1.62</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C53">
-        <v>68.5</v>
+        <v>84.3</v>
       </c>
       <c r="E53">
-        <v>10973</v>
+        <v>10967</v>
       </c>
       <c r="F53">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G53" t="s">
         <v>74</v>
       </c>
       <c r="H53" s="11">
-        <f t="shared" si="0"/>
-        <v>2.625</v>
+        <f>AVERAGE(I53:M53)</f>
+        <v>5.8625000000000007</v>
       </c>
       <c r="I53">
-        <v>2.65</v>
+        <v>6.6</v>
       </c>
       <c r="J53">
-        <v>2.6</v>
+        <v>5.85</v>
+      </c>
+      <c r="K53">
+        <v>5.4</v>
+      </c>
+      <c r="L53">
+        <v>5.6</v>
       </c>
       <c r="Q53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="S53">
-        <v>10973</v>
+        <v>10967</v>
       </c>
       <c r="T53">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="U53" t="s">
         <v>39</v>
       </c>
       <c r="V53" s="11">
-        <f t="shared" si="1"/>
-        <v>1.855</v>
+        <f>AVERAGE(W53:AA53)</f>
+        <v>2.875</v>
       </c>
       <c r="W53">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="X53">
-        <v>2.02</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Y53">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Z53">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C54">
-        <v>38</v>
+        <v>72.2</v>
       </c>
       <c r="E54">
-        <v>10974</v>
+        <v>10968</v>
       </c>
       <c r="F54">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G54" t="s">
         <v>74</v>
       </c>
       <c r="H54" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>AVERAGE(I54:M54)</f>
+        <v>4.6999999999999993</v>
       </c>
       <c r="I54">
-        <v>1.75</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J54">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K54">
-        <v>2.2000000000000002</v>
+        <v>4.55</v>
       </c>
       <c r="Q54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="S54">
-        <v>10974</v>
+        <v>10968</v>
       </c>
       <c r="T54">
-        <v>20211009</v>
+        <v>20201010</v>
       </c>
       <c r="U54" t="s">
         <v>39</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="1"/>
-        <v>0.65</v>
+        <f>AVERAGE(W54:AA54)</f>
+        <v>2.5499999999999998</v>
       </c>
       <c r="W54">
-        <v>0.7</v>
+        <v>2.25</v>
       </c>
       <c r="X54">
-        <v>0.55000000000000004</v>
+        <v>2.85</v>
       </c>
       <c r="Y54">
-        <v>0.7</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C55">
-        <v>58.1</v>
+        <v>46.5</v>
       </c>
       <c r="E55">
-        <v>10975</v>
+        <v>10971</v>
       </c>
       <c r="F55">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G55" t="s">
         <v>74</v>
       </c>
       <c r="H55" s="11">
-        <f t="shared" si="0"/>
-        <v>2.875</v>
+        <f>AVERAGE(I55:M55)</f>
+        <v>5.7</v>
       </c>
       <c r="I55">
-        <v>2.85</v>
+        <v>5.45</v>
       </c>
       <c r="J55">
-        <v>2.9</v>
+        <v>5.95</v>
       </c>
       <c r="Q55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R55" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="S55">
-        <v>10975</v>
+        <v>10971</v>
       </c>
       <c r="T55">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="U55" t="s">
         <v>39</v>
       </c>
       <c r="V55" s="11">
-        <f t="shared" si="1"/>
-        <v>1.635</v>
+        <f>AVERAGE(W55:AA55)</f>
+        <v>4.4749999999999996</v>
       </c>
       <c r="W55">
-        <v>1.65</v>
+        <v>4.45</v>
       </c>
       <c r="X55">
-        <v>1.62</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56">
-        <v>53.9</v>
+        <v>48</v>
       </c>
       <c r="E56">
-        <v>10976</v>
+        <v>10713</v>
       </c>
       <c r="F56">
         <v>20211009</v>
@@ -4098,56 +4114,54 @@
         <v>74</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="0"/>
-        <v>2.8333333333333335</v>
+        <f>AVERAGE(I56:M56)</f>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>3.05</v>
       </c>
       <c r="J56">
-        <v>2.7</v>
-      </c>
-      <c r="K56">
-        <v>2.75</v>
-      </c>
+        <v>2.95</v>
+      </c>
+      <c r="O56" s="8"/>
       <c r="Q56" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="R56" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="S56">
-        <v>10976</v>
+        <v>10713</v>
       </c>
       <c r="T56">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="U56" t="s">
         <v>39</v>
       </c>
       <c r="V56" s="11">
-        <f t="shared" si="1"/>
-        <v>2.0499999999999998</v>
+        <f>AVERAGE(W56:AA56)</f>
+        <v>1.3500000000000003</v>
       </c>
       <c r="W56">
-        <v>2.0499999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="X56">
-        <v>2.0499999999999998</v>
+        <v>1.4</v>
+      </c>
+      <c r="Y56">
+        <v>1.35</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E57">
-        <v>10977</v>
+        <v>10987</v>
       </c>
       <c r="F57">
         <v>20211009</v>
@@ -4156,59 +4170,53 @@
         <v>74</v>
       </c>
       <c r="H57" s="11">
-        <f t="shared" si="0"/>
-        <v>1.9750000000000001</v>
+        <f>AVERAGE(I57:M57)</f>
+        <v>3.58</v>
       </c>
       <c r="I57">
-        <v>1.85</v>
+        <v>3.66</v>
       </c>
       <c r="J57">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q57" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="R57" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="S57">
-        <v>10977</v>
+        <v>10987</v>
       </c>
       <c r="T57">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="U57" t="s">
         <v>39</v>
       </c>
       <c r="V57" s="11">
-        <f t="shared" si="1"/>
-        <v>0.67999999999999994</v>
+        <f>AVERAGE(W57:AA57)</f>
+        <v>1.8833333333333335</v>
       </c>
       <c r="W57">
-        <v>0.64</v>
+        <v>1.9</v>
       </c>
       <c r="X57">
-        <v>0.76</v>
+        <v>1.85</v>
       </c>
       <c r="Y57">
-        <v>0.6</v>
-      </c>
-      <c r="Z57">
-        <v>0.72</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58">
-        <v>63.2</v>
+        <v>48</v>
       </c>
       <c r="E58">
-        <v>10978</v>
+        <v>10988</v>
       </c>
       <c r="F58">
         <v>20211009</v>
@@ -4217,56 +4225,56 @@
         <v>74</v>
       </c>
       <c r="H58" s="11">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>AVERAGE(I58:M58)</f>
+        <v>3.5499999999999994</v>
       </c>
       <c r="I58">
-        <v>2.2999999999999998</v>
+        <v>3.75</v>
       </c>
       <c r="J58">
-        <v>2.5</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="K58">
+        <v>3.3</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
       <c r="Q58" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="R58" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="S58">
-        <v>10978</v>
+        <v>10988</v>
       </c>
       <c r="T58">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="U58" t="s">
         <v>39</v>
       </c>
       <c r="V58" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1233333333333333</v>
+        <f>AVERAGE(W58:AA58)</f>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X58">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Y58">
-        <v>1.1499999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59">
-        <v>23.7</v>
+        <v>48</v>
       </c>
       <c r="E59">
-        <v>10979</v>
+        <v>10990</v>
       </c>
       <c r="F59">
         <v>20211009</v>
@@ -4275,87 +4283,90 @@
         <v>74</v>
       </c>
       <c r="H59" s="11">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <f>AVERAGE(I59:M59)</f>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I59">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="J59">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q59" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="R59" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="S59">
-        <v>10979</v>
+        <v>10990</v>
       </c>
       <c r="T59">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="U59" t="s">
         <v>39</v>
       </c>
       <c r="V59" s="11">
-        <f t="shared" si="1"/>
-        <v>0.7466666666666667</v>
+        <f>AVERAGE(W59:AA59)</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="W59">
-        <v>0.83</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X59">
-        <v>0.69</v>
+        <v>1.2</v>
       </c>
       <c r="Y59">
-        <v>0.72</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="60" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="10">
-        <v>27</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10">
-        <v>10980</v>
-      </c>
-      <c r="F60" s="10">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60">
+        <v>10991</v>
+      </c>
+      <c r="F60">
         <v>20211009</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" t="s">
         <v>74</v>
       </c>
       <c r="H60" s="11">
-        <f t="shared" si="0"/>
-        <v>4.625</v>
-      </c>
-      <c r="I60" s="10">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="J60" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
+        <f>AVERAGE(I60:M60)</f>
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="I60">
+        <v>2.95</v>
+      </c>
+      <c r="J60">
+        <v>3.55</v>
+      </c>
+      <c r="K60">
+        <v>3.25</v>
+      </c>
+      <c r="L60">
+        <v>3.15</v>
+      </c>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="R60" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="S60">
-        <v>10980</v>
+        <v>10991</v>
       </c>
       <c r="T60">
         <v>20211009</v>
@@ -4364,35 +4375,36 @@
         <v>39</v>
       </c>
       <c r="V60" s="11">
-        <f t="shared" si="1"/>
-        <v>4.2333333333333334</v>
+        <f>AVERAGE(W60:AA60)</f>
+        <v>1.37</v>
       </c>
       <c r="W60">
-        <v>4.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="X60">
-        <v>4.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="Y60">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Z60"/>
-      <c r="AA60"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z60">
+        <v>1.25</v>
+      </c>
+      <c r="AA60">
+        <v>1.45</v>
+      </c>
       <c r="AB60"/>
       <c r="AC60"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <v>66.5</v>
+        <v>48</v>
       </c>
       <c r="E61">
-        <v>10981</v>
+        <v>10995</v>
       </c>
       <c r="F61">
         <v>20211009</v>
@@ -4401,23 +4413,23 @@
         <v>74</v>
       </c>
       <c r="H61" s="11">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <f>AVERAGE(I61:M61)</f>
+        <v>2.5</v>
       </c>
       <c r="I61">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J61">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q61" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="R61" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="S61">
-        <v>10981</v>
+        <v>10995</v>
       </c>
       <c r="T61">
         <v>20211009</v>
@@ -4426,356 +4438,323 @@
         <v>39</v>
       </c>
       <c r="V61" s="11">
-        <f t="shared" si="1"/>
-        <v>3.87</v>
+        <f>AVERAGE(W61:AA61)</f>
+        <v>1.125</v>
       </c>
       <c r="W61">
-        <v>3.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X61">
-        <v>3.85</v>
-      </c>
-      <c r="Y61">
-        <v>3.65</v>
-      </c>
-      <c r="Z61">
-        <v>3.8</v>
-      </c>
-      <c r="AA61">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>88</v>
-      </c>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AC61" s="10"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>45.2</v>
+        <v>57.6</v>
       </c>
       <c r="E62">
-        <v>10982</v>
+        <v>10704</v>
       </c>
       <c r="F62">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G62" t="s">
         <v>74</v>
       </c>
       <c r="H62" s="11">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
+        <f>AVERAGE(I62:M62)</f>
+        <v>4.6499999999999995</v>
       </c>
       <c r="I62">
-        <v>2.6</v>
+        <v>4.55</v>
       </c>
       <c r="J62">
-        <v>2.9</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
+        <v>4.95</v>
+      </c>
+      <c r="K62">
+        <v>4.45</v>
+      </c>
       <c r="Q62" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="S62">
-        <v>10982</v>
+        <v>10704</v>
       </c>
       <c r="T62">
-        <v>20211009</v>
+        <v>20201010</v>
       </c>
       <c r="U62" t="s">
         <v>39</v>
       </c>
       <c r="V62" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
+        <f>AVERAGE(W62:AA62)</f>
+        <v>3.125</v>
       </c>
       <c r="W62">
-        <v>1.2</v>
+        <v>2.95</v>
       </c>
       <c r="X62">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="10">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10">
-        <v>10983</v>
-      </c>
-      <c r="F63" s="10">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E63">
+        <v>10864</v>
+      </c>
+      <c r="F63">
         <v>20211009</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" t="s">
         <v>74</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" si="0"/>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="I63" s="10">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J63" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R63" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="S63" s="10">
-        <v>10983</v>
-      </c>
-      <c r="T63" s="10">
+        <f>AVERAGE(I63:M63)</f>
+        <v>5.2</v>
+      </c>
+      <c r="I63">
+        <v>5.2</v>
+      </c>
+      <c r="J63">
+        <v>5.2</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c r="Q63" t="s">
+        <v>2</v>
+      </c>
+      <c r="R63" t="s">
+        <v>67</v>
+      </c>
+      <c r="S63">
+        <v>10864</v>
+      </c>
+      <c r="T63">
         <v>20211009</v>
       </c>
-      <c r="U63" s="10" t="s">
+      <c r="U63" t="s">
         <v>39</v>
       </c>
       <c r="V63" s="11">
-        <f t="shared" si="1"/>
-        <v>1.65</v>
-      </c>
-      <c r="W63" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="X63" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="Y63" s="10"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="10"/>
+        <f>AVERAGE(W63:AA63)</f>
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="W63">
+        <v>4.3</v>
+      </c>
+      <c r="X63">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="10">
-        <v>84.3</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10">
-        <v>10984</v>
-      </c>
-      <c r="F64" s="10">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>94.3</v>
+      </c>
+      <c r="E64">
+        <v>10865</v>
+      </c>
+      <c r="F64">
         <v>20211009</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" t="s">
         <v>74</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="I64" s="10">
-        <v>3</v>
-      </c>
-      <c r="J64" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R64" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="S64" s="10">
-        <v>10984</v>
-      </c>
-      <c r="T64" s="10">
+        <f>AVERAGE(I64:M64)</f>
+        <v>3.2333333333333329</v>
+      </c>
+      <c r="I64">
+        <v>3.55</v>
+      </c>
+      <c r="J64">
+        <v>2.8</v>
+      </c>
+      <c r="K64">
+        <v>3.35</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64" t="s">
+        <v>67</v>
+      </c>
+      <c r="S64">
+        <v>10865</v>
+      </c>
+      <c r="T64">
         <v>20211009</v>
       </c>
-      <c r="U64" s="10" t="s">
+      <c r="U64" t="s">
         <v>39</v>
       </c>
       <c r="V64" s="11">
-        <f t="shared" si="1"/>
-        <v>1.9249999999999998</v>
-      </c>
-      <c r="W64" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="X64" s="10">
-        <v>1.95</v>
-      </c>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
+        <f>AVERAGE(W64:AA64)</f>
+        <v>1.45</v>
+      </c>
+      <c r="W64">
+        <v>1.6</v>
+      </c>
+      <c r="X64">
+        <v>1.35</v>
+      </c>
+      <c r="Y64">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="10">
-        <v>17</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10">
-        <v>10985</v>
-      </c>
-      <c r="F65" s="10">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>37.5</v>
+      </c>
+      <c r="E65">
+        <v>10970</v>
+      </c>
+      <c r="F65">
+        <v>20211010</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="11">
+        <f>AVERAGE(I65:M65)</f>
+        <v>5.4</v>
+      </c>
+      <c r="I65">
+        <v>5.25</v>
+      </c>
+      <c r="J65">
+        <v>5.55</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>4</v>
+      </c>
+      <c r="R65" t="s">
+        <v>67</v>
+      </c>
+      <c r="S65">
+        <v>10970</v>
+      </c>
+      <c r="T65">
+        <v>20201010</v>
+      </c>
+      <c r="U65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V65" s="11">
+        <f>AVERAGE(W65:AA65)</f>
+        <v>3.75</v>
+      </c>
+      <c r="W65">
+        <v>3.6</v>
+      </c>
+      <c r="X65">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="10">
+        <v>27</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10">
+        <v>10980</v>
+      </c>
+      <c r="F66" s="10">
         <v>20211009</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G66" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="11">
-        <f t="shared" si="0"/>
-        <v>2.625</v>
-      </c>
-      <c r="I65" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="J65" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K65" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="L65">
-        <v>2.5</v>
-      </c>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R65" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S65" s="10">
-        <v>10985</v>
-      </c>
-      <c r="T65" s="10">
+      <c r="H66" s="11">
+        <f>AVERAGE(I66:M66)</f>
+        <v>4.625</v>
+      </c>
+      <c r="I66" s="10">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J66" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="8"/>
+      <c r="Q66" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s">
+        <v>67</v>
+      </c>
+      <c r="S66">
+        <v>10980</v>
+      </c>
+      <c r="T66">
         <v>20211009</v>
       </c>
-      <c r="U65" s="10" t="s">
+      <c r="U66" t="s">
         <v>39</v>
       </c>
-      <c r="V65" s="11">
-        <f t="shared" si="1"/>
-        <v>1.175</v>
-      </c>
-      <c r="W65" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X65" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="10">
-        <v>30.1</v>
-      </c>
-      <c r="E66">
-        <v>10986</v>
-      </c>
-      <c r="F66">
-        <v>20211009</v>
-      </c>
-      <c r="G66" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="11">
-        <f t="shared" si="0"/>
-        <v>5.5500000000000007</v>
-      </c>
-      <c r="I66">
-        <v>5.65</v>
-      </c>
-      <c r="J66">
-        <v>5.45</v>
-      </c>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="R66" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S66" s="10">
-        <v>10986</v>
-      </c>
-      <c r="T66" s="10">
-        <v>20211009</v>
-      </c>
-      <c r="U66" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="V66" s="11">
-        <f t="shared" si="1"/>
-        <v>4.9833333333333334</v>
-      </c>
-      <c r="W66" s="10">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="X66" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Y66" s="10">
-        <v>6</v>
-      </c>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="10" t="s">
-        <v>92</v>
+        <f>AVERAGE(W66:AA66)</f>
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="W66">
+        <v>4.2</v>
+      </c>
+      <c r="X66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y66">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>66.5</v>
       </c>
       <c r="E67">
-        <v>10987</v>
+        <v>10981</v>
       </c>
       <c r="F67">
         <v>20211009</v>
@@ -4784,23 +4763,23 @@
         <v>74</v>
       </c>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H78" si="2">AVERAGE(I67:M67)</f>
-        <v>3.58</v>
+        <f>AVERAGE(I67:M67)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I67">
-        <v>3.66</v>
+        <v>4.5</v>
       </c>
       <c r="J67">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="Q67" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="R67" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="S67">
-        <v>10987</v>
+        <v>10981</v>
       </c>
       <c r="T67">
         <v>20211009</v>
@@ -4809,28 +4788,40 @@
         <v>39</v>
       </c>
       <c r="V67" s="11">
-        <f t="shared" ref="V67:V78" si="3">AVERAGE(W67:AA67)</f>
-        <v>1.8833333333333335</v>
+        <f>AVERAGE(W67:AA67)</f>
+        <v>3.87</v>
       </c>
       <c r="W67">
-        <v>1.9</v>
+        <v>3.95</v>
       </c>
       <c r="X67">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="Y67">
-        <v>1.9</v>
+        <v>3.65</v>
+      </c>
+      <c r="Z67">
+        <v>3.8</v>
+      </c>
+      <c r="AA67">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>83.4</v>
       </c>
       <c r="E68">
-        <v>10988</v>
+        <v>10803</v>
       </c>
       <c r="F68">
         <v>20211009</v>
@@ -4839,29 +4830,27 @@
         <v>74</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" si="2"/>
-        <v>3.5499999999999994</v>
+        <f>AVERAGE(I68:M68)</f>
+        <v>4.4666666666666668</v>
       </c>
       <c r="I68">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="J68">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="K68">
-        <v>3.3</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O68" s="10"/>
       <c r="Q68" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="R68" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="S68">
-        <v>10988</v>
+        <v>10803</v>
       </c>
       <c r="T68">
         <v>20211009</v>
@@ -4870,89 +4859,84 @@
         <v>39</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="3"/>
-        <v>1.95</v>
+        <f>AVERAGE(W68:AA68)</f>
+        <v>3.5750000000000002</v>
       </c>
       <c r="W68">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="X68">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10">
-        <v>10989</v>
-      </c>
-      <c r="F69" s="10">
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69">
+        <v>35.9</v>
+      </c>
+      <c r="E69">
+        <v>10806</v>
+      </c>
+      <c r="F69">
         <v>20211009</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" t="s">
         <v>74</v>
       </c>
       <c r="H69" s="11">
-        <f t="shared" si="2"/>
-        <v>3.4874999999999998</v>
-      </c>
-      <c r="I69" s="10">
-        <v>3.4249999999999998</v>
-      </c>
-      <c r="J69" s="10">
-        <v>3.55</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R69" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="S69" s="10">
-        <v>10989</v>
-      </c>
-      <c r="T69" s="10">
+        <f>AVERAGE(I69:M69)</f>
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="I69">
+        <v>4.45</v>
+      </c>
+      <c r="J69">
+        <v>4.5</v>
+      </c>
+      <c r="O69" s="10"/>
+      <c r="Q69" t="s">
+        <v>2</v>
+      </c>
+      <c r="R69" t="s">
+        <v>77</v>
+      </c>
+      <c r="S69">
+        <v>10806</v>
+      </c>
+      <c r="T69">
         <v>20211009</v>
       </c>
-      <c r="U69" s="10" t="s">
+      <c r="U69" t="s">
         <v>39</v>
       </c>
       <c r="V69" s="11">
-        <f t="shared" si="3"/>
-        <v>2.2625000000000002</v>
-      </c>
-      <c r="W69" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="X69" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="Y69" s="10">
-        <v>2.25</v>
-      </c>
-      <c r="Z69" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
+        <f>AVERAGE(W69:AA69)</f>
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="W69">
+        <v>3.5</v>
+      </c>
+      <c r="X69">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>68.7</v>
       </c>
       <c r="E70">
-        <v>10990</v>
+        <v>10894</v>
       </c>
       <c r="F70">
         <v>20211009</v>
@@ -4961,53 +4945,53 @@
         <v>74</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" si="2"/>
-        <v>2.5499999999999998</v>
+        <f>AVERAGE(I70:M70)</f>
+        <v>3.2749999999999999</v>
       </c>
       <c r="I70">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="J70">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q70" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="S70">
-        <v>10990</v>
+        <v>10894</v>
       </c>
       <c r="T70">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U70" t="s">
         <v>39</v>
       </c>
       <c r="V70" s="11">
-        <f t="shared" si="3"/>
-        <v>1.1666666666666667</v>
+        <f>AVERAGE(W70:AA70)</f>
+        <v>2.9</v>
       </c>
       <c r="W70">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="X70">
-        <v>1.2</v>
-      </c>
-      <c r="Y70">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>72.5</v>
       </c>
       <c r="E71">
-        <v>10991</v>
+        <v>10896</v>
       </c>
       <c r="F71">
         <v>20211009</v>
@@ -5016,29 +5000,26 @@
         <v>74</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" si="2"/>
-        <v>3.2250000000000001</v>
+        <f>AVERAGE(I71:M71)</f>
+        <v>4.7166666666666659</v>
       </c>
       <c r="I71">
-        <v>2.95</v>
+        <v>5.3</v>
       </c>
       <c r="J71">
-        <v>3.55</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K71">
-        <v>3.25</v>
-      </c>
-      <c r="L71">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q71" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="R71" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="S71">
-        <v>10991</v>
+        <v>10896</v>
       </c>
       <c r="T71">
         <v>20211009</v>
@@ -5047,34 +5028,28 @@
         <v>39</v>
       </c>
       <c r="V71" s="11">
-        <f t="shared" si="3"/>
-        <v>1.37</v>
+        <f>AVERAGE(W71:AA71)</f>
+        <v>3.6749999999999998</v>
       </c>
       <c r="W71">
-        <v>1.1499999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="X71">
-        <v>1.5</v>
-      </c>
-      <c r="Y71">
-        <v>1.5</v>
-      </c>
-      <c r="Z71">
-        <v>1.25</v>
-      </c>
-      <c r="AA71">
-        <v>1.45</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="C72">
+        <v>80.2</v>
       </c>
       <c r="E72">
-        <v>10992</v>
+        <v>10899</v>
       </c>
       <c r="F72">
         <v>20211009</v>
@@ -5083,26 +5058,26 @@
         <v>74</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="2"/>
-        <v>3.0833333333333335</v>
+        <f>AVERAGE(I72:M72)</f>
+        <v>4.75</v>
       </c>
       <c r="I72">
-        <v>2.95</v>
+        <v>4.45</v>
       </c>
       <c r="J72">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="Q72" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="R72" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S72">
-        <v>10992</v>
+        <v>10899</v>
       </c>
       <c r="T72">
         <v>20211009</v>
@@ -5111,28 +5086,28 @@
         <v>39</v>
       </c>
       <c r="V72" s="11">
-        <f t="shared" si="3"/>
-        <v>2.333333333333333</v>
+        <f>AVERAGE(W72:AA72)</f>
+        <v>3.625</v>
       </c>
       <c r="W72">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="X72">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Y72">
-        <v>2.2999999999999998</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>68.5</v>
       </c>
       <c r="E73">
-        <v>10993</v>
+        <v>10973</v>
       </c>
       <c r="F73">
         <v>20211009</v>
@@ -5141,53 +5116,59 @@
         <v>74</v>
       </c>
       <c r="H73" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5250000000000004</v>
+        <f>AVERAGE(I73:M73)</f>
+        <v>2.625</v>
       </c>
       <c r="I73">
-        <v>4.5</v>
+        <v>2.65</v>
       </c>
       <c r="J73">
-        <v>4.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q73" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="R73" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="S73">
-        <v>10993</v>
+        <v>10973</v>
       </c>
       <c r="T73">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="U73" t="s">
         <v>39</v>
       </c>
       <c r="V73" s="11">
-        <f t="shared" si="3"/>
-        <v>3.3666666666666667</v>
+        <f>AVERAGE(W73:AA73)</f>
+        <v>1.855</v>
       </c>
       <c r="W73">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="X73">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="Y73">
-        <v>3.3</v>
+        <v>1.8</v>
+      </c>
+      <c r="Z73">
+        <v>1.9</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <v>8.6</v>
       </c>
       <c r="E74">
-        <v>10995</v>
+        <v>10956</v>
       </c>
       <c r="F74">
         <v>20211009</v>
@@ -5196,23 +5177,26 @@
         <v>74</v>
       </c>
       <c r="H74" s="11">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f>AVERAGE(I74:M74)</f>
+        <v>2.75</v>
       </c>
       <c r="I74">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J74">
-        <v>2.5</v>
+        <v>2.85</v>
+      </c>
+      <c r="K74">
+        <v>2.7</v>
       </c>
       <c r="Q74" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="R74" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="S74">
-        <v>10995</v>
+        <v>10956</v>
       </c>
       <c r="T74">
         <v>20211009</v>
@@ -5221,54 +5205,53 @@
         <v>39</v>
       </c>
       <c r="V74" s="11">
-        <f t="shared" si="3"/>
-        <v>1.125</v>
+        <f>AVERAGE(W74:AA74)</f>
+        <v>1.0750000000000002</v>
       </c>
       <c r="W74">
         <v>1.1000000000000001</v>
       </c>
       <c r="X74">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AC74" s="10"/>
+        <v>1.05</v>
+      </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+      <c r="C75">
+        <v>46.5</v>
       </c>
       <c r="E75">
-        <v>10996</v>
+        <v>10961</v>
       </c>
       <c r="F75">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="G75" t="s">
         <v>74</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" si="2"/>
-        <v>3.4500000000000006</v>
+        <f>AVERAGE(I75:M75)</f>
+        <v>2.35</v>
       </c>
       <c r="I75">
-        <v>3.35</v>
+        <v>2.35</v>
       </c>
       <c r="J75">
-        <v>3.55</v>
-      </c>
-      <c r="K75">
-        <v>3.45</v>
+        <v>2.35</v>
       </c>
       <c r="Q75" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="R75" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="S75">
-        <v>10996</v>
+        <v>10961</v>
       </c>
       <c r="T75">
         <v>20211009</v>
@@ -5277,28 +5260,31 @@
         <v>39</v>
       </c>
       <c r="V75" s="11">
-        <f t="shared" si="3"/>
-        <v>2.4833333333333334</v>
+        <f>AVERAGE(W75:AA75)</f>
+        <v>1.7</v>
       </c>
       <c r="W75">
-        <v>2.65</v>
+        <v>1.7</v>
       </c>
       <c r="X75">
-        <v>2.5</v>
-      </c>
-      <c r="Y75">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>82</v>
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76">
+        <v>35.9</v>
+      </c>
+      <c r="E76">
+        <v>10962</v>
       </c>
       <c r="F76">
         <v>20211010</v>
@@ -5306,47 +5292,58 @@
       <c r="G76" t="s">
         <v>74</v>
       </c>
-      <c r="I76" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q76" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="R76" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="S76" s="8" t="s">
-        <v>82</v>
+      <c r="H76" s="11">
+        <f>AVERAGE(I76:M76)</f>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="I76">
+        <v>2.6</v>
+      </c>
+      <c r="J76">
+        <v>2.7</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" t="s">
+        <v>71</v>
+      </c>
+      <c r="S76">
+        <v>10962</v>
       </c>
       <c r="T76">
-        <v>20201010</v>
-      </c>
-      <c r="U76" s="8" t="s">
+        <v>20211009</v>
+      </c>
+      <c r="U76" t="s">
         <v>39</v>
       </c>
       <c r="V76" s="11">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="W76" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="X76" s="8">
-        <v>1.6</v>
-      </c>
+        <f>AVERAGE(W76:AA76)</f>
+        <v>1.75</v>
+      </c>
+      <c r="W76">
+        <v>1.7</v>
+      </c>
+      <c r="X76">
+        <v>1.8</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC76" s="10"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77">
-        <v>120</v>
-      </c>
-      <c r="E77" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C77">
+        <v>53.4</v>
+      </c>
+      <c r="E77">
+        <v>10963</v>
       </c>
       <c r="F77">
         <v>20211010</v>
@@ -5355,59 +5352,56 @@
         <v>74</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="2"/>
-        <v>2.2999999999999998</v>
+        <f>AVERAGE(I77:M77)</f>
+        <v>2.5166666666666666</v>
       </c>
       <c r="I77">
-        <v>2.9</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J77">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="K77">
-        <v>2.4</v>
-      </c>
-      <c r="L77">
-        <v>2.4500000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="Q77" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="R77" t="s">
-        <v>43</v>
-      </c>
-      <c r="S77" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="S77">
+        <v>10963</v>
       </c>
       <c r="T77">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="U77" t="s">
         <v>39</v>
       </c>
       <c r="V77" s="11">
-        <f t="shared" si="3"/>
-        <v>1.375</v>
+        <f>AVERAGE(W77:AA77)</f>
+        <v>1.75</v>
       </c>
       <c r="W77">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="X77">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78">
-        <v>200</v>
-      </c>
-      <c r="E78" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="C78">
+        <v>52.2</v>
+      </c>
+      <c r="E78">
+        <v>10964</v>
       </c>
       <c r="F78">
         <v>20211010</v>
@@ -5416,53 +5410,118 @@
         <v>74</v>
       </c>
       <c r="H78" s="11">
-        <f t="shared" si="2"/>
-        <v>2.6625000000000001</v>
+        <f>AVERAGE(I78:M78)</f>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I78">
-        <v>3.85</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J78">
-        <v>1.85</v>
-      </c>
-      <c r="K78">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="L78">
-        <v>2.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="Q78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R78" t="s">
-        <v>43</v>
-      </c>
-      <c r="S78" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="S78">
+        <v>10964</v>
       </c>
       <c r="T78">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="U78" t="s">
         <v>39</v>
       </c>
       <c r="V78" s="11">
-        <f t="shared" si="3"/>
-        <v>1.8</v>
+        <f>AVERAGE(W78:AA78)</f>
+        <v>1.575</v>
       </c>
       <c r="W78">
         <v>1.8</v>
       </c>
       <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
         <v>1.8</v>
       </c>
+      <c r="Z78">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8"/>
-      <c r="AB79" s="8"/>
-    </row>
-    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="10">
+        <v>84.3</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10">
+        <v>10984</v>
+      </c>
+      <c r="F79" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H79" s="11">
+        <f>AVERAGE(I79:M79)</f>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="I79" s="10">
+        <v>3</v>
+      </c>
+      <c r="J79" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S79" s="10">
+        <v>10984</v>
+      </c>
+      <c r="T79" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="U79" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V79" s="11">
+        <f>AVERAGE(W79:AA79)</f>
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="W79" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="X79" s="10">
+        <v>1.95</v>
+      </c>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+    </row>
+    <row r="81" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -5477,39 +5536,38 @@
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="V81" s="12"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="8">
-        <v>20211010</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="8">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J85" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81" s="11"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8"/>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="8"/>
+      <c r="AC82" s="8"/>
     </row>
     <row r="114" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114"/>
@@ -5682,9 +5740,8 @@
       <c r="N154" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N155">
-    <sortCondition ref="G2:G155"/>
-    <sortCondition ref="E2:E155"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC154">
+    <sortCondition ref="B2:B154"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5694,8 +5751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1904549-8154-7E48-B930-BCA793DC66AA}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6210,7 +6267,7 @@
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>10732</v>
@@ -7240,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>10898</v>
@@ -11076,8 +11133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031B472-3627-4E45-A195-B1D10EC254E7}">
   <dimension ref="A1:V143"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C122" sqref="A122:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16795,7 +16852,7 @@
         <v>2.7801000000000045</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="20">(O130-P130)</f>
+        <f t="shared" ref="Q130:Q143" si="20">(O130-P130)</f>
         <v>1.934899999999999</v>
       </c>
       <c r="S130">
@@ -17402,8 +17459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5750438-5322-5A46-95A8-63380D05FED0}">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C136" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
